--- a/data_clean/Aker BP 11.12.2020.xlsx
+++ b/data_clean/Aker BP 11.12.2020.xlsx
@@ -1689,7 +1689,7 @@
         <v>1.064661296799102</v>
       </c>
       <c r="K2">
-        <v>49.21129395338673</v>
+        <v>-0.007887060466132958</v>
       </c>
       <c r="L2">
         <v>-0.002681108656249191</v>
@@ -1719,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1760,7 +1760,7 @@
         <v>1.064661296799102</v>
       </c>
       <c r="K3">
-        <v>49.21129395338673</v>
+        <v>-0.007887060466132958</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1790,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.01339704841602225</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9992489109208352</v>
+        <v>-0.0007510890791647684</v>
       </c>
       <c r="V4">
-        <v>0.9992489109208352</v>
+        <v>-0.0007510890791647684</v>
       </c>
       <c r="W4">
-        <v>0.9977467327625056</v>
+        <v>-0.002253267237494416</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L5">
         <v>-0.0162721827726715</v>
@@ -1932,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9996241731809982</v>
+        <v>-0.0003758268190018343</v>
       </c>
       <c r="V5">
-        <v>0.9996241731809982</v>
+        <v>-0.0003758268190018343</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L6">
         <v>-0.02451041616317629</v>
@@ -2003,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.998962327994586</v>
+        <v>-0.001037672005414048</v>
       </c>
       <c r="V6">
-        <v>0.998962327994586</v>
+        <v>-0.001037672005414048</v>
       </c>
       <c r="W6">
-        <v>0.9959349593495934</v>
+        <v>-0.004065040650406582</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L7">
         <v>-0.03313771027976468</v>
@@ -2074,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9989311414205281</v>
+        <v>-0.001068858579471921</v>
       </c>
       <c r="V7">
-        <v>0.9989311414205281</v>
+        <v>-0.001068858579471921</v>
       </c>
       <c r="W7">
-        <v>0.9977324263038548</v>
+        <v>-0.002267573696145164</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2115,7 +2115,7 @@
         <v>0.05901434970796765</v>
       </c>
       <c r="K8">
-        <v>5.57257318791207</v>
+        <v>-0.4442742681208793</v>
       </c>
       <c r="L8">
         <v>-0.03845083075663647</v>
@@ -2145,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9993003003326266</v>
+        <v>-0.0006996996673733769</v>
       </c>
       <c r="V8">
-        <v>0.9993003003326266</v>
+        <v>-0.0006996996673733769</v>
       </c>
       <c r="W8">
-        <v>1.000454545454545</v>
+        <v>0.0004545454545454852</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2186,7 +2186,7 @@
         <v>0.4938569265035541</v>
       </c>
       <c r="K9">
-        <v>33.05918510278293</v>
+        <v>-0.1694081489721707</v>
       </c>
       <c r="L9">
         <v>-0.03838578196922382</v>
@@ -2216,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.999870734229576</v>
+        <v>-0.0001292657704240474</v>
       </c>
       <c r="V9">
-        <v>0.999870734229576</v>
+        <v>-0.0001292657704240474</v>
       </c>
       <c r="W9">
-        <v>1.003180372557928</v>
+        <v>0.003180372557928246</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2257,7 +2257,7 @@
         <v>0.4367401685268966</v>
       </c>
       <c r="K10">
-        <v>30.39799248981049</v>
+        <v>-0.1960200751018951</v>
       </c>
       <c r="L10">
         <v>-0.0369093915073441</v>
@@ -2287,13 +2287,13 @@
         <v>-0.1180555555555713</v>
       </c>
       <c r="U10">
-        <v>0.999798893916541</v>
+        <v>-0.0002011060834590239</v>
       </c>
       <c r="V10">
-        <v>0.999798893916541</v>
+        <v>-0.0002011060834590239</v>
       </c>
       <c r="W10">
-        <v>0.9990942028985507</v>
+        <v>-0.0009057971014493349</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2328,7 +2328,7 @@
         <v>0.5584817092581087</v>
       </c>
       <c r="K11">
-        <v>35.83498644484993</v>
+        <v>-0.1416501355515007</v>
       </c>
       <c r="L11">
         <v>-0.03419677107540056</v>
@@ -2358,13 +2358,13 @@
         <v>-0.2399999999999807</v>
       </c>
       <c r="U11">
-        <v>0.9999295987126622</v>
+        <v>-7.040128733781792E-05</v>
       </c>
       <c r="V11">
-        <v>0.9999295987126622</v>
+        <v>-7.040128733781792E-05</v>
       </c>
       <c r="W11">
-        <v>1.00090661831369</v>
+        <v>0.0009066183136900996</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2399,7 +2399,7 @@
         <v>0.369220679988248</v>
       </c>
       <c r="K12">
-        <v>26.96575397849067</v>
+        <v>-0.2303424602150933</v>
       </c>
       <c r="L12">
         <v>-0.03328817564456873</v>
@@ -2429,13 +2429,13 @@
         <v>-0.3295454545454675</v>
       </c>
       <c r="U12">
-        <v>0.9996132228412486</v>
+        <v>-0.0003867771587513502</v>
       </c>
       <c r="V12">
-        <v>0.9996132228412486</v>
+        <v>-0.0003867771587513502</v>
       </c>
       <c r="W12">
-        <v>0.9963768115942029</v>
+        <v>-0.003623188405797118</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2470,7 +2470,7 @@
         <v>0.369220679988248</v>
       </c>
       <c r="K13">
-        <v>26.96575397849067</v>
+        <v>-0.2303424602150933</v>
       </c>
       <c r="L13">
         <v>-0.03304901205599079</v>
@@ -2500,13 +2500,13 @@
         <v>-0.4333333333333087</v>
       </c>
       <c r="U13">
-        <v>0.9996775609889959</v>
+        <v>-0.0003224390110041497</v>
       </c>
       <c r="V13">
-        <v>0.9996775609889959</v>
+        <v>-0.0003224390110041497</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2541,7 +2541,7 @@
         <v>0.3526675346678284</v>
       </c>
       <c r="K14">
-        <v>26.07200406820085</v>
+        <v>-0.2392799593179915</v>
       </c>
       <c r="L14">
         <v>-0.03318371175059548</v>
@@ -2571,13 +2571,13 @@
         <v>-0.4403846153846303</v>
       </c>
       <c r="U14">
-        <v>0.9996922380103479</v>
+        <v>-0.0003077619896521</v>
       </c>
       <c r="V14">
-        <v>0.9996922380103479</v>
+        <v>-0.0003077619896521</v>
       </c>
       <c r="W14">
-        <v>0.9995454545454546</v>
+        <v>-0.0004545454545453742</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2612,7 +2612,7 @@
         <v>0.399859808664326</v>
       </c>
       <c r="K15">
-        <v>28.56427523595035</v>
+        <v>-0.2143572476404965</v>
       </c>
       <c r="L15">
         <v>-0.03308147001049623</v>
@@ -2642,13 +2642,13 @@
         <v>-0.3892857142857622</v>
       </c>
       <c r="U15">
-        <v>0.9997684850959169</v>
+        <v>-0.0002315149040831299</v>
       </c>
       <c r="V15">
-        <v>0.9997684850959169</v>
+        <v>-0.0002315149040831299</v>
       </c>
       <c r="W15">
-        <v>1.000454752160073</v>
+        <v>0.0004547521600726245</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2683,7 +2683,7 @@
         <v>0.2763209426391023</v>
       </c>
       <c r="K16">
-        <v>21.64980087749262</v>
+        <v>-0.2835019912250738</v>
       </c>
       <c r="L16">
         <v>-0.03461224635348039</v>
@@ -2713,13 +2713,13 @@
         <v>-0.4099999999999966</v>
       </c>
       <c r="U16">
-        <v>0.9995274010293593</v>
+        <v>-0.0004725989706406697</v>
       </c>
       <c r="V16">
-        <v>0.9995274010293593</v>
+        <v>-0.0004725989706406697</v>
       </c>
       <c r="W16">
-        <v>0.9959090909090909</v>
+        <v>-0.004090909090909145</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2754,7 +2754,7 @@
         <v>0.2666842692268367</v>
       </c>
       <c r="K17">
-        <v>21.05372867617724</v>
+        <v>-0.2894627132382276</v>
       </c>
       <c r="L17">
         <v>-0.03690070868098168</v>
@@ -2784,13 +2784,13 @@
         <v>-0.5374999999999943</v>
       </c>
       <c r="U17">
-        <v>0.9995579434167574</v>
+        <v>-0.0004420565832425893</v>
       </c>
       <c r="V17">
-        <v>0.9991234433563052</v>
+        <v>-0.0008765566436947925</v>
       </c>
       <c r="W17">
-        <v>0.9995435874030123</v>
+        <v>-0.0004564125969876986</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2825,7 +2825,7 @@
         <v>0.2402276700493321</v>
       </c>
       <c r="K18">
-        <v>19.3696428366073</v>
+        <v>-0.306303571633927</v>
       </c>
       <c r="L18">
         <v>-0.03983136643284631</v>
@@ -2855,13 +2855,13 @@
         <v>-0.5749999999999886</v>
       </c>
       <c r="U18">
-        <v>0.9995297319472098</v>
+        <v>-0.000470268052790157</v>
       </c>
       <c r="V18">
-        <v>0.9990319165027982</v>
+        <v>-0.0009680834972017882</v>
       </c>
       <c r="W18">
-        <v>0.9986301369863013</v>
+        <v>-0.00136986301369868</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2896,7 +2896,7 @@
         <v>0.4838907888948648</v>
       </c>
       <c r="K19">
-        <v>32.60959583523292</v>
+        <v>-0.1739040416476708</v>
       </c>
       <c r="L19">
         <v>-0.04136455813792743</v>
@@ -2926,13 +2926,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U19">
-        <v>0.9997582671163195</v>
+        <v>-0.0002417328836804566</v>
       </c>
       <c r="V19">
-        <v>0.9993943615056174</v>
+        <v>-0.0006056384943825543</v>
       </c>
       <c r="W19">
-        <v>1.003200731595793</v>
+        <v>0.003200731595793371</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2967,7 +2967,7 @@
         <v>0.45085143077218</v>
       </c>
       <c r="K20">
-        <v>31.07495510634232</v>
+        <v>-0.1892504489365768</v>
       </c>
       <c r="L20">
         <v>-0.0422035825251804</v>
@@ -2997,13 +2997,13 @@
         <v>-0.5562500000000057</v>
       </c>
       <c r="U20">
-        <v>0.9997358798585165</v>
+        <v>-0.0002641201414834704</v>
       </c>
       <c r="V20">
-        <v>0.9993333939338848</v>
+        <v>-0.0006666060661152384</v>
       </c>
       <c r="W20">
-        <v>0.9990884229717411</v>
+        <v>-0.0009115770282589475</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3038,7 +3038,7 @@
         <v>0.4069760633316466</v>
       </c>
       <c r="K21">
-        <v>28.9255854408744</v>
+        <v>-0.210744145591256</v>
       </c>
       <c r="L21">
         <v>-0.04296487840046762</v>
@@ -3068,13 +3068,13 @@
         <v>-0.5375000000000227</v>
       </c>
       <c r="U21">
-        <v>0.999694123832055</v>
+        <v>-0.000305876167944974</v>
       </c>
       <c r="V21">
-        <v>0.999514872199145</v>
+        <v>-0.0004851278008549675</v>
       </c>
       <c r="W21">
-        <v>0.9986313868613139</v>
+        <v>-0.001368613138686081</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3109,7 +3109,7 @@
         <v>0.3284651846381197</v>
       </c>
       <c r="K22">
-        <v>24.72516317599961</v>
+        <v>-0.2527483682400039</v>
       </c>
       <c r="L22">
         <v>-0.0447174851078147</v>
@@ -3139,13 +3139,13 @@
         <v>-0.6062500000000171</v>
       </c>
       <c r="U22">
-        <v>0.9995717789341189</v>
+        <v>-0.0004282210658811403</v>
       </c>
       <c r="V22">
-        <v>0.9994539663279235</v>
+        <v>-0.0005460336720765069</v>
       </c>
       <c r="W22">
-        <v>0.9968021927820923</v>
+        <v>-0.003197807217907744</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3180,7 +3180,7 @@
         <v>0.3192052203573099</v>
       </c>
       <c r="K23">
-        <v>24.1967826863854</v>
+        <v>-0.258032173136146</v>
       </c>
       <c r="L23">
         <v>-0.04691704432515617</v>
@@ -3210,13 +3210,13 @@
         <v>-0.7249999999999943</v>
       </c>
       <c r="U23">
-        <v>0.9995898882371684</v>
+        <v>-0.0004101117628315665</v>
       </c>
       <c r="V23">
-        <v>0.999392964458069</v>
+        <v>-0.0006070355419309781</v>
       </c>
       <c r="W23">
-        <v>0.9995417048579285</v>
+        <v>-0.0004582951420715187</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3251,7 +3251,7 @@
         <v>0.3785559904101268</v>
       </c>
       <c r="K24">
-        <v>27.46032754879289</v>
+        <v>-0.2253967245120711</v>
       </c>
       <c r="L24">
         <v>-0.04868668887334643</v>
@@ -3281,13 +3281,13 @@
         <v>-0.7125000000000057</v>
       </c>
       <c r="U24">
-        <v>0.9996649230086502</v>
+        <v>-0.0003350769913498253</v>
       </c>
       <c r="V24">
-        <v>0.9992407446776201</v>
+        <v>-0.0007592553223798593</v>
       </c>
       <c r="W24">
-        <v>1.000917010545621</v>
+        <v>0.0009170105456213218</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3322,7 +3322,7 @@
         <v>0.3785559904101267</v>
       </c>
       <c r="K25">
-        <v>27.46032754879289</v>
+        <v>-0.2253967245120711</v>
       </c>
       <c r="L25">
         <v>-0.04989506711464532</v>
@@ -3352,13 +3352,13 @@
         <v>-0.6437500000000114</v>
       </c>
       <c r="U25">
-        <v>0.9996927431365571</v>
+        <v>-0.0003072568634429063</v>
       </c>
       <c r="V25">
-        <v>0.9993009543492797</v>
+        <v>-0.0006990456507203202</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3393,7 +3393,7 @@
         <v>0.3445665851526049</v>
       </c>
       <c r="K26">
-        <v>25.62659142042396</v>
+        <v>-0.2437340857957604</v>
       </c>
       <c r="L26">
         <v>-0.05101981792176424</v>
@@ -3423,13 +3423,13 @@
         <v>-0.5687499999999943</v>
       </c>
       <c r="U26">
-        <v>0.9996626551691462</v>
+        <v>-0.0003373448308537919</v>
       </c>
       <c r="V26">
-        <v>0.9991483925910155</v>
+        <v>-0.0008516074089844894</v>
       </c>
       <c r="W26">
-        <v>0.9986257443884562</v>
+        <v>-0.001374255611543806</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3464,7 +3464,7 @@
         <v>0.4705834218692174</v>
       </c>
       <c r="K27">
-        <v>31.9997774265041</v>
+        <v>-0.1800022257349591</v>
       </c>
       <c r="L27">
         <v>-0.05113737715630262</v>
@@ -3494,13 +3494,13 @@
         <v>-0.5437499999999886</v>
       </c>
       <c r="U27">
-        <v>0.9997584997584997</v>
+        <v>-0.0002415002415002698</v>
       </c>
       <c r="V27">
-        <v>0.9995129524215397</v>
+        <v>-0.0004870475784602979</v>
       </c>
       <c r="W27">
-        <v>1.001834862385321</v>
+        <v>0.001834862385321046</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3535,7 +3535,7 @@
         <v>0.4554786893370899</v>
       </c>
       <c r="K28">
-        <v>31.2940816429639</v>
+        <v>-0.187059183570361</v>
       </c>
       <c r="L28">
         <v>-0.05062706288746314</v>
@@ -3565,13 +3565,13 @@
         <v>-0.5500000000000114</v>
       </c>
       <c r="U28">
-        <v>0.9997594787106243</v>
+        <v>-0.0002405212893756836</v>
       </c>
       <c r="V28">
-        <v>0.9994822597837674</v>
+        <v>-0.0005177402162326317</v>
       </c>
       <c r="W28">
-        <v>0.9995421245421245</v>
+        <v>-0.0004578754578754562</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3606,7 +3606,7 @@
         <v>0.4554786893370899</v>
       </c>
       <c r="K29">
-        <v>31.2940816429639</v>
+        <v>-0.187059183570361</v>
       </c>
       <c r="L29">
         <v>-0.04958606736740443</v>
@@ -3636,13 +3636,13 @@
         <v>-0.5187500000000114</v>
       </c>
       <c r="U29">
-        <v>0.9997766050714864</v>
+        <v>-0.0002233949285136427</v>
       </c>
       <c r="V29">
-        <v>0.9995124626729232</v>
+        <v>-0.0004875373270768479</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3677,7 +3677,7 @@
         <v>0.5977407832756301</v>
       </c>
       <c r="K30">
-        <v>37.41162455965878</v>
+        <v>-0.1258837544034123</v>
       </c>
       <c r="L30">
         <v>-0.04743189829396699</v>
@@ -3707,13 +3707,13 @@
         <v>-0.3812499999999659</v>
       </c>
       <c r="U30">
-        <v>0.9998547681196396</v>
+        <v>-0.0001452318803604191</v>
       </c>
       <c r="V30">
-        <v>0.9996036827022742</v>
+        <v>-0.0003963172977258234</v>
       </c>
       <c r="W30">
-        <v>1.001832340815392</v>
+        <v>0.00183234081539152</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3748,7 +3748,7 @@
         <v>0.5034933843961524</v>
       </c>
       <c r="K31">
-        <v>33.48823411008026</v>
+        <v>-0.1651176588991974</v>
       </c>
       <c r="L31">
         <v>-0.04542056547495985</v>
@@ -3778,13 +3778,13 @@
         <v>-0.2562499999999943</v>
       </c>
       <c r="U31">
-        <v>0.999788532604713</v>
+        <v>-0.0002114673952869905</v>
       </c>
       <c r="V31">
-        <v>0.9997255177041082</v>
+        <v>-0.0002744822958917759</v>
       </c>
       <c r="W31">
-        <v>0.9977137631458619</v>
+        <v>-0.002286236854138091</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3819,7 +3819,7 @@
         <v>0.4873172531255873</v>
       </c>
       <c r="K32">
-        <v>32.76484906643107</v>
+        <v>-0.1723515093356893</v>
       </c>
       <c r="L32">
         <v>-0.04362572670990814</v>
@@ -3849,13 +3849,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U32">
-        <v>0.9994230535649218</v>
+        <v>-0.0005769464350782183</v>
       </c>
       <c r="V32">
-        <v>0.999725442342892</v>
+        <v>-0.0002745576571080433</v>
       </c>
       <c r="W32">
-        <v>0.9995417048579285</v>
+        <v>-0.0004582951420715187</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3890,7 +3890,7 @@
         <v>0.4713759184208644</v>
       </c>
       <c r="K33">
-        <v>32.0364029694575</v>
+        <v>-0.179635970305425</v>
       </c>
       <c r="L33">
         <v>-0.04208425037424765</v>
@@ -3920,13 +3920,13 @@
         <v>-0.1937499999999943</v>
       </c>
       <c r="U33">
-        <v>0.9994075289399325</v>
+        <v>-0.0005924710600675454</v>
       </c>
       <c r="V33">
-        <v>0.9997863965091087</v>
+        <v>-0.0002136034908912787</v>
       </c>
       <c r="W33">
-        <v>0.9995414947271893</v>
+        <v>-0.0004585052728106609</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3961,7 +3961,7 @@
         <v>0.5746783495156119</v>
       </c>
       <c r="K34">
-        <v>36.49496734951549</v>
+        <v>-0.1350503265048451</v>
       </c>
       <c r="L34">
         <v>-0.04013546594105188</v>
@@ -3991,13 +3991,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U34">
-        <v>0.9995287822822139</v>
+        <v>-0.0004712177177861321</v>
       </c>
       <c r="V34">
-        <v>0.9996642656574289</v>
+        <v>-0.0003357343425710591</v>
       </c>
       <c r="W34">
-        <v>1.001376146788991</v>
+        <v>0.001376146788990784</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -4032,7 +4032,7 @@
         <v>0.518316882144101</v>
       </c>
       <c r="K35">
-        <v>34.13759592873369</v>
+        <v>-0.1586240407126631</v>
       </c>
       <c r="L35">
         <v>-0.03842247348852377</v>
@@ -4062,13 +4062,13 @@
         <v>-0.09375000000002842</v>
       </c>
       <c r="U35">
-        <v>0.999482936918304</v>
+        <v>-0.0005170630816959676</v>
       </c>
       <c r="V35">
-        <v>0.9996336213476629</v>
+        <v>-0.0003663786523371293</v>
       </c>
       <c r="W35">
-        <v>0.9986257443884562</v>
+        <v>-0.001374255611543806</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4103,7 +4103,7 @@
         <v>0.6903779444788501</v>
       </c>
       <c r="K36">
-        <v>40.84163229494196</v>
+        <v>-0.0915836770505804</v>
       </c>
       <c r="L36">
         <v>-0.03598267790438497</v>
@@ -4133,13 +4133,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U36">
-        <v>0.9996956878975077</v>
+        <v>-0.0003043121024922657</v>
       </c>
       <c r="V36">
-        <v>0.9998778290217158</v>
+        <v>-0.0001221709782841529</v>
       </c>
       <c r="W36">
-        <v>1.002293577981651</v>
+        <v>0.002293577981651307</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4174,7 +4174,7 @@
         <v>0.6030062435450783</v>
       </c>
       <c r="K37">
-        <v>37.61721116017107</v>
+        <v>-0.1238278883982893</v>
       </c>
       <c r="L37">
         <v>-0.03379841739990264</v>
@@ -4204,13 +4204,13 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>0.9997108155002891</v>
+        <v>-0.0002891844997109372</v>
       </c>
       <c r="V37">
-        <v>0.9999694535235358</v>
+        <v>-3.054647646416608E-05</v>
       </c>
       <c r="W37">
-        <v>0.9981693363844394</v>
+        <v>-0.001830663615560613</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4245,7 +4245,7 @@
         <v>0.5835708267575316</v>
       </c>
       <c r="K38">
-        <v>36.85157726430414</v>
+        <v>-0.1314842273569586</v>
       </c>
       <c r="L38">
         <v>-0.03195205323276644</v>
@@ -4275,13 +4275,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U38">
-        <v>0.9996802825693103</v>
+        <v>-0.0003197174306897033</v>
       </c>
       <c r="V38">
-        <v>0.9999694525904204</v>
+        <v>-3.054740957963986E-05</v>
       </c>
       <c r="W38">
-        <v>0.9995414947271893</v>
+        <v>-0.0004585052728106609</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4316,7 +4316,7 @@
         <v>0.617498059982018</v>
       </c>
       <c r="K39">
-        <v>38.17612368504991</v>
+        <v>-0.1182387631495009</v>
       </c>
       <c r="L39">
         <v>-0.03014406499392275</v>
@@ -4346,13 +4346,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U39">
-        <v>0.9995888032652066</v>
+        <v>-0.0004111967347933954</v>
       </c>
       <c r="V39">
-        <v>0.9999389033144952</v>
+        <v>-6.109668550480229E-05</v>
       </c>
       <c r="W39">
-        <v>1.00045871559633</v>
+        <v>0.0004587155963302614</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4387,7 +4387,7 @@
         <v>0.5962058343079492</v>
       </c>
       <c r="K40">
-        <v>37.35143810988764</v>
+        <v>-0.1264856189011236</v>
       </c>
       <c r="L40">
         <v>-0.02853189131485021</v>
@@ -4417,13 +4417,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U40">
-        <v>0.9996038698864934</v>
+        <v>-0.0003961301135065876</v>
       </c>
       <c r="V40">
-        <v>0.9999083493721932</v>
+        <v>-9.165062780680522E-05</v>
       </c>
       <c r="W40">
-        <v>0.9995414947271893</v>
+        <v>-0.0004585052728106609</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4458,7 +4458,7 @@
         <v>0.5962058343079493</v>
       </c>
       <c r="K41">
-        <v>37.35143810988764</v>
+        <v>-0.1264856189011236</v>
       </c>
       <c r="L41">
         <v>-0.02703705245827884</v>
@@ -4488,13 +4488,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U41">
-        <v>0.9995732292825681</v>
+        <v>-0.0004267707174319124</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4529,7 +4529,7 @@
         <v>0.7108255975945195</v>
       </c>
       <c r="K42">
-        <v>41.54868845743044</v>
+        <v>-0.08451311542569556</v>
       </c>
       <c r="L42">
         <v>-0.02510901381141093</v>
@@ -4559,13 +4559,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U42">
-        <v>0.9997407785791617</v>
+        <v>-0.0002592214208383403</v>
       </c>
       <c r="V42">
-        <v>0.9999694469905286</v>
+        <v>-3.055300947141237E-05</v>
       </c>
       <c r="W42">
-        <v>1.001376146788991</v>
+        <v>0.001376146788990784</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4600,7 +4600,7 @@
         <v>0.7510430583968212</v>
       </c>
       <c r="K43">
-        <v>42.89118161859729</v>
+        <v>-0.07108818381402704</v>
       </c>
       <c r="L43">
         <v>-0.02278320276492127</v>
@@ -4630,13 +4630,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U43">
-        <v>0.9997559636385821</v>
+        <v>-0.0002440363614178986</v>
       </c>
       <c r="V43">
-        <v>1.000030553942986</v>
+        <v>3.05539429863444E-05</v>
       </c>
       <c r="W43">
-        <v>1.000458085203848</v>
+        <v>0.0004580852038478245</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4671,7 +4671,7 @@
         <v>0.6664076195048413</v>
       </c>
       <c r="K44">
-        <v>39.99067285247163</v>
+        <v>-0.1000932714752837</v>
       </c>
       <c r="L44">
         <v>-0.0207826380637284</v>
@@ -4701,13 +4701,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U44">
-        <v>0.9997253920790871</v>
+        <v>-0.0002746079209129393</v>
       </c>
       <c r="V44">
-        <v>0.9999388939810572</v>
+        <v>-6.110601894282475E-05</v>
       </c>
       <c r="W44">
-        <v>0.9986263736263735</v>
+        <v>-0.00137362637362648</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4742,7 +4742,7 @@
         <v>0.6410597723798276</v>
       </c>
       <c r="K45">
-        <v>39.06376740014638</v>
+        <v>-0.1093623259985362</v>
       </c>
       <c r="L45">
         <v>-0.0191977879060046</v>
@@ -4772,13 +4772,13 @@
         <v>-0.06250000000002842</v>
       </c>
       <c r="U45">
-        <v>0.9996947962765146</v>
+        <v>-0.0003052037234854144</v>
       </c>
       <c r="V45">
-        <v>0.9997861158640919</v>
+        <v>-0.0002138841359080601</v>
       </c>
       <c r="W45">
-        <v>0.9995414947271893</v>
+        <v>-0.0004585052728106609</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4813,7 +4813,7 @@
         <v>0.841252143844207</v>
       </c>
       <c r="K46">
-        <v>45.68913316173103</v>
+        <v>-0.04310866838268973</v>
       </c>
       <c r="L46">
         <v>-0.0170613154117456</v>
@@ -4843,13 +4843,13 @@
         <v>0.01249999999996021</v>
       </c>
       <c r="U46">
-        <v>0.9999084109296291</v>
+        <v>-9.158907037087882E-05</v>
       </c>
       <c r="V46">
-        <v>1.000091684239479</v>
+        <v>9.168423947913951E-05</v>
       </c>
       <c r="W46">
-        <v>1.002293577981651</v>
+        <v>0.002293577981651307</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4884,7 +4884,7 @@
         <v>0.8412521438442068</v>
       </c>
       <c r="K47">
-        <v>45.68913316173101</v>
+        <v>-0.04310866838268984</v>
       </c>
       <c r="L47">
         <v>-0.01466471867105747</v>
@@ -4914,13 +4914,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U47">
-        <v>0.9999236687835856</v>
+        <v>-7.633121641437146E-05</v>
       </c>
       <c r="V47">
-        <v>1.000122234445667</v>
+        <v>0.0001222344456668356</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4955,7 +4955,7 @@
         <v>0.6885239069996798</v>
       </c>
       <c r="K48">
-        <v>40.7766750678177</v>
+        <v>-0.09223324932182303</v>
       </c>
       <c r="L48">
         <v>-0.01304425492277612</v>
@@ -4985,13 +4985,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U48">
-        <v>0.9998931281393608</v>
+        <v>-0.0001068718606391794</v>
       </c>
       <c r="V48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>0.9977116704805492</v>
+        <v>-0.002288329519450794</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -5026,7 +5026,7 @@
         <v>0.6631767735126392</v>
       </c>
       <c r="K49">
-        <v>39.87410022038764</v>
+        <v>-0.1012589977961236</v>
       </c>
       <c r="L49">
         <v>-0.01211659804842121</v>
@@ -5056,13 +5056,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U49">
-        <v>0.9997709643925975</v>
+        <v>-0.0002290356074025057</v>
       </c>
       <c r="V49">
-        <v>0.9998777804937666</v>
+        <v>-0.0001222195062333675</v>
       </c>
       <c r="W49">
-        <v>0.9995412844036697</v>
+        <v>-0.0004587155963302614</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5097,7 +5097,7 @@
         <v>0.5941092632605108</v>
       </c>
       <c r="K50">
-        <v>37.26904277849497</v>
+        <v>-0.1273095722150503</v>
       </c>
       <c r="L50">
         <v>-0.0121242388268091</v>
@@ -5127,13 +5127,13 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>0.9997556393848223</v>
+        <v>-0.0002443606151777411</v>
       </c>
       <c r="V50">
-        <v>0.9998777655543333</v>
+        <v>-0.0001222344456667246</v>
       </c>
       <c r="W50">
-        <v>0.9986232216613125</v>
+        <v>-0.001376778338687545</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5168,7 +5168,7 @@
         <v>0.5731643389610747</v>
       </c>
       <c r="K51">
-        <v>36.43385021933533</v>
+        <v>-0.1356614978066467</v>
       </c>
       <c r="L51">
         <v>-0.01282079285237898</v>
@@ -5198,13 +5198,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U51">
-        <v>0.9997861322008523</v>
+        <v>-0.0002138677991476712</v>
       </c>
       <c r="V51">
-        <v>0.9996943765281173</v>
+        <v>-0.0003056234718826767</v>
       </c>
       <c r="W51">
-        <v>0.9995404411764706</v>
+        <v>-0.0004595588235294379</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5239,7 +5239,7 @@
         <v>0.5157465514994084</v>
       </c>
       <c r="K52">
-        <v>34.0259096079896</v>
+        <v>-0.159740903920104</v>
       </c>
       <c r="L52">
         <v>-0.01434439229189636</v>
@@ -5269,13 +5269,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U52">
-        <v>0.999847204608309</v>
+        <v>-0.0001527953916909963</v>
       </c>
       <c r="V52">
-        <v>0.9997248547844696</v>
+        <v>-0.0002751452155304035</v>
       </c>
       <c r="W52">
-        <v>0.9986206896551724</v>
+        <v>-0.001379310344827633</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5310,7 +5310,7 @@
         <v>0.4665492602605179</v>
       </c>
       <c r="K53">
-        <v>31.81272343880492</v>
+        <v>-0.1818727656119508</v>
       </c>
       <c r="L53">
         <v>-0.01672069912807132</v>
@@ -5340,13 +5340,13 @@
         <v>-0.1749999999999829</v>
       </c>
       <c r="U53">
-        <v>0.9998166175099714</v>
+        <v>-0.000183382490028583</v>
       </c>
       <c r="V53">
-        <v>0.9996636188495766</v>
+        <v>-0.0003363811504234482</v>
       </c>
       <c r="W53">
-        <v>0.9986187845303868</v>
+        <v>-0.001381215469613228</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5381,7 +5381,7 @@
         <v>0.6339009119783779</v>
       </c>
       <c r="K54">
-        <v>38.79677814799864</v>
+        <v>-0.1120322185200135</v>
       </c>
       <c r="L54">
         <v>-0.01856750869311725</v>
@@ -5411,13 +5411,13 @@
         <v>-0.2750000000000057</v>
       </c>
       <c r="U54">
-        <v>0.9998624379059993</v>
+        <v>-0.0001375620940007316</v>
       </c>
       <c r="V54">
-        <v>0.9997858672376875</v>
+        <v>-0.0002141327623125244</v>
       </c>
       <c r="W54">
-        <v>1.002305209774089</v>
+        <v>0.002305209774089434</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5452,7 +5452,7 @@
         <v>0.5921740467851357</v>
       </c>
       <c r="K55">
-        <v>37.19279610045357</v>
+        <v>-0.1280720389954643</v>
       </c>
       <c r="L55">
         <v>-0.02024243823173222</v>
@@ -5482,13 +5482,13 @@
         <v>-0.3812499999999943</v>
       </c>
       <c r="U55">
-        <v>0.9998318454200807</v>
+        <v>-0.0001681545799192552</v>
       </c>
       <c r="V55">
-        <v>0.999755224428602</v>
+        <v>-0.0002447755713980149</v>
       </c>
       <c r="W55">
-        <v>0.999080036798528</v>
+        <v>-0.0009199632014720294</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5523,7 +5523,7 @@
         <v>0.6961090983749874</v>
       </c>
       <c r="K56">
-        <v>41.04152846311109</v>
+        <v>-0.08958471536888907</v>
       </c>
       <c r="L56">
         <v>-0.02113249244858923</v>
@@ -5553,13 +5553,13 @@
         <v>-0.4124999999999943</v>
       </c>
       <c r="U56">
-        <v>0.9999235532451647</v>
+        <v>-7.644675483531316E-05</v>
       </c>
       <c r="V56">
-        <v>0.9998469778117827</v>
+        <v>-0.0001530221882173333</v>
       </c>
       <c r="W56">
-        <v>1.001381215469613</v>
+        <v>0.001381215469613339</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5594,7 +5594,7 @@
         <v>0.7325775375293179</v>
       </c>
       <c r="K57">
-        <v>42.28252540858776</v>
+        <v>-0.07717474591412243</v>
       </c>
       <c r="L57">
         <v>-0.02124654491632933</v>
@@ -5624,13 +5624,13 @@
         <v>-0.4249999999999829</v>
       </c>
       <c r="U57">
-        <v>0.9998776758409788</v>
+        <v>-0.0001223241590212476</v>
       </c>
       <c r="V57">
-        <v>0.9997857361493723</v>
+        <v>-0.0002142638506277272</v>
       </c>
       <c r="W57">
-        <v>1.000459770114942</v>
+        <v>0.0004597701149424704</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5665,7 +5665,7 @@
         <v>0.7054951106691946</v>
       </c>
       <c r="K58">
-        <v>41.3660001870293</v>
+        <v>-0.086339998129707</v>
       </c>
       <c r="L58">
         <v>-0.02097277668952472</v>
@@ -5695,13 +5695,13 @@
         <v>-0.3874999999999602</v>
       </c>
       <c r="U58">
-        <v>0.9998776608759481</v>
+        <v>-0.0001223391240519067</v>
       </c>
       <c r="V58">
-        <v>0.9997244588678321</v>
+        <v>-0.000275541132167878</v>
       </c>
       <c r="W58">
-        <v>0.9995404411764706</v>
+        <v>-0.0004595588235294379</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5736,7 +5736,7 @@
         <v>0.7444095139740562</v>
       </c>
       <c r="K59">
-        <v>42.67401134944323</v>
+        <v>-0.07325988650556764</v>
       </c>
       <c r="L59">
         <v>-0.02023813606104078</v>
@@ -5766,13 +5766,13 @@
         <v>-0.3249999999999602</v>
       </c>
       <c r="U59">
-        <v>0.9998929401688484</v>
+        <v>-0.0001070598311515569</v>
       </c>
       <c r="V59">
-        <v>0.9998468794022172</v>
+        <v>-0.0001531205977828298</v>
       </c>
       <c r="W59">
-        <v>1.000459770114942</v>
+        <v>0.0004597701149424704</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5807,7 +5807,7 @@
         <v>0.9082596331524323</v>
       </c>
       <c r="K60">
-        <v>47.59622943194545</v>
+        <v>-0.02403770568054547</v>
       </c>
       <c r="L60">
         <v>-0.0185291073410242</v>
@@ -5837,13 +5837,13 @@
         <v>-0.2187499999999716</v>
       </c>
       <c r="U60">
-        <v>0.999892928705814</v>
+        <v>-0.0001070712941859675</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1.001838235294118</v>
+        <v>0.001838235294117752</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5878,7 +5878,7 @@
         <v>1.12385189522924</v>
       </c>
       <c r="K61">
-        <v>52.91573756878824</v>
+        <v>0.02915737568788246</v>
       </c>
       <c r="L61">
         <v>-0.01543533831217642</v>
@@ -5908,13 +5908,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U61">
-        <v>1.00004589261129</v>
+        <v>4.589261128962185E-05</v>
       </c>
       <c r="V61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>1.002293577981651</v>
+        <v>0.002293577981651307</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5949,7 +5949,7 @@
         <v>1.214627584524733</v>
       </c>
       <c r="K62">
-        <v>54.84568118866795</v>
+        <v>0.0484568118866795</v>
       </c>
       <c r="L62">
         <v>-0.0113086601606958</v>
@@ -5979,13 +5979,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U62">
-        <v>1.000091781010509</v>
+        <v>9.178101050877352E-05</v>
       </c>
       <c r="V62">
-        <v>1.000061257618917</v>
+        <v>6.125761891651038E-05</v>
       </c>
       <c r="W62">
-        <v>1.00091533180778</v>
+        <v>0.0009153318077803618</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -6020,7 +6020,7 @@
         <v>1.453510977407622</v>
       </c>
       <c r="K63">
-        <v>59.24208168587045</v>
+        <v>0.09242081685870451</v>
       </c>
       <c r="L63">
         <v>-0.005941965099946462</v>
@@ -6050,13 +6050,13 @@
         <v>0.3062500000000057</v>
       </c>
       <c r="U63">
-        <v>1.000183545175056</v>
+        <v>0.0001835451750562545</v>
       </c>
       <c r="V63">
-        <v>1.000367523199902</v>
+        <v>0.0003675231999018536</v>
       </c>
       <c r="W63">
-        <v>1.002286236854138</v>
+        <v>0.002286236854138091</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6091,7 +6091,7 @@
         <v>1.453510977407622</v>
       </c>
       <c r="K64">
-        <v>59.24208168587045</v>
+        <v>0.0924208168587044</v>
       </c>
       <c r="L64">
         <v>-0.0001442176646939607</v>
@@ -6121,13 +6121,13 @@
         <v>0.4437499999999943</v>
       </c>
       <c r="U64">
-        <v>1.000137633619306</v>
+        <v>0.0001376336193055216</v>
       </c>
       <c r="V64">
-        <v>1.000398003857576</v>
+        <v>0.0003980038575759348</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6162,7 +6162,7 @@
         <v>1.060517974805226</v>
       </c>
       <c r="K65">
-        <v>51.46851363456187</v>
+        <v>0.01468513634561874</v>
       </c>
       <c r="L65">
         <v>0.004375451815762174</v>
@@ -6192,13 +6192,13 @@
         <v>0.5187499999999545</v>
       </c>
       <c r="U65">
-        <v>1.000076452599388</v>
+        <v>7.64525993883769E-05</v>
       </c>
       <c r="V65">
-        <v>1.000275431509365</v>
+        <v>0.0002754315093647097</v>
       </c>
       <c r="W65">
-        <v>0.9968065693430658</v>
+        <v>-0.003193430656934226</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6233,7 +6233,7 @@
         <v>0.8813490109611546</v>
       </c>
       <c r="K66">
-        <v>46.84665130319897</v>
+        <v>-0.03153348696801034</v>
       </c>
       <c r="L66">
         <v>0.006980783277493111</v>
@@ -6263,13 +6263,13 @@
         <v>0.5562499999999773</v>
       </c>
       <c r="U66">
-        <v>0.9999235532451647</v>
+        <v>-7.644675483531316E-05</v>
       </c>
       <c r="V66">
-        <v>1.000152975370965</v>
+        <v>0.0001529753709652582</v>
       </c>
       <c r="W66">
-        <v>0.9977116704805492</v>
+        <v>-0.002288329519450794</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6304,7 +6304,7 @@
         <v>0.8228181393218661</v>
       </c>
       <c r="K67">
-        <v>45.13989199317355</v>
+        <v>-0.04860108006826452</v>
       </c>
       <c r="L67">
         <v>0.007900590757189411</v>
@@ -6334,13 +6334,13 @@
         <v>0.5625</v>
       </c>
       <c r="U67">
-        <v>0.9999541284403671</v>
+        <v>-4.587155963287071E-05</v>
       </c>
       <c r="V67">
-        <v>1.000183542367697</v>
+        <v>0.0001835423676965764</v>
       </c>
       <c r="W67">
-        <v>0.9990825688073395</v>
+        <v>-0.0009174311926605228</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6375,7 +6375,7 @@
         <v>0.7950295351812289</v>
       </c>
       <c r="K68">
-        <v>44.29061024341092</v>
+        <v>-0.05709389756589078</v>
       </c>
       <c r="L68">
         <v>0.007544959062955942</v>
@@ -6405,13 +6405,13 @@
         <v>0.4937499999999773</v>
       </c>
       <c r="U68">
-        <v>0.9999541263360704</v>
+        <v>-4.587366392960757E-05</v>
       </c>
       <c r="V68">
-        <v>1.000244678248104</v>
+        <v>0.0002446782481038134</v>
       </c>
       <c r="W68">
-        <v>0.9995408631772267</v>
+        <v>-0.0004591368227733206</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6446,7 +6446,7 @@
         <v>0.7422552291615435</v>
       </c>
       <c r="K69">
-        <v>42.60312821783019</v>
+        <v>-0.07396871782169812</v>
       </c>
       <c r="L69">
         <v>0.006077928597149397</v>
@@ -6476,13 +6476,13 @@
         <v>0.3312499999999829</v>
       </c>
       <c r="U69">
-        <v>0.9999082484631617</v>
+        <v>-9.175153683826931E-05</v>
       </c>
       <c r="V69">
-        <v>1.000030577299413</v>
+        <v>3.057729941291498E-05</v>
       </c>
       <c r="W69">
-        <v>0.9990813045475425</v>
+        <v>-0.0009186954524574853</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6517,7 +6517,7 @@
         <v>0.7771922337727559</v>
       </c>
       <c r="K70">
-        <v>43.73146691750247</v>
+        <v>-0.06268533082497529</v>
       </c>
       <c r="L70">
         <v>0.004176249498835379</v>
@@ -6547,13 +6547,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U70">
-        <v>0.9999388266960297</v>
+        <v>-6.117330397026333E-05</v>
       </c>
       <c r="V70">
-        <v>1.000122305457881</v>
+        <v>0.0001223054578811666</v>
       </c>
       <c r="W70">
-        <v>1.000459770114942</v>
+        <v>0.0004597701149424704</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6588,7 +6588,7 @@
         <v>0.8139680281003479</v>
       </c>
       <c r="K71">
-        <v>44.87223674789706</v>
+        <v>-0.05127763252102946</v>
       </c>
       <c r="L71">
         <v>0.002284363256478613</v>
@@ -6618,13 +6618,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U71">
-        <v>0.9999541172152209</v>
+        <v>-4.588278477912766E-05</v>
       </c>
       <c r="V71">
-        <v>1.000061145250543</v>
+        <v>6.114525054257136E-05</v>
       </c>
       <c r="W71">
-        <v>1.000459558823529</v>
+        <v>0.0004595588235294379</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6659,7 +6659,7 @@
         <v>0.9301021154506489</v>
       </c>
       <c r="K72">
-        <v>48.18926978034447</v>
+        <v>-0.01810730219655532</v>
       </c>
       <c r="L72">
         <v>0.001011774285057515</v>
@@ -6689,13 +6689,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U72">
-        <v>0.9999541151098944</v>
+        <v>-4.588489010559638E-05</v>
       </c>
       <c r="V72">
-        <v>1.000122283024059</v>
+        <v>0.0001222830240592554</v>
       </c>
       <c r="W72">
-        <v>1.001378043178686</v>
+        <v>0.001378043178686283</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6730,7 +6730,7 @@
         <v>0.9708509180296981</v>
       </c>
       <c r="K73">
-        <v>49.26049500488239</v>
+        <v>-0.007395049951176125</v>
       </c>
       <c r="L73">
         <v>0.0003587685459669923</v>
@@ -6760,13 +6760,13 @@
         <v>-0.2999999999999829</v>
       </c>
       <c r="U73">
-        <v>0.9999541130043744</v>
+        <v>-4.588699562557697E-05</v>
       </c>
       <c r="V73">
-        <v>1.000183402109124</v>
+        <v>0.0001834021091242644</v>
       </c>
       <c r="W73">
-        <v>1.00045871559633</v>
+        <v>0.0004587155963302614</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6801,7 +6801,7 @@
         <v>0.9309205014705276</v>
       </c>
       <c r="K74">
-        <v>48.21122882902576</v>
+        <v>-0.01788771170974246</v>
       </c>
       <c r="L74">
         <v>-4.564172742056132E-05</v>
@@ -6831,13 +6831,13 @@
         <v>-0.3312499999999829</v>
       </c>
       <c r="U74">
-        <v>0.9999847036328872</v>
+        <v>-1.529636711283811E-05</v>
       </c>
       <c r="V74">
-        <v>1.000122245652639</v>
+        <v>0.0001222456526390747</v>
       </c>
       <c r="W74">
-        <v>0.9995414947271893</v>
+        <v>-0.0004585052728106609</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6872,7 +6872,7 @@
         <v>0.8567373331740221</v>
       </c>
       <c r="K75">
-        <v>46.14208579031812</v>
+        <v>-0.03857914209681879</v>
       </c>
       <c r="L75">
         <v>-0.0006076006801133182</v>
@@ -6902,13 +6902,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U75">
-        <v>0.9999694067978095</v>
+        <v>-3.059320219045425E-05</v>
       </c>
       <c r="V75">
-        <v>0.9999388846447671</v>
+        <v>-6.111535523289913E-05</v>
       </c>
       <c r="W75">
-        <v>0.9990825688073395</v>
+        <v>-0.0009174311926605228</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6943,7 +6943,7 @@
         <v>0.9406194105930047</v>
       </c>
       <c r="K76">
-        <v>48.47006092274296</v>
+        <v>-0.01529939077257042</v>
       </c>
       <c r="L76">
         <v>-0.0008929056927029377</v>
@@ -6973,13 +6973,13 @@
         <v>-0.3062500000000057</v>
       </c>
       <c r="U76">
-        <v>0.9999235146545922</v>
+        <v>-7.648534540782848E-05</v>
       </c>
       <c r="V76">
-        <v>0.9998472022736302</v>
+        <v>-0.00015279772636978</v>
       </c>
       <c r="W76">
-        <v>1.000918273645546</v>
+        <v>0.0009182736455464191</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7014,7 +7014,7 @@
         <v>0.9008483419799902</v>
       </c>
       <c r="K77">
-        <v>47.39191034260182</v>
+        <v>-0.02608089657398183</v>
       </c>
       <c r="L77">
         <v>-0.00115622045415342</v>
@@ -7044,13 +7044,13 @@
         <v>-0.2187500000000284</v>
       </c>
       <c r="U77">
-        <v>0.9999082105649639</v>
+        <v>-9.178943503607151E-05</v>
       </c>
       <c r="V77">
-        <v>0.9997554862766672</v>
+        <v>-0.0002445137233327843</v>
       </c>
       <c r="W77">
-        <v>0.9995412844036697</v>
+        <v>-0.0004587155963302614</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7085,7 +7085,7 @@
         <v>0.8272144390795022</v>
       </c>
       <c r="K78">
-        <v>45.27188606807578</v>
+        <v>-0.04728113931924222</v>
       </c>
       <c r="L78">
         <v>-0.001719319170369244</v>
@@ -7115,13 +7115,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U78">
-        <v>0.9999541010694453</v>
+        <v>-4.589893055473304E-05</v>
       </c>
       <c r="V78">
-        <v>0.9995414246407827</v>
+        <v>-0.0004585753592173392</v>
       </c>
       <c r="W78">
-        <v>0.9990821477742082</v>
+        <v>-0.0009178522257917709</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7156,7 +7156,7 @@
         <v>0.8702346500641003</v>
       </c>
       <c r="K79">
-        <v>46.53077356011311</v>
+        <v>-0.03469226439886891</v>
       </c>
       <c r="L79">
         <v>-0.002254866229004593</v>
@@ -7186,13 +7186,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U79">
-        <v>0.9999846996542121</v>
+        <v>-1.530034578789419E-05</v>
       </c>
       <c r="V79">
-        <v>0.9995717999694143</v>
+        <v>-0.0004282000305857458</v>
       </c>
       <c r="W79">
-        <v>1.000459347726229</v>
+        <v>0.0004593477262289092</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7227,7 +7227,7 @@
         <v>0.9608035152948076</v>
       </c>
       <c r="K80">
-        <v>49.00049942792715</v>
+        <v>-0.009995005720728534</v>
       </c>
       <c r="L80">
         <v>-0.002397298308667124</v>
@@ -7257,13 +7257,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U80">
-        <v>1.000061202319568</v>
+        <v>6.12023195678546E-05</v>
       </c>
       <c r="V80">
-        <v>0.9998470059055721</v>
+        <v>-0.0001529940944279273</v>
       </c>
       <c r="W80">
-        <v>1.000918273645546</v>
+        <v>0.0009182736455464191</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7298,7 +7298,7 @@
         <v>1.151474810517362</v>
       </c>
       <c r="K81">
-        <v>53.52025526343339</v>
+        <v>0.03520255263433392</v>
       </c>
       <c r="L81">
         <v>-0.001615529706404318</v>
@@ -7328,13 +7328,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U81">
-        <v>1.000137696791665</v>
+        <v>0.0001376967916648653</v>
       </c>
       <c r="V81">
-        <v>1.000122414004162</v>
+        <v>0.0001224140041620192</v>
       </c>
       <c r="W81">
-        <v>1.001834862385321</v>
+        <v>0.001834862385321046</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7369,7 +7369,7 @@
         <v>1.096458203712308</v>
       </c>
       <c r="K82">
-        <v>52.30050385792342</v>
+        <v>0.02300503857923419</v>
       </c>
       <c r="L82">
         <v>-0.0004847957119017124</v>
@@ -7399,13 +7399,13 @@
         <v>0.09375</v>
       </c>
       <c r="U82">
-        <v>1.000168272908062</v>
+        <v>0.0001682729080618728</v>
       </c>
       <c r="V82">
-        <v>1.00015299877601</v>
+        <v>0.0001529987760098273</v>
       </c>
       <c r="W82">
-        <v>0.9995421245421245</v>
+        <v>-0.0004578754578754562</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7440,7 +7440,7 @@
         <v>0.9527113498878446</v>
       </c>
       <c r="K83">
-        <v>48.789154113462</v>
+        <v>-0.01210845886538003</v>
       </c>
       <c r="L83">
         <v>0.0002858853403589351</v>
@@ -7470,13 +7470,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U83">
-        <v>1.000168244597054</v>
+        <v>0.0001682445970543345</v>
       </c>
       <c r="V83">
-        <v>1.000091785222579</v>
+        <v>9.178522257902166E-05</v>
       </c>
       <c r="W83">
-        <v>0.9986257443884562</v>
+        <v>-0.001374255611543806</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7511,7 +7511,7 @@
         <v>0.9108135802937397</v>
       </c>
       <c r="K84">
-        <v>47.66627104218743</v>
+        <v>-0.0233372895781257</v>
       </c>
       <c r="L84">
         <v>0.0006212095174402414</v>
@@ -7541,13 +7541,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U84">
-        <v>1.000076461952532</v>
+        <v>7.64619525321919E-05</v>
       </c>
       <c r="V84">
-        <v>1.0001223690651</v>
+        <v>0.0001223690651004361</v>
       </c>
       <c r="W84">
-        <v>0.9995412844036697</v>
+        <v>-0.0004587155963302614</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7582,7 +7582,7 @@
         <v>0.8705156675904392</v>
       </c>
       <c r="K85">
-        <v>46.53880652664193</v>
+        <v>-0.03461193473358071</v>
       </c>
       <c r="L85">
         <v>0.000502093068831807</v>
@@ -7612,13 +7612,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U85">
-        <v>1.000091747327859</v>
+        <v>9.174732785921513E-05</v>
       </c>
       <c r="V85">
-        <v>1.000061177046372</v>
+        <v>6.117704637231824E-05</v>
       </c>
       <c r="W85">
-        <v>0.9995410738871042</v>
+        <v>-0.0004589261128957745</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7653,7 +7653,7 @@
         <v>0.8705156675904391</v>
       </c>
       <c r="K86">
-        <v>46.53880652664193</v>
+        <v>-0.03461193473358071</v>
       </c>
       <c r="L86">
         <v>0.0001134333558249825</v>
@@ -7683,13 +7683,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U86">
-        <v>1.000045869455529</v>
+        <v>4.586945552942367E-05</v>
       </c>
       <c r="V86">
-        <v>1.000030586651985</v>
+        <v>3.058665198496513E-05</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7724,7 +7724,7 @@
         <v>0.7277982875365693</v>
       </c>
       <c r="K87">
-        <v>42.12287353139104</v>
+        <v>-0.07877126468608958</v>
       </c>
       <c r="L87">
         <v>-0.001082392400193933</v>
@@ -7754,13 +7754,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U87">
-        <v>0.9999694217655871</v>
+        <v>-3.057823441288132E-05</v>
       </c>
       <c r="V87">
-        <v>0.9998164857011775</v>
+        <v>-0.0001835142988224625</v>
       </c>
       <c r="W87">
-        <v>0.9981634527089073</v>
+        <v>-0.001836547291092727</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7795,7 +7795,7 @@
         <v>0.7277982875365692</v>
       </c>
       <c r="K88">
-        <v>42.12287353139104</v>
+        <v>-0.07877126468608958</v>
       </c>
       <c r="L88">
         <v>-0.002687107227106464</v>
@@ -7825,13 +7825,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U88">
-        <v>0.999984710415265</v>
+        <v>-1.528958473495656E-05</v>
       </c>
       <c r="V88">
-        <v>0.9997858606870813</v>
+        <v>-0.000214139312918693</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7866,7 +7866,7 @@
         <v>0.6961816526327596</v>
       </c>
       <c r="K89">
-        <v>41.04405041477535</v>
+        <v>-0.08955949585224654</v>
       </c>
       <c r="L89">
         <v>-0.004594650713907366</v>
@@ -7896,13 +7896,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U89">
-        <v>0.9999541305444706</v>
+        <v>-4.586945552942367E-05</v>
       </c>
       <c r="V89">
-        <v>0.9997858148216143</v>
+        <v>-0.000214185178385673</v>
       </c>
       <c r="W89">
-        <v>0.9995400183992641</v>
+        <v>-0.0004599816007359037</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7937,7 +7937,7 @@
         <v>0.787637400440156</v>
       </c>
       <c r="K90">
-        <v>44.06024399837585</v>
+        <v>-0.05939756001624147</v>
       </c>
       <c r="L90">
         <v>-0.006213400014683041</v>
@@ -7967,13 +7967,13 @@
         <v>-0.1749999999999829</v>
       </c>
       <c r="U90">
-        <v>0.9999235474006115</v>
+        <v>-7.645259938848792E-05</v>
       </c>
       <c r="V90">
-        <v>0.9999081866870696</v>
+        <v>-9.181331293039996E-05</v>
       </c>
       <c r="W90">
-        <v>1.000920386562356</v>
+        <v>0.0009203865623561569</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -8008,7 +8008,7 @@
         <v>0.8357720045493118</v>
       </c>
       <c r="K91">
-        <v>45.52700457780958</v>
+        <v>-0.04472995422190423</v>
       </c>
       <c r="L91">
         <v>-0.007364465727727931</v>
@@ -8038,13 +8038,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U91">
-        <v>0.9998623747992967</v>
+        <v>-0.0001376252007032619</v>
       </c>
       <c r="V91">
-        <v>0.999877571008815</v>
+        <v>-0.0001224289911849752</v>
       </c>
       <c r="W91">
-        <v>1.000459770114942</v>
+        <v>0.0004597701149424704</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -8079,7 +8079,7 @@
         <v>0.8357720045493118</v>
       </c>
       <c r="K92">
-        <v>45.52700457780958</v>
+        <v>-0.04472995422190423</v>
       </c>
       <c r="L92">
         <v>-0.008132100916901851</v>
@@ -8109,13 +8109,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U92">
-        <v>0.9998317682684366</v>
+        <v>-0.0001682317315634396</v>
       </c>
       <c r="V92">
-        <v>0.9999081670135912</v>
+        <v>-9.183298640880189E-05</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8150,7 +8150,7 @@
         <v>0.8357720045493119</v>
       </c>
       <c r="K93">
-        <v>45.52700457780958</v>
+        <v>-0.04472995422190418</v>
       </c>
       <c r="L93">
         <v>-0.00858896063389716</v>
@@ -8180,13 +8180,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U93">
-        <v>0.999755258126195</v>
+        <v>-0.0002447418738049656</v>
       </c>
       <c r="V93">
-        <v>0.9999693861931731</v>
+        <v>-3.061380682689574E-05</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8221,7 +8221,7 @@
         <v>0.7514018501084696</v>
       </c>
       <c r="K94">
-        <v>42.90288091576088</v>
+        <v>-0.07097119084239117</v>
       </c>
       <c r="L94">
         <v>-0.009131424559873339</v>
@@ -8251,13 +8251,13 @@
         <v>-0.2624999999999886</v>
       </c>
       <c r="U94">
-        <v>0.9997245979895654</v>
+        <v>-0.0002754020104346333</v>
       </c>
       <c r="V94">
-        <v>0.9998775410237569</v>
+        <v>-0.0001224589762430783</v>
       </c>
       <c r="W94">
-        <v>0.9990808823529412</v>
+        <v>-0.0009191176470587648</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8292,7 +8292,7 @@
         <v>0.7514018501084696</v>
       </c>
       <c r="K95">
-        <v>42.90288091576088</v>
+        <v>-0.07097119084239117</v>
       </c>
       <c r="L95">
         <v>-0.009658052743368988</v>
@@ -8322,13 +8322,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U95">
-        <v>0.999831652408136</v>
+        <v>-0.0001683475918640154</v>
       </c>
       <c r="V95">
-        <v>0.9998162890385793</v>
+        <v>-0.0001837109614206689</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8363,7 +8363,7 @@
         <v>0.863256441025205</v>
       </c>
       <c r="K96">
-        <v>46.33052230589485</v>
+        <v>-0.03669477694105155</v>
       </c>
       <c r="L96">
         <v>-0.009772163509977344</v>
@@ -8393,13 +8393,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U96">
-        <v>0.999938772386346</v>
+        <v>-6.122761365401352E-05</v>
       </c>
       <c r="V96">
-        <v>0.9997550070435475</v>
+        <v>-0.0002449929564525277</v>
       </c>
       <c r="W96">
-        <v>1.000919963201472</v>
+        <v>0.0009199632014718073</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8434,7 +8434,7 @@
         <v>0.8632564410252049</v>
       </c>
       <c r="K97">
-        <v>46.33052230589485</v>
+        <v>-0.03669477694105155</v>
       </c>
       <c r="L97">
         <v>-0.009593478652609047</v>
@@ -8464,13 +8464,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U97">
-        <v>0.999969384318648</v>
+        <v>-3.061568135198645E-05</v>
       </c>
       <c r="V97">
-        <v>0.9997855786313791</v>
+        <v>-0.0002144213686209318</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8505,7 +8505,7 @@
         <v>0.863256441025205</v>
       </c>
       <c r="K98">
-        <v>46.33052230589485</v>
+        <v>-0.03669477694105155</v>
       </c>
       <c r="L98">
         <v>-0.00921383355348125</v>
@@ -8535,13 +8535,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U98">
-        <v>0.9999846916906499</v>
+        <v>-1.530830935014826E-05</v>
       </c>
       <c r="V98">
-        <v>0.9998774472257116</v>
+        <v>-0.0001225527742884092</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8576,7 +8576,7 @@
         <v>0.863256441025205</v>
       </c>
       <c r="K99">
-        <v>46.33052230589485</v>
+        <v>-0.03669477694105155</v>
       </c>
       <c r="L99">
         <v>-0.008703054637455861</v>
@@ -8606,13 +8606,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U99">
-        <v>1.000015308543698</v>
+        <v>1.53085436980227E-05</v>
       </c>
       <c r="V99">
-        <v>0.9999080741535161</v>
+        <v>-9.19258464838757E-05</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8647,7 +8647,7 @@
         <v>0.7590214692926396</v>
       </c>
       <c r="K100">
-        <v>43.15021064511891</v>
+        <v>-0.06849789354881092</v>
       </c>
       <c r="L100">
         <v>-0.008448093747066085</v>
@@ -8677,13 +8677,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U100">
-        <v>0.9999693833812997</v>
+        <v>-3.061661870029653E-05</v>
       </c>
       <c r="V100">
-        <v>0.999877420936504</v>
+        <v>-0.0001225790634959978</v>
       </c>
       <c r="W100">
-        <v>0.9990808823529412</v>
+        <v>-0.0009191176470587648</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8718,7 +8718,7 @@
         <v>0.8225721233405142</v>
       </c>
       <c r="K101">
-        <v>45.13248681938892</v>
+        <v>-0.04867513180611083</v>
       </c>
       <c r="L101">
         <v>-0.008166447456103353</v>
@@ -8748,13 +8748,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U101">
-        <v>0.9999693824438931</v>
+        <v>-3.061755610689332E-05</v>
       </c>
       <c r="V101">
-        <v>0.9999080544317764</v>
+        <v>-9.194556822356148E-05</v>
       </c>
       <c r="W101">
-        <v>1.000459981600736</v>
+        <v>0.0004599816007360147</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8789,7 +8789,7 @@
         <v>0.8894675486540664</v>
       </c>
       <c r="K102">
-        <v>47.0750370540984</v>
+        <v>-0.02924962945901605</v>
       </c>
       <c r="L102">
         <v>-0.007689615915114777</v>
@@ -8819,13 +8819,13 @@
         <v>0.03125</v>
       </c>
       <c r="U102">
-        <v>0.9999387630128597</v>
+        <v>-6.123698714033399E-05</v>
       </c>
       <c r="V102">
-        <v>1.000061302681992</v>
+        <v>6.130268199222577E-05</v>
       </c>
       <c r="W102">
-        <v>1.000459770114942</v>
+        <v>0.0004597701149424704</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8860,7 +8860,7 @@
         <v>1.030300022998407</v>
       </c>
       <c r="K103">
-        <v>50.74619570150176</v>
+        <v>0.007461957015017617</v>
       </c>
       <c r="L103">
         <v>-0.006762374439166631</v>
@@ -8890,13 +8890,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U103">
-        <v>0.9999540694469963</v>
+        <v>-4.593055300372573E-05</v>
       </c>
       <c r="V103">
-        <v>1.000122597848408</v>
+        <v>0.000122597848407846</v>
       </c>
       <c r="W103">
-        <v>1.000919117647059</v>
+        <v>0.0009191176470588758</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8931,7 +8931,7 @@
         <v>0.8972826211804872</v>
       </c>
       <c r="K104">
-        <v>47.29303959060137</v>
+        <v>-0.02706960409398634</v>
       </c>
       <c r="L104">
         <v>-0.005931151212018228</v>
@@ -8961,13 +8961,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U104">
-        <v>0.9999387564497114</v>
+        <v>-6.124355028858108E-05</v>
       </c>
       <c r="V104">
-        <v>1.000091937115013</v>
+        <v>9.19371150134296E-05</v>
       </c>
       <c r="W104">
-        <v>0.9990817263544536</v>
+        <v>-0.0009182736455464191</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -9002,7 +9002,7 @@
         <v>0.7899306309121173</v>
       </c>
       <c r="K105">
-        <v>44.13191311830797</v>
+        <v>-0.05868086881692031</v>
       </c>
       <c r="L105">
         <v>-0.005524020640764075</v>
@@ -9032,13 +9032,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U105">
-        <v>0.9999387526987091</v>
+        <v>-6.124730129086764E-05</v>
       </c>
       <c r="V105">
-        <v>0.9999693571122141</v>
+        <v>-3.064288778586999E-05</v>
       </c>
       <c r="W105">
-        <v>0.9990808823529412</v>
+        <v>-0.0009191176470587648</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -9073,7 +9073,7 @@
         <v>0.6644174033509022</v>
       </c>
       <c r="K106">
-        <v>39.91891709454962</v>
+        <v>-0.1008108290545038</v>
       </c>
       <c r="L106">
         <v>-0.005881563440797421</v>
@@ -9103,13 +9103,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U106">
-        <v>0.999862185131307</v>
+        <v>-0.0001378148686930203</v>
       </c>
       <c r="V106">
-        <v>0.9998467808659945</v>
+        <v>-0.0001532191340054556</v>
       </c>
       <c r="W106">
-        <v>0.9986200551977921</v>
+        <v>-0.001379944802207933</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9144,7 +9144,7 @@
         <v>0.8316715668639524</v>
       </c>
       <c r="K107">
-        <v>45.40505961381912</v>
+        <v>-0.04594940386180879</v>
       </c>
       <c r="L107">
         <v>-0.006156426638907309</v>
@@ -9174,13 +9174,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U107">
-        <v>0.9999234256309729</v>
+        <v>-7.657436902708259E-05</v>
       </c>
       <c r="V107">
-        <v>0.9999387029545177</v>
+        <v>-6.129704548230031E-05</v>
       </c>
       <c r="W107">
-        <v>1.001381851681253</v>
+        <v>0.001381851681252932</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9215,7 +9215,7 @@
         <v>1.007728581088199</v>
       </c>
       <c r="K108">
-        <v>50.19247076425066</v>
+        <v>0.001924707642506629</v>
       </c>
       <c r="L108">
         <v>-0.005839379806120398</v>
@@ -9245,13 +9245,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U108">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V108">
-        <v>1.00003065040152</v>
+        <v>3.06504015201714E-05</v>
       </c>
       <c r="W108">
-        <v>1.001379944802208</v>
+        <v>0.001379944802207822</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9286,7 +9286,7 @@
         <v>1.131277362999969</v>
       </c>
       <c r="K109">
-        <v>53.07978129170348</v>
+        <v>0.03079781291703487</v>
       </c>
       <c r="L109">
         <v>-0.004827964083577424</v>
@@ -9316,13 +9316,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U109">
-        <v>1.000015316046622</v>
+        <v>1.531604662208252E-05</v>
       </c>
       <c r="V109">
-        <v>1.00015324731051</v>
+        <v>0.0001532473105096965</v>
       </c>
       <c r="W109">
-        <v>1.000918695452458</v>
+        <v>0.0009186954524575963</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9357,7 +9357,7 @@
         <v>1.196303037690365</v>
       </c>
       <c r="K110">
-        <v>54.46894245287749</v>
+        <v>0.04468942452877489</v>
       </c>
       <c r="L110">
         <v>-0.003275309798122304</v>
@@ -9387,13 +9387,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V110">
-        <v>1.000183868595244</v>
+        <v>0.0001838685952439967</v>
       </c>
       <c r="W110">
-        <v>1.000458926112896</v>
+        <v>0.0004589261128957745</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9428,7 +9428,7 @@
         <v>1.333199194933303</v>
       </c>
       <c r="K111">
-        <v>57.14039323468111</v>
+        <v>0.07140393234681108</v>
       </c>
       <c r="L111">
         <v>-0.001147040117379475</v>
@@ -9458,13 +9458,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U111">
-        <v>0.9999693683759112</v>
+        <v>-3.063162408878384E-05</v>
       </c>
       <c r="V111">
-        <v>1.000183834793799</v>
+        <v>0.0001838347937987983</v>
       </c>
       <c r="W111">
-        <v>1.000917431192661</v>
+        <v>0.0009174311926605228</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9499,7 +9499,7 @@
         <v>1.405249804008555</v>
       </c>
       <c r="K112">
-        <v>58.42427683255958</v>
+        <v>0.08424276832559574</v>
       </c>
       <c r="L112">
         <v>0.001365846885486666</v>
@@ -9529,13 +9529,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V112">
-        <v>1.000214434505575</v>
+        <v>0.0002144345055752339</v>
       </c>
       <c r="W112">
-        <v>1.000458295142072</v>
+        <v>0.0004582951420715187</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9570,7 +9570,7 @@
         <v>1.405249804008555</v>
       </c>
       <c r="K113">
-        <v>58.42427683255957</v>
+        <v>0.08424276832559574</v>
       </c>
       <c r="L113">
         <v>0.003946528857942447</v>
@@ -9600,13 +9600,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U113">
-        <v>1.000045948843621</v>
+        <v>4.594884362063567E-05</v>
       </c>
       <c r="V113">
-        <v>1.000214388533276</v>
+        <v>0.0002143885332761553</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9641,7 +9641,7 @@
         <v>1.405249804008555</v>
       </c>
       <c r="K114">
-        <v>58.42427683255957</v>
+        <v>0.08424276832559574</v>
       </c>
       <c r="L114">
         <v>0.006389252149948614</v>
@@ -9671,13 +9671,13 @@
         <v>0.2562499999999943</v>
       </c>
       <c r="U114">
-        <v>1.000061262309895</v>
+        <v>6.126230989544901E-05</v>
       </c>
       <c r="V114">
-        <v>1.000214342580685</v>
+        <v>0.0002143425806846455</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9712,7 +9712,7 @@
         <v>1.405249804008555</v>
       </c>
       <c r="K115">
-        <v>58.42427683255958</v>
+        <v>0.08424276832559574</v>
       </c>
       <c r="L115">
         <v>0.008569215871164382</v>
@@ -9742,13 +9742,13 @@
         <v>0.3249999999999886</v>
       </c>
       <c r="U115">
-        <v>1.000076573196318</v>
+        <v>7.657319631837467E-05</v>
       </c>
       <c r="V115">
-        <v>1.000275524261442</v>
+        <v>0.0002755242614418396</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9783,7 +9783,7 @@
         <v>1.037975634358856</v>
       </c>
       <c r="K116">
-        <v>50.93169991138787</v>
+        <v>0.009316999113878621</v>
       </c>
       <c r="L116">
         <v>0.009750424253457273</v>
@@ -9813,13 +9813,13 @@
         <v>0.3187499999999943</v>
       </c>
       <c r="U116">
-        <v>1.000015313466663</v>
+        <v>1.531346666250322E-05</v>
       </c>
       <c r="V116">
-        <v>1.000122421497215</v>
+        <v>0.0001224214972148641</v>
       </c>
       <c r="W116">
-        <v>0.9981676591846083</v>
+        <v>-0.001832340815391742</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9854,7 +9854,7 @@
         <v>1.037975634358856</v>
       </c>
       <c r="K117">
-        <v>50.93169991138787</v>
+        <v>0.009316999113878621</v>
       </c>
       <c r="L117">
         <v>0.01021578770378885</v>
@@ -9884,13 +9884,13 @@
         <v>0.2937500000000171</v>
       </c>
       <c r="U117">
-        <v>1.00007656616082</v>
+        <v>7.65661608195245E-05</v>
       </c>
       <c r="V117">
-        <v>1.00009180488402</v>
+        <v>9.180488401994147E-05</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9925,7 +9925,7 @@
         <v>1.255171175342373</v>
       </c>
       <c r="K118">
-        <v>55.65746800359032</v>
+        <v>0.05657468003590327</v>
       </c>
       <c r="L118">
         <v>0.01068246162126391</v>
@@ -9955,13 +9955,13 @@
         <v>0.28125</v>
       </c>
       <c r="U118">
-        <v>1.000122496478226</v>
+        <v>0.0001224964782262639</v>
       </c>
       <c r="V118">
-        <v>1.000122395275542</v>
+        <v>0.000122395275542253</v>
       </c>
       <c r="W118">
-        <v>1.001376778338687</v>
+        <v>0.001376778338687323</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9996,7 +9996,7 @@
         <v>1.166289466037336</v>
       </c>
       <c r="K119">
-        <v>53.8381174040771</v>
+        <v>0.03838117404077102</v>
       </c>
       <c r="L119">
         <v>0.01091392584433406</v>
@@ -10026,13 +10026,13 @@
         <v>0.2500000000000284</v>
       </c>
       <c r="U119">
-        <v>1.000122481474677</v>
+        <v>0.0001224814746771941</v>
       </c>
       <c r="V119">
-        <v>1.000152975370965</v>
+        <v>0.0001529753709652582</v>
       </c>
       <c r="W119">
-        <v>0.9995417048579285</v>
+        <v>-0.0004582951420715187</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -10067,7 +10067,7 @@
         <v>1.31536824643523</v>
       </c>
       <c r="K120">
-        <v>56.81032589353281</v>
+        <v>0.06810325893532809</v>
       </c>
       <c r="L120">
         <v>0.011282820670203</v>
@@ -10097,13 +10097,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U120">
-        <v>1.000122466474803</v>
+        <v>0.0001224664748025184</v>
       </c>
       <c r="V120">
-        <v>1.000275313551545</v>
+        <v>0.0002753135515447536</v>
       </c>
       <c r="W120">
-        <v>1.000917010545621</v>
+        <v>0.0009170105456213218</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10138,7 +10138,7 @@
         <v>1.136952015087655</v>
       </c>
       <c r="K121">
-        <v>53.20437740577993</v>
+        <v>0.03204377405779935</v>
       </c>
       <c r="L121">
         <v>0.01133580980417371</v>
@@ -10168,13 +10168,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U121">
-        <v>1.000076532174126</v>
+        <v>7.65321741258429E-05</v>
       </c>
       <c r="V121">
-        <v>1.000305819749839</v>
+        <v>0.0003058197498393422</v>
       </c>
       <c r="W121">
-        <v>0.9990838295923041</v>
+        <v>-0.000916170407695871</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10209,7 +10209,7 @@
         <v>1.061194064222792</v>
       </c>
       <c r="K122">
-        <v>51.48443238036071</v>
+        <v>0.01484432380360712</v>
       </c>
       <c r="L122">
         <v>0.01098557374816602</v>
@@ -10239,13 +10239,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U122">
-        <v>1.000061221053921</v>
+        <v>6.122105392059041E-05</v>
       </c>
       <c r="V122">
-        <v>1.000183435751628</v>
+        <v>0.0001834357516279361</v>
       </c>
       <c r="W122">
-        <v>0.9995414947271893</v>
+        <v>-0.0004585052728106609</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10280,7 +10280,7 @@
         <v>0.9306442726564068</v>
       </c>
       <c r="K123">
-        <v>48.20381910003117</v>
+        <v>-0.0179618089996883</v>
       </c>
       <c r="L123">
         <v>0.01003910131787072</v>
@@ -10310,13 +10310,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U123">
-        <v>1.000030608653066</v>
+        <v>3.060865306614424E-05</v>
       </c>
       <c r="V123">
-        <v>1.000030567018187</v>
+        <v>3.056701818748842E-05</v>
       </c>
       <c r="W123">
-        <v>0.9990825688073395</v>
+        <v>-0.0009174311926605228</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10351,7 +10351,7 @@
         <v>1.06014069358524</v>
       </c>
       <c r="K124">
-        <v>51.45962588313757</v>
+        <v>0.01459625883137572</v>
       </c>
       <c r="L124">
         <v>0.009089659158851128</v>
@@ -10381,13 +10381,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U124">
-        <v>1.000091823148616</v>
+        <v>9.182314861577723E-05</v>
       </c>
       <c r="V124">
-        <v>1.000030566083873</v>
+        <v>3.056608387330684E-05</v>
       </c>
       <c r="W124">
-        <v>1.000918273645546</v>
+        <v>0.0009182736455464191</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10422,7 +10422,7 @@
         <v>1.128296704600415</v>
       </c>
       <c r="K125">
-        <v>53.01406999134791</v>
+        <v>0.03014069991347912</v>
       </c>
       <c r="L125">
         <v>0.008332983496611327</v>
@@ -10452,13 +10452,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U125">
-        <v>1.000107117170882</v>
+        <v>0.0001071171708824092</v>
       </c>
       <c r="V125">
-        <v>1.000030565149616</v>
+        <v>3.056514961641277E-05</v>
       </c>
       <c r="W125">
-        <v>1.00045871559633</v>
+        <v>0.0004587155963302614</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10493,7 +10493,7 @@
         <v>1.200039874090074</v>
       </c>
       <c r="K126">
-        <v>54.5462783753592</v>
+        <v>0.04546278375359203</v>
       </c>
       <c r="L126">
         <v>0.007878059582260094</v>
@@ -10523,13 +10523,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U126">
-        <v>1.00009180488402</v>
+        <v>9.180488401994147E-05</v>
       </c>
       <c r="V126">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W126">
-        <v>1.000458505272811</v>
+        <v>0.0004585052728105499</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10564,7 +10564,7 @@
         <v>1.115777344471995</v>
       </c>
       <c r="K127">
-        <v>52.73604745732088</v>
+        <v>0.02736047457320878</v>
       </c>
       <c r="L127">
         <v>0.007439068053472969</v>
@@ -10594,13 +10594,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U127">
-        <v>1.000076497047214</v>
+        <v>7.649704721379713E-05</v>
       </c>
       <c r="V127">
-        <v>0.9999388715691671</v>
+        <v>-6.112843083294628E-05</v>
       </c>
       <c r="W127">
-        <v>0.9995417048579285</v>
+        <v>-0.0004582951420715187</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10635,7 +10635,7 @@
         <v>1.263601431842833</v>
       </c>
       <c r="K128">
-        <v>55.8226114397761</v>
+        <v>0.05822611439776104</v>
       </c>
       <c r="L128">
         <v>0.007344807335026955</v>
@@ -10665,13 +10665,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U128">
-        <v>1.000107087674209</v>
+        <v>0.0001070876742086391</v>
       </c>
       <c r="V128">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W128">
-        <v>1.000917010545621</v>
+        <v>0.0009170105456213218</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10706,7 +10706,7 @@
         <v>1.024480963276763</v>
       </c>
       <c r="K129">
-        <v>50.60462320270818</v>
+        <v>0.006046232027081877</v>
       </c>
       <c r="L129">
         <v>0.006937304099142619</v>
@@ -10736,13 +10736,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U129">
-        <v>1.000061186404381</v>
+        <v>6.118640438113054E-05</v>
       </c>
       <c r="V129">
-        <v>0.9999083017483801</v>
+        <v>-9.169825161992051E-05</v>
       </c>
       <c r="W129">
-        <v>0.9986257443884562</v>
+        <v>-0.001374255611543806</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10777,7 +10777,7 @@
         <v>1.024480963276763</v>
       </c>
       <c r="K130">
-        <v>50.60462320270818</v>
+        <v>0.006046232027081877</v>
       </c>
       <c r="L130">
         <v>0.006340789347302857</v>
@@ -10807,13 +10807,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U130">
-        <v>1.000091773991251</v>
+        <v>9.177399125070984E-05</v>
       </c>
       <c r="V130">
-        <v>0.9999082933390395</v>
+        <v>-9.170666096047775E-05</v>
       </c>
       <c r="W130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10848,7 +10848,7 @@
         <v>0.8988350992426575</v>
       </c>
       <c r="K131">
-        <v>47.33613253732008</v>
+        <v>-0.02663867462679925</v>
       </c>
       <c r="L131">
         <v>0.005310599131473802</v>
@@ -10878,13 +10878,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U131">
-        <v>1.000045882784779</v>
+        <v>4.588278477912766E-05</v>
       </c>
       <c r="V131">
-        <v>0.9999694283093855</v>
+        <v>-3.057169061448928E-05</v>
       </c>
       <c r="W131">
-        <v>0.9990825688073395</v>
+        <v>-0.0009174311926605228</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10919,7 +10919,7 @@
         <v>1.092482627582377</v>
       </c>
       <c r="K132">
-        <v>52.20987802630481</v>
+        <v>0.02209878026304812</v>
       </c>
       <c r="L132">
         <v>0.004565245419510294</v>
@@ -10949,13 +10949,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U132">
-        <v>1.00007646779941</v>
+        <v>7.646779940961856E-05</v>
       </c>
       <c r="V132">
-        <v>1.000061145250543</v>
+        <v>6.114525054257136E-05</v>
       </c>
       <c r="W132">
-        <v>1.00137741046832</v>
+        <v>0.001377410468319518</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10990,7 +10990,7 @@
         <v>1.160429128754209</v>
       </c>
       <c r="K133">
-        <v>53.71289959524659</v>
+        <v>0.03712899595246588</v>
       </c>
       <c r="L133">
         <v>0.004190349234942561</v>
@@ -11020,13 +11020,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U133">
-        <v>1.000061169562026</v>
+        <v>6.116956202606438E-05</v>
       </c>
       <c r="V133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W133">
-        <v>1.000458505272811</v>
+        <v>0.0004585052728105499</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -11061,7 +11061,7 @@
         <v>1.082972112038734</v>
       </c>
       <c r="K134">
-        <v>51.99167601810868</v>
+        <v>0.01991676018108679</v>
       </c>
       <c r="L134">
         <v>0.003881435546263366</v>
@@ -11091,13 +11091,13 @@
         <v>0</v>
       </c>
       <c r="U134">
-        <v>1.000076457275674</v>
+        <v>7.645727567417993E-05</v>
       </c>
       <c r="V134">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W134">
-        <v>0.9995417048579285</v>
+        <v>-0.0004582951420715187</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11132,7 +11132,7 @@
         <v>1.011876002659107</v>
       </c>
       <c r="K135">
-        <v>50.29514748034696</v>
+        <v>0.002951474803469578</v>
       </c>
       <c r="L135">
         <v>0.003451006428726608</v>
@@ -11162,13 +11162,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U135">
-        <v>1.000091741716488</v>
+        <v>9.174171648762552E-05</v>
       </c>
       <c r="V135">
-        <v>0.9999082877319556</v>
+        <v>-9.171226804438604E-05</v>
       </c>
       <c r="W135">
-        <v>0.9995414947271893</v>
+        <v>-0.0004585052728106609</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11203,7 +11203,7 @@
         <v>0.7927471212208933</v>
       </c>
       <c r="K136">
-        <v>44.21968451864076</v>
+        <v>-0.05780315481359238</v>
       </c>
       <c r="L136">
         <v>0.002293720443065498</v>
@@ -11233,13 +11233,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U136">
-        <v>1.000076444417264</v>
+        <v>7.644441726406548E-05</v>
       </c>
       <c r="V136">
-        <v>0.9998471322000734</v>
+        <v>-0.0001528677999266259</v>
       </c>
       <c r="W136">
-        <v>0.9981651376146788</v>
+        <v>-0.001834862385321157</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11274,7 +11274,7 @@
         <v>0.7116366321362759</v>
       </c>
       <c r="K137">
-        <v>41.5763847755519</v>
+        <v>-0.084236152244481</v>
       </c>
       <c r="L137">
         <v>0.0004274938941813729</v>
@@ -11304,13 +11304,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V137">
-        <v>0.9998165305935235</v>
+        <v>-0.0001834694064765108</v>
       </c>
       <c r="W137">
-        <v>0.9990808823529412</v>
+        <v>-0.0009191176470587648</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11345,7 +11345,7 @@
         <v>0.7654870088256563</v>
       </c>
       <c r="K138">
-        <v>43.35840507457674</v>
+        <v>-0.06641594925423261</v>
       </c>
       <c r="L138">
         <v>-0.001583836582004032</v>
@@ -11375,13 +11375,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U138">
-        <v>0.9999694245704153</v>
+        <v>-3.05754295847338E-05</v>
       </c>
       <c r="V138">
-        <v>0.9999082484631617</v>
+        <v>-9.175153683826931E-05</v>
       </c>
       <c r="W138">
-        <v>1.000459981600736</v>
+        <v>0.0004599816007360147</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11416,7 +11416,7 @@
         <v>0.7244233555827947</v>
       </c>
       <c r="K139">
-        <v>42.009600092546</v>
+        <v>-0.07990399907453999</v>
       </c>
       <c r="L139">
         <v>-0.003716256760757857</v>
@@ -11446,13 +11446,13 @@
         <v>-0.1374999999999602</v>
       </c>
       <c r="U139">
-        <v>0.9999235590888244</v>
+        <v>-7.644091117564589E-05</v>
       </c>
       <c r="V139">
-        <v>0.9998164800880895</v>
+        <v>-0.0001835199119104569</v>
       </c>
       <c r="W139">
-        <v>0.9995402298850575</v>
+        <v>-0.0004597701149424704</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11487,7 +11487,7 @@
         <v>0.6857036019935215</v>
       </c>
       <c r="K140">
-        <v>40.67759012809874</v>
+        <v>-0.09322409871901266</v>
       </c>
       <c r="L140">
         <v>-0.005939810882918753</v>
@@ -11517,13 +11517,13 @@
         <v>-0.1937499999999943</v>
       </c>
       <c r="U140">
-        <v>0.9998929745432305</v>
+        <v>-0.0001070254567695494</v>
       </c>
       <c r="V140">
-        <v>0.9997552618697995</v>
+        <v>-0.0002447381302005391</v>
       </c>
       <c r="W140">
-        <v>0.9995400183992641</v>
+        <v>-0.0004599816007359037</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11558,7 +11558,7 @@
         <v>0.6163492951983915</v>
       </c>
       <c r="K141">
-        <v>38.13218448693916</v>
+        <v>-0.1186781551306084</v>
       </c>
       <c r="L141">
         <v>-0.008389575660959461</v>
@@ -11588,13 +11588,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U141">
-        <v>0.9998317991375884</v>
+        <v>-0.0001682008624116493</v>
       </c>
       <c r="V141">
-        <v>0.9996634026927785</v>
+        <v>-0.0003365973072214645</v>
       </c>
       <c r="W141">
-        <v>0.9990796134376437</v>
+        <v>-0.0009203865623562679</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11629,7 +11629,7 @@
         <v>0.5851973102187553</v>
       </c>
       <c r="K142">
-        <v>36.91637037524362</v>
+        <v>-0.1308362962475638</v>
       </c>
       <c r="L142">
         <v>-0.01095715115472449</v>
@@ -11659,13 +11659,13 @@
         <v>-0.3312500000000114</v>
       </c>
       <c r="U142">
-        <v>0.9998011837215349</v>
+        <v>-0.0001988162784650749</v>
       </c>
       <c r="V142">
-        <v>0.9996632893568825</v>
+        <v>-0.000336710643117466</v>
       </c>
       <c r="W142">
-        <v>0.9995393827729158</v>
+        <v>-0.0004606172270842368</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11700,7 +11700,7 @@
         <v>0.6384001992167935</v>
       </c>
       <c r="K143">
-        <v>38.96485117140298</v>
+        <v>-0.1103514882859702</v>
       </c>
       <c r="L143">
         <v>-0.01322598173036537</v>
@@ -11730,13 +11730,13 @@
         <v>-0.3812499999999943</v>
       </c>
       <c r="U143">
-        <v>0.9998164407868573</v>
+        <v>-0.0001835592131427255</v>
       </c>
       <c r="V143">
-        <v>0.9996325555759691</v>
+        <v>-0.000367444424030916</v>
       </c>
       <c r="W143">
-        <v>1.000460829493087</v>
+        <v>0.0004608294930874557</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11771,7 +11771,7 @@
         <v>0.5740977585397175</v>
       </c>
       <c r="K144">
-        <v>36.47154412266649</v>
+        <v>-0.1352845587733351</v>
       </c>
       <c r="L144">
         <v>-0.01545568817341996</v>
@@ -11801,13 +11801,13 @@
         <v>-0.3812499999999943</v>
       </c>
       <c r="U144">
-        <v>0.9997858082678008</v>
+        <v>-0.0002141917321991649</v>
       </c>
       <c r="V144">
-        <v>0.9996630521350243</v>
+        <v>-0.000336947864975734</v>
       </c>
       <c r="W144">
-        <v>0.9990787655458314</v>
+        <v>-0.0009212344541685846</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11842,7 +11842,7 @@
         <v>0.7331361949541798</v>
       </c>
       <c r="K145">
-        <v>42.30113000285949</v>
+        <v>-0.07698869997140512</v>
       </c>
       <c r="L145">
         <v>-0.0169625036442107</v>
@@ -11872,13 +11872,13 @@
         <v>-0.3562499999999886</v>
       </c>
       <c r="U145">
-        <v>0.9998316704413294</v>
+        <v>-0.0001683295586706324</v>
       </c>
       <c r="V145">
-        <v>0.9997548644093764</v>
+        <v>-0.0002451355906235575</v>
       </c>
       <c r="W145">
-        <v>1.001383125864454</v>
+        <v>0.00138312586445366</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11913,7 +11913,7 @@
         <v>0.6943873266401889</v>
       </c>
       <c r="K146">
-        <v>40.98161711449376</v>
+        <v>-0.09018382885506243</v>
       </c>
       <c r="L146">
         <v>-0.01804093878455673</v>
@@ -11943,13 +11943,13 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="U146">
-        <v>0.9998775578921593</v>
+        <v>-0.0001224421078407367</v>
       </c>
       <c r="V146">
-        <v>0.9997854537652865</v>
+        <v>-0.0002145462347135085</v>
       </c>
       <c r="W146">
-        <v>0.9995395948434622</v>
+        <v>-0.0004604051565377798</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11984,7 +11984,7 @@
         <v>0.9169286918954239</v>
       </c>
       <c r="K147">
-        <v>47.83321861538739</v>
+        <v>-0.02166781384612604</v>
       </c>
       <c r="L147">
         <v>-0.01805693860877645</v>
@@ -12014,13 +12014,13 @@
         <v>-0.3187500000000227</v>
       </c>
       <c r="U147">
-        <v>0.9999387714491267</v>
+        <v>-6.122855087331569E-05</v>
       </c>
       <c r="V147">
-        <v>0.9998160637645617</v>
+        <v>-0.0001839362354383312</v>
       </c>
       <c r="W147">
-        <v>1.001842468908337</v>
+        <v>0.001842468908337169</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -12055,7 +12055,7 @@
         <v>0.9754922090678502</v>
       </c>
       <c r="K148">
-        <v>49.37970418664131</v>
+        <v>-0.0062029581335869</v>
       </c>
       <c r="L148">
         <v>-0.01719504466203649</v>
@@ -12085,13 +12085,13 @@
         <v>-0.25</v>
       </c>
       <c r="U148">
-        <v>0.9999081515499425</v>
+        <v>-9.184845005749676E-05</v>
       </c>
       <c r="V148">
-        <v>0.9998160299257988</v>
+        <v>-0.000183970074201234</v>
       </c>
       <c r="W148">
-        <v>1.000459770114942</v>
+        <v>0.0004597701149424704</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12126,7 +12126,7 @@
         <v>1.037138016617773</v>
       </c>
       <c r="K149">
-        <v>50.91152431290424</v>
+        <v>0.009115243129042438</v>
       </c>
       <c r="L149">
         <v>-0.01562602556104456</v>
@@ -12156,13 +12156,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U149">
-        <v>0.9999387620753534</v>
+        <v>-6.123792464662881E-05</v>
       </c>
       <c r="V149">
-        <v>0.9998773307163885</v>
+        <v>-0.0001226692836114873</v>
       </c>
       <c r="W149">
-        <v>1.000459558823529</v>
+        <v>0.0004595588235294379</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12197,7 +12197,7 @@
         <v>1.037138016617772</v>
       </c>
       <c r="K150">
-        <v>50.91152431290424</v>
+        <v>0.009115243129042438</v>
       </c>
       <c r="L150">
         <v>-0.01367133686141088</v>
@@ -12227,13 +12227,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U150">
-        <v>0.9999081374875604</v>
+        <v>-9.186251243964438E-05</v>
       </c>
       <c r="V150">
-        <v>0.9999079867500921</v>
+        <v>-9.201324990792958E-05</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12268,7 +12268,7 @@
         <v>1.173749224484655</v>
       </c>
       <c r="K151">
-        <v>53.99653332885829</v>
+        <v>0.03996533328858287</v>
       </c>
       <c r="L151">
         <v>-0.01122295019655419</v>
@@ -12298,13 +12298,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U151">
-        <v>0.9999693763493545</v>
+        <v>-3.062365064554484E-05</v>
       </c>
       <c r="V151">
-        <v>1.000092021717125</v>
+        <v>9.202171712519025E-05</v>
       </c>
       <c r="W151">
-        <v>1.000918695452458</v>
+        <v>0.0009186954524575963</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12339,7 +12339,7 @@
         <v>1.026182828952584</v>
       </c>
       <c r="K152">
-        <v>50.64611220119063</v>
+        <v>0.006461122011906295</v>
       </c>
       <c r="L152">
         <v>-0.008924962736617591</v>
@@ -12369,13 +12369,13 @@
         <v>0.1687500000000171</v>
       </c>
       <c r="U152">
-        <v>0.9999540631172767</v>
+        <v>-4.593688272325203E-05</v>
       </c>
       <c r="V152">
-        <v>1.000092013249908</v>
+        <v>9.201324990826265E-05</v>
       </c>
       <c r="W152">
-        <v>0.9990821477742082</v>
+        <v>-0.0009178522257917709</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12410,7 +12410,7 @@
         <v>0.9062503688922628</v>
       </c>
       <c r="K153">
-        <v>47.54099375828014</v>
+        <v>-0.02459006241719858</v>
       </c>
       <c r="L153">
         <v>-0.007166642285916156</v>
@@ -12440,13 +12440,13 @@
         <v>0.2000000000000171</v>
       </c>
       <c r="U153">
-        <v>0.9999540610069828</v>
+        <v>-4.593899301719162E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W153">
-        <v>0.9990813045475425</v>
+        <v>-0.0009186954524574853</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12481,7 +12481,7 @@
         <v>0.7650682126328375</v>
       </c>
       <c r="K154">
-        <v>43.3449657728318</v>
+        <v>-0.06655034227168199</v>
       </c>
       <c r="L154">
         <v>-0.006323300855620586</v>
@@ -12511,13 +12511,13 @@
         <v>0.2312500000000171</v>
       </c>
       <c r="U154">
-        <v>0.9998774903906527</v>
+        <v>-0.0001225096093473432</v>
       </c>
       <c r="V154">
-        <v>0.9999386634771675</v>
+        <v>-6.133652283246693E-05</v>
       </c>
       <c r="W154">
-        <v>0.9986206896551724</v>
+        <v>-0.001379310344827633</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12552,7 +12552,7 @@
         <v>0.7650682126328375</v>
       </c>
       <c r="K155">
-        <v>43.3449657728318</v>
+        <v>-0.06655034227168199</v>
       </c>
       <c r="L155">
         <v>-0.006065143286261918</v>
@@ -12582,13 +12582,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U155">
-        <v>0.9998621598027354</v>
+        <v>-0.0001378401972645937</v>
       </c>
       <c r="V155">
-        <v>0.9999693298573838</v>
+        <v>-3.067014261615153E-05</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12623,7 +12623,7 @@
         <v>0.7650682126328375</v>
       </c>
       <c r="K156">
-        <v>43.3449657728318</v>
+        <v>-0.06655034227168199</v>
       </c>
       <c r="L156">
         <v>-0.00615597108852351</v>
@@ -12653,13 +12653,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U156">
-        <v>0.9998468231113289</v>
+        <v>-0.0001531768886711138</v>
       </c>
       <c r="V156">
-        <v>1.000030671083303</v>
+        <v>3.06710833026802E-05</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12694,7 +12694,7 @@
         <v>0.6824050917163043</v>
       </c>
       <c r="K157">
-        <v>40.5612830748241</v>
+        <v>-0.09438716925175894</v>
       </c>
       <c r="L157">
         <v>-0.006764834356301604</v>
@@ -12724,13 +12724,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U157">
-        <v>0.9998314796090328</v>
+        <v>-0.0001685203909671529</v>
       </c>
       <c r="V157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W157">
-        <v>0.9990791896869246</v>
+        <v>-0.0009208103130754486</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12765,7 +12765,7 @@
         <v>0.8530051964932123</v>
       </c>
       <c r="K158">
-        <v>46.03361059685712</v>
+        <v>-0.03966389403142884</v>
       </c>
       <c r="L158">
         <v>-0.007122120427439109</v>
@@ -12795,13 +12795,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U158">
-        <v>0.9998467738228399</v>
+        <v>-0.0001532261771600707</v>
       </c>
       <c r="V158">
-        <v>1.000061340285232</v>
+        <v>6.134028523230306E-05</v>
       </c>
       <c r="W158">
-        <v>1.001382488479263</v>
+        <v>0.001382488479262811</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12836,7 +12836,7 @@
         <v>0.8530051964932124</v>
       </c>
       <c r="K159">
-        <v>46.03361059685712</v>
+        <v>-0.03966389403142884</v>
       </c>
       <c r="L159">
         <v>-0.007278310311497371</v>
@@ -12866,13 +12866,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U159">
-        <v>0.9998927252386863</v>
+        <v>-0.0001072747613136693</v>
       </c>
       <c r="V159">
-        <v>1.000122673045665</v>
+        <v>0.0001226730456649339</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12907,7 +12907,7 @@
         <v>0.9160153921633478</v>
       </c>
       <c r="K160">
-        <v>47.80835247513784</v>
+        <v>-0.02191647524862161</v>
       </c>
       <c r="L160">
         <v>-0.007108821713852237</v>
@@ -12937,13 +12937,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U160">
-        <v>0.9999080403396376</v>
+        <v>-9.19596603623507E-05</v>
       </c>
       <c r="V160">
-        <v>1.000061328999417</v>
+        <v>6.132899941735381E-05</v>
       </c>
       <c r="W160">
-        <v>1.000460193281178</v>
+        <v>0.0004601932811780785</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12978,7 +12978,7 @@
         <v>0.9160153921633477</v>
       </c>
       <c r="K161">
-        <v>47.80835247513784</v>
+        <v>-0.02191647524862161</v>
       </c>
       <c r="L161">
         <v>-0.00672690508301334</v>
@@ -13008,13 +13008,13 @@
         <v>-0.1687500000000171</v>
       </c>
       <c r="U161">
-        <v>0.9999386879215205</v>
+        <v>-6.131207847948072E-05</v>
       </c>
       <c r="V161">
-        <v>1.000091987857603</v>
+        <v>9.198785760289319E-05</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -13049,7 +13049,7 @@
         <v>0.8562352786483293</v>
       </c>
       <c r="K162">
-        <v>46.12751888175627</v>
+        <v>-0.03872481118243726</v>
       </c>
       <c r="L162">
         <v>-0.006383529001430806</v>
@@ -13079,13 +13079,13 @@
         <v>-0.1687499999999602</v>
       </c>
       <c r="U162">
-        <v>0.9998773683242382</v>
+        <v>-0.000122631675761764</v>
       </c>
       <c r="V162">
-        <v>0.9999386804022565</v>
+        <v>-6.131959774346996E-05</v>
       </c>
       <c r="W162">
-        <v>0.9995400183992641</v>
+        <v>-0.0004599816007359037</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13120,7 +13120,7 @@
         <v>0.7099280037954649</v>
       </c>
       <c r="K163">
-        <v>41.51800556629657</v>
+        <v>-0.08481994433703433</v>
       </c>
       <c r="L163">
         <v>-0.006564458766239584</v>
@@ -13150,13 +13150,13 @@
         <v>-0.1624999999999659</v>
       </c>
       <c r="U163">
-        <v>0.9998160299257987</v>
+        <v>-0.000183970074201345</v>
       </c>
       <c r="V163">
-        <v>0.9998160299257988</v>
+        <v>-0.000183970074201234</v>
       </c>
       <c r="W163">
-        <v>0.9986194201564657</v>
+        <v>-0.001380579843534346</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13191,7 +13191,7 @@
         <v>0.8298387040280476</v>
       </c>
       <c r="K164">
-        <v>45.35037444564446</v>
+        <v>-0.04649625554355535</v>
       </c>
       <c r="L164">
         <v>-0.006692819233766844</v>
@@ -13221,13 +13221,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U164">
-        <v>0.9998619970559371</v>
+        <v>-0.0001380029440628538</v>
       </c>
       <c r="V164">
-        <v>0.9998466633954859</v>
+        <v>-0.0001533366045141094</v>
       </c>
       <c r="W164">
-        <v>1.000921658986175</v>
+        <v>0.0009216589861751334</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13262,7 +13262,7 @@
         <v>0.7805758628199465</v>
       </c>
       <c r="K165">
-        <v>43.83839403414844</v>
+        <v>-0.06161605965851563</v>
       </c>
       <c r="L165">
         <v>-0.006924267630808784</v>
@@ -13292,13 +13292,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U165">
-        <v>0.9998619780084962</v>
+        <v>-0.0001380219915038117</v>
       </c>
       <c r="V165">
-        <v>0.9998159678557187</v>
+        <v>-0.0001840321442813098</v>
       </c>
       <c r="W165">
-        <v>0.9995395948434622</v>
+        <v>-0.0004604051565377798</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13333,7 +13333,7 @@
         <v>0.8430646598266528</v>
       </c>
       <c r="K166">
-        <v>45.74254382946859</v>
+        <v>-0.04257456170531404</v>
       </c>
       <c r="L166">
         <v>-0.00701079900337694</v>
@@ -13363,13 +13363,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U166">
-        <v>0.9999386484247982</v>
+        <v>-6.135157520181789E-05</v>
       </c>
       <c r="V166">
-        <v>0.9997852563119306</v>
+        <v>-0.0002147436880693965</v>
       </c>
       <c r="W166">
-        <v>1.000460617227084</v>
+        <v>0.0004606172270842368</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13404,7 +13404,7 @@
         <v>0.9088423408863625</v>
       </c>
       <c r="K167">
-        <v>47.61222660559518</v>
+        <v>-0.02387773394404819</v>
       </c>
       <c r="L167">
         <v>-0.006811022631632157</v>
@@ -13434,13 +13434,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U167">
-        <v>0.999984661165138</v>
+        <v>-1.533883486204424E-05</v>
       </c>
       <c r="V167">
-        <v>0.9998772629640993</v>
+        <v>-0.0001227370359007107</v>
       </c>
       <c r="W167">
-        <v>1.000460405156538</v>
+        <v>0.0004604051565377798</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13475,7 +13475,7 @@
         <v>0.9780820051597213</v>
       </c>
       <c r="K168">
-        <v>49.44597861000942</v>
+        <v>-0.005540213899905833</v>
       </c>
       <c r="L168">
         <v>-0.006258195770009316</v>
@@ -13505,13 +13505,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U168">
-        <v>0.9999846609298545</v>
+        <v>-1.533907014550362E-05</v>
       </c>
       <c r="V168">
-        <v>0.9999693119744676</v>
+        <v>-3.068802553241046E-05</v>
       </c>
       <c r="W168">
-        <v>1.000460193281178</v>
+        <v>0.0004601932811780785</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13546,7 +13546,7 @@
         <v>1.123849719419424</v>
       </c>
       <c r="K169">
-        <v>52.91568933260682</v>
+        <v>0.02915689332606819</v>
       </c>
       <c r="L169">
         <v>-0.005168848630245494</v>
@@ -13576,13 +13576,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U169">
-        <v>1.000030678610873</v>
+        <v>3.067861087258095E-05</v>
       </c>
       <c r="V169">
-        <v>1.000122755869265</v>
+        <v>0.0001227558692651343</v>
       </c>
       <c r="W169">
-        <v>1.000919963201472</v>
+        <v>0.0009199632014718073</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13617,7 +13617,7 @@
         <v>0.9743463140541232</v>
       </c>
       <c r="K170">
-        <v>49.3503245665853</v>
+        <v>-0.006496754334146981</v>
       </c>
       <c r="L170">
         <v>-0.004139978701266868</v>
@@ -13647,13 +13647,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U170">
-        <v>1.000015338834862</v>
+        <v>1.533883486204424E-05</v>
       </c>
       <c r="V170">
-        <v>1.000061370401055</v>
+        <v>6.137040105547165E-05</v>
       </c>
       <c r="W170">
-        <v>0.9990808823529412</v>
+        <v>-0.0009191176470587648</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13688,7 +13688,7 @@
         <v>0.854667705240247</v>
       </c>
       <c r="K171">
-        <v>46.0819856206822</v>
+        <v>-0.03918014379317802</v>
       </c>
       <c r="L171">
         <v>-0.00353326626242891</v>
@@ -13718,13 +13718,13 @@
         <v>0.03125</v>
       </c>
       <c r="U171">
-        <v>1.000015338599586</v>
+        <v>1.533859958602335E-05</v>
       </c>
       <c r="V171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W171">
-        <v>0.999080036798528</v>
+        <v>-0.0009199632014720294</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13759,7 +13759,7 @@
         <v>0.8027708346483736</v>
       </c>
       <c r="K172">
-        <v>44.52983258989501</v>
+        <v>-0.05470167410104992</v>
       </c>
       <c r="L172">
         <v>-0.003375665952800841</v>
@@ -13789,13 +13789,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U172">
-        <v>1.000015338364317</v>
+        <v>1.53383643166638E-05</v>
       </c>
       <c r="V172">
-        <v>1.00003068331748</v>
+        <v>3.068331748035114E-05</v>
       </c>
       <c r="W172">
-        <v>0.9995395948434622</v>
+        <v>-0.0004604051565377798</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13830,7 +13830,7 @@
         <v>0.7545423212820278</v>
       </c>
       <c r="K173">
-        <v>43.00507956574629</v>
+        <v>-0.06994920434253715</v>
       </c>
       <c r="L173">
         <v>-0.003655473574132565</v>
@@ -13860,13 +13860,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U173">
-        <v>0.999984661870945</v>
+        <v>-1.533812905496479E-05</v>
       </c>
       <c r="V173">
-        <v>0.9999079528718702</v>
+        <v>-9.204712812982407E-05</v>
       </c>
       <c r="W173">
-        <v>0.9995393827729158</v>
+        <v>-0.0004606172270842368</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13901,7 +13901,7 @@
         <v>0.9442609333091165</v>
       </c>
       <c r="K174">
-        <v>48.56657443103545</v>
+        <v>-0.01433425568964553</v>
       </c>
       <c r="L174">
         <v>-0.003666577096163825</v>
@@ -13931,13 +13931,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U174">
-        <v>1.000061353457267</v>
+        <v>6.135345726732133E-05</v>
       </c>
       <c r="V174">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W174">
-        <v>1.001382488479263</v>
+        <v>0.001382488479262811</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13972,7 +13972,7 @@
         <v>0.9442609333091166</v>
       </c>
       <c r="K175">
-        <v>48.56657443103545</v>
+        <v>-0.01433425568964553</v>
       </c>
       <c r="L175">
         <v>-0.003500819020209908</v>
@@ -14002,13 +14002,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U175">
-        <v>1.000015337423313</v>
+        <v>1.533742331294441E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999693147994723</v>
+        <v>-3.068520052773582E-05</v>
       </c>
       <c r="W175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -14043,7 +14043,7 @@
         <v>0.8281951628341726</v>
       </c>
       <c r="K176">
-        <v>45.30124461932484</v>
+        <v>-0.04698755380675157</v>
       </c>
       <c r="L176">
         <v>-0.003560813409183558</v>
@@ -14073,13 +14073,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U176">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V176">
-        <v>0.9999079415735852</v>
+        <v>-9.205842641479833E-05</v>
       </c>
       <c r="W176">
-        <v>0.9990796134376437</v>
+        <v>-0.0009203865623562679</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14114,7 +14114,7 @@
         <v>0.8928883482276483</v>
       </c>
       <c r="K177">
-        <v>47.17068225728573</v>
+        <v>-0.02829317742714266</v>
       </c>
       <c r="L177">
         <v>-0.003573259351759945</v>
@@ -14144,13 +14144,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U177">
-        <v>0.9999539884357603</v>
+        <v>-4.601156423966746E-05</v>
       </c>
       <c r="V177">
-        <v>0.9999693110326838</v>
+        <v>-3.068896731617254E-05</v>
       </c>
       <c r="W177">
-        <v>1.000460617227084</v>
+        <v>0.0004606172270842368</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14185,7 +14185,7 @@
         <v>0.8359610008490749</v>
       </c>
       <c r="K178">
-        <v>45.53261210137192</v>
+        <v>-0.04467387898628083</v>
       </c>
       <c r="L178">
         <v>-0.003710659933296629</v>
@@ -14215,13 +14215,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U178">
-        <v>0.9999233105309978</v>
+        <v>-7.668946900218909E-05</v>
       </c>
       <c r="V178">
-        <v>1.000030689909158</v>
+        <v>3.068990915777725E-05</v>
       </c>
       <c r="W178">
-        <v>0.9995395948434622</v>
+        <v>-0.0004604051565377798</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14256,7 +14256,7 @@
         <v>0.903073001666802</v>
       </c>
       <c r="K179">
-        <v>47.45340829678355</v>
+        <v>-0.0254659170321645</v>
       </c>
       <c r="L179">
         <v>-0.003733950940772641</v>
@@ -14286,13 +14286,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U179">
-        <v>0.9999233046492721</v>
+        <v>-7.669535072785116E-05</v>
       </c>
       <c r="V179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W179">
-        <v>1.000460617227084</v>
+        <v>0.0004606172270842368</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14327,7 +14327,7 @@
         <v>1.044361424440984</v>
       </c>
       <c r="K180">
-        <v>51.08497019926686</v>
+        <v>0.01084970199266855</v>
       </c>
       <c r="L180">
         <v>-0.003337882368799681</v>
@@ -14357,13 +14357,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U180">
-        <v>0.9999539792599865</v>
+        <v>-4.602074001347489E-05</v>
       </c>
       <c r="V180">
-        <v>1.000092066901949</v>
+        <v>9.20669019488507E-05</v>
       </c>
       <c r="W180">
-        <v>1.000920810313076</v>
+        <v>0.0009208103130755596</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14398,7 +14398,7 @@
         <v>0.9720756186630279</v>
       </c>
       <c r="K181">
-        <v>49.2920053097177</v>
+        <v>-0.007079946902822987</v>
       </c>
       <c r="L181">
         <v>-0.002868376570745214</v>
@@ -14428,13 +14428,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U181">
-        <v>0.9999079542839611</v>
+        <v>-9.204571603893541E-05</v>
       </c>
       <c r="V181">
-        <v>1.000030686142138</v>
+        <v>3.06861421381921E-05</v>
       </c>
       <c r="W181">
-        <v>0.9995400183992641</v>
+        <v>-0.0004599816007359037</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14469,7 +14469,7 @@
         <v>0.9720756186630278</v>
       </c>
       <c r="K182">
-        <v>49.29200530971769</v>
+        <v>-0.007079946902823042</v>
       </c>
       <c r="L182">
         <v>-0.002373843073346854</v>
@@ -14499,13 +14499,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U182">
-        <v>0.9999386305405115</v>
+        <v>-6.136945948853612E-05</v>
       </c>
       <c r="V182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14540,7 +14540,7 @@
         <v>0.9720756186630276</v>
       </c>
       <c r="K183">
-        <v>49.29200530971769</v>
+        <v>-0.007079946902823042</v>
       </c>
       <c r="L183">
         <v>-0.001887010058384571</v>
@@ -14570,13 +14570,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U183">
-        <v>0.999969313387035</v>
+        <v>-3.068661296501407E-05</v>
       </c>
       <c r="V183">
-        <v>0.9999693147994719</v>
+        <v>-3.068520052806889E-05</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14611,7 +14611,7 @@
         <v>1.214263631295626</v>
       </c>
       <c r="K184">
-        <v>54.83825928103816</v>
+        <v>0.0483825928103816</v>
       </c>
       <c r="L184">
         <v>-0.0009262168970632685</v>
@@ -14641,13 +14641,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U184">
-        <v>1.000061375109324</v>
+        <v>6.137510932435752E-05</v>
       </c>
       <c r="V184">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W184">
-        <v>1.001380579843534</v>
+        <v>0.001380579843534235</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14682,7 +14682,7 @@
         <v>0.9062257259441119</v>
       </c>
       <c r="K185">
-        <v>47.54031558855802</v>
+        <v>-0.02459684411441976</v>
       </c>
       <c r="L185">
         <v>-0.0004064919789280844</v>
@@ -14712,13 +14712,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V185">
-        <v>0.9999386277157234</v>
+        <v>-6.137228427660624E-05</v>
       </c>
       <c r="W185">
-        <v>0.9981617647058824</v>
+        <v>-0.001838235294117641</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14753,7 +14753,7 @@
         <v>1.039743035665334</v>
       </c>
       <c r="K186">
-        <v>50.97421672657826</v>
+        <v>0.009742167265782586</v>
       </c>
       <c r="L186">
         <v>0.0001495563136579484</v>
@@ -14783,13 +14783,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U186">
-        <v>1.000030685671326</v>
+        <v>3.0685671325692E-05</v>
       </c>
       <c r="V186">
-        <v>1.000061376051065</v>
+        <v>6.137605106504296E-05</v>
       </c>
       <c r="W186">
-        <v>1.000920810313076</v>
+        <v>0.0009208103130755596</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14824,7 +14824,7 @@
         <v>0.8587120954415147</v>
       </c>
       <c r="K187">
-        <v>46.19930636635461</v>
+        <v>-0.03800693633645397</v>
       </c>
       <c r="L187">
         <v>0.0001888478654804111</v>
@@ -14854,13 +14854,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U187">
-        <v>1.000015342364872</v>
+        <v>1.534236487232832E-05</v>
       </c>
       <c r="V187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W187">
-        <v>0.9986200551977921</v>
+        <v>-0.001379944802207933</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14895,7 +14895,7 @@
         <v>0.8587120954415148</v>
       </c>
       <c r="K188">
-        <v>46.19930636635461</v>
+        <v>-0.03800693633645397</v>
       </c>
       <c r="L188">
         <v>-8.811674618112104E-05</v>
@@ -14925,13 +14925,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U188">
-        <v>0.9999693157410249</v>
+        <v>-3.068425897512217E-05</v>
       </c>
       <c r="V188">
-        <v>1.000030686142138</v>
+        <v>3.06861421381921E-05</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14966,7 +14966,7 @@
         <v>0.987326116750236</v>
       </c>
       <c r="K189">
-        <v>49.68113227258119</v>
+        <v>-0.003188677274188145</v>
       </c>
       <c r="L189">
         <v>-0.0002035215852305105</v>
@@ -14996,13 +14996,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U189">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W189">
-        <v>1.000921234454169</v>
+        <v>0.0009212344541686956</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -15037,7 +15037,7 @@
         <v>0.9247296933377293</v>
       </c>
       <c r="K190">
-        <v>48.04465253165647</v>
+        <v>-0.01955347468343527</v>
       </c>
       <c r="L190">
         <v>-0.0003805479968332525</v>
@@ -15067,13 +15067,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U190">
-        <v>0.9999693147994725</v>
+        <v>-3.068520052751378E-05</v>
       </c>
       <c r="V190">
-        <v>0.9999693147994719</v>
+        <v>-3.068520052806889E-05</v>
       </c>
       <c r="W190">
-        <v>0.9995398067188218</v>
+        <v>-0.0004601932811781895</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15108,7 +15108,7 @@
         <v>1.124940052089399</v>
       </c>
       <c r="K191">
-        <v>52.93984886694918</v>
+        <v>0.0293984886694918</v>
       </c>
       <c r="L191">
         <v>-7.945938477270351E-05</v>
@@ -15138,13 +15138,13 @@
         <v>0.03125</v>
       </c>
       <c r="U191">
-        <v>1.000015343071069</v>
+        <v>1.534307106898503E-05</v>
       </c>
       <c r="V191">
-        <v>1.000122744568553</v>
+        <v>0.0001227445685529904</v>
       </c>
       <c r="W191">
-        <v>1.001381215469613</v>
+        <v>0.001381215469613339</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15179,7 +15179,7 @@
         <v>0.9863582062439679</v>
       </c>
       <c r="K192">
-        <v>49.6566129484312</v>
+        <v>-0.003433870515688053</v>
       </c>
       <c r="L192">
         <v>0.0001572012632255473</v>
@@ -15209,13 +15209,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U192">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V192">
-        <v>1.000030682376043</v>
+        <v>3.068237604320068E-05</v>
       </c>
       <c r="W192">
-        <v>0.9990804597701149</v>
+        <v>-0.0009195402298850519</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15250,7 +15250,7 @@
         <v>0.9863582062439678</v>
       </c>
       <c r="K193">
-        <v>49.6566129484312</v>
+        <v>-0.003433870515688053</v>
       </c>
       <c r="L193">
         <v>0.0003391750999160826</v>
@@ -15280,13 +15280,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U193">
-        <v>1.000046028506989</v>
+        <v>4.602850698876004E-05</v>
       </c>
       <c r="V193">
-        <v>1.000061362869328</v>
+        <v>6.136286932778567E-05</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15321,7 +15321,7 @@
         <v>1.054607750524256</v>
       </c>
       <c r="K194">
-        <v>51.32890938696991</v>
+        <v>0.01328909386969912</v>
       </c>
       <c r="L194">
         <v>0.0006427795024010506</v>
@@ -15351,13 +15351,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U194">
-        <v>1.000030684258975</v>
+        <v>3.068425897523319E-05</v>
       </c>
       <c r="V194">
-        <v>1.000061359104157</v>
+        <v>6.13591041569439E-05</v>
       </c>
       <c r="W194">
-        <v>1.000460193281178</v>
+        <v>0.0004601932811780785</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15392,7 +15392,7 @@
         <v>1.126449376082455</v>
       </c>
       <c r="K195">
-        <v>52.97325150329729</v>
+        <v>0.02973251503297292</v>
       </c>
       <c r="L195">
         <v>0.001165971471885837</v>
@@ -15422,13 +15422,13 @@
         <v>0</v>
       </c>
       <c r="U195">
-        <v>1.00006136663496</v>
+        <v>6.136663496048023E-05</v>
       </c>
       <c r="V195">
-        <v>1.000030677669724</v>
+        <v>3.067766972408847E-05</v>
       </c>
       <c r="W195">
-        <v>1.000459981600736</v>
+        <v>0.0004599816007360147</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15463,7 +15463,7 @@
         <v>1.353317667318894</v>
       </c>
       <c r="K196">
-        <v>57.50679927800449</v>
+        <v>0.07506799278004483</v>
       </c>
       <c r="L196">
         <v>0.002287367065629136</v>
@@ -15493,13 +15493,13 @@
         <v>0.06250000000002842</v>
       </c>
       <c r="U196">
-        <v>1.000092044303992</v>
+        <v>9.204430399156749E-05</v>
       </c>
       <c r="V196">
-        <v>1.000153383643168</v>
+        <v>0.0001533836431684144</v>
       </c>
       <c r="W196">
-        <v>1.001379310344828</v>
+        <v>0.001379310344827633</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15534,7 +15534,7 @@
         <v>1.253532808942198</v>
       </c>
       <c r="K197">
-        <v>55.62523003739194</v>
+        <v>0.05625230037391937</v>
       </c>
       <c r="L197">
         <v>0.003523733271135059</v>
@@ -15564,13 +15564,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U197">
-        <v>1.000061357221745</v>
+        <v>6.135722174516189E-05</v>
       </c>
       <c r="V197">
-        <v>1.000122688096187</v>
+        <v>0.0001226880961873178</v>
       </c>
       <c r="W197">
-        <v>0.9995408631772267</v>
+        <v>-0.0004591368227733206</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15605,7 +15605,7 @@
         <v>1.331147027366016</v>
       </c>
       <c r="K198">
-        <v>57.10266284105173</v>
+        <v>0.07102662841051732</v>
       </c>
       <c r="L198">
         <v>0.004905636902133506</v>
@@ -15635,13 +15635,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U198">
-        <v>1.000061353457267</v>
+        <v>6.135345726732133E-05</v>
       </c>
       <c r="V198">
-        <v>1.000153341307081</v>
+        <v>0.0001533413070813339</v>
       </c>
       <c r="W198">
-        <v>1.000459347726229</v>
+        <v>0.0004593477262289092</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15676,7 +15676,7 @@
         <v>1.230607414071573</v>
       </c>
       <c r="K199">
-        <v>55.16916183046842</v>
+        <v>0.05169161830468416</v>
       </c>
       <c r="L199">
         <v>0.006102094736081805</v>
@@ -15706,13 +15706,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U199">
-        <v>1.000015337423313</v>
+        <v>1.533742331294441E-05</v>
       </c>
       <c r="V199">
-        <v>1.000030663559426</v>
+        <v>3.066355942582533E-05</v>
       </c>
       <c r="W199">
-        <v>0.9995408631772267</v>
+        <v>-0.0004591368227733206</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15747,7 +15747,7 @@
         <v>1.230607414071573</v>
       </c>
       <c r="K200">
-        <v>55.16916183046842</v>
+        <v>0.05169161830468416</v>
       </c>
       <c r="L200">
         <v>0.007087647182154802</v>
@@ -15777,13 +15777,13 @@
         <v>0.1749999999999829</v>
       </c>
       <c r="U200">
-        <v>1.00004601156424</v>
+        <v>4.601156424000052E-05</v>
       </c>
       <c r="V200">
-        <v>1.000153313096005</v>
+        <v>0.000153313096004748</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15818,7 +15818,7 @@
         <v>1.397983716278651</v>
       </c>
       <c r="K201">
-        <v>58.29829897461249</v>
+        <v>0.08298298974612484</v>
       </c>
       <c r="L201">
         <v>0.008191832797169112</v>
@@ -15848,13 +15848,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U201">
-        <v>1.000107355376971</v>
+        <v>0.000107355376970597</v>
       </c>
       <c r="V201">
-        <v>1.000153289594702</v>
+        <v>0.0001532895947020663</v>
       </c>
       <c r="W201">
-        <v>1.000918695452458</v>
+        <v>0.0009186954524575963</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15889,7 +15889,7 @@
         <v>1.397983716278651</v>
       </c>
       <c r="K202">
-        <v>58.29829897461249</v>
+        <v>0.08298298974612484</v>
       </c>
       <c r="L202">
         <v>0.009267530218827827</v>
@@ -15919,13 +15919,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U202">
-        <v>1.000122678689178</v>
+        <v>0.0001226786891783682</v>
       </c>
       <c r="V202">
-        <v>1.000245225760966</v>
+        <v>0.0002452257609661945</v>
       </c>
       <c r="W202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15960,7 +15960,7 @@
         <v>1.397983716278651</v>
       </c>
       <c r="K203">
-        <v>58.29829897461249</v>
+        <v>0.08298298974612484</v>
       </c>
       <c r="L203">
         <v>0.01022351347506263</v>
@@ -15990,13 +15990,13 @@
         <v>0.2374999999999829</v>
       </c>
       <c r="U203">
-        <v>1.000137996596084</v>
+        <v>0.0001379965960839336</v>
       </c>
       <c r="V203">
-        <v>1.000245165640036</v>
+        <v>0.0002451656400355162</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -16031,7 +16031,7 @@
         <v>1.273661908171505</v>
       </c>
       <c r="K204">
-        <v>56.01808710406699</v>
+        <v>0.06018087104066994</v>
       </c>
       <c r="L204">
         <v>0.01084117414396896</v>
@@ -16061,13 +16061,13 @@
         <v>0.1937499999999659</v>
       </c>
       <c r="U204">
-        <v>1.000076654197584</v>
+        <v>7.665419758384751E-05</v>
       </c>
       <c r="V204">
-        <v>1.00015319096786</v>
+        <v>0.0001531909678604837</v>
       </c>
       <c r="W204">
-        <v>0.9995410738871042</v>
+        <v>-0.0004589261128957745</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16102,7 +16102,7 @@
         <v>1.460881629891543</v>
       </c>
       <c r="K205">
-        <v>59.36415681870598</v>
+        <v>0.09364156818705982</v>
       </c>
       <c r="L205">
         <v>0.01150994504342938</v>
@@ -16132,13 +16132,13 @@
         <v>0.1874999999999716</v>
       </c>
       <c r="U205">
-        <v>1.000107307651036</v>
+        <v>0.0001073076510356152</v>
       </c>
       <c r="V205">
-        <v>1.000245068006372</v>
+        <v>0.0002450680063716959</v>
       </c>
       <c r="W205">
-        <v>1.000918273645546</v>
+        <v>0.0009182736455464191</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16173,7 +16173,7 @@
         <v>1.559418325533668</v>
       </c>
       <c r="K206">
-        <v>60.92862233486242</v>
+        <v>0.1092862233486241</v>
       </c>
       <c r="L206">
         <v>0.01229244268268975</v>
@@ -16203,13 +16203,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U206">
-        <v>1.000153280196199</v>
+        <v>0.0001532801961985353</v>
       </c>
       <c r="V206">
-        <v>1.000183755972069</v>
+        <v>0.0001837559720689885</v>
       </c>
       <c r="W206">
-        <v>1.00045871559633</v>
+        <v>0.0004587155963302614</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16244,7 +16244,7 @@
         <v>1.559418325533668</v>
       </c>
       <c r="K207">
-        <v>60.92862233486242</v>
+        <v>0.1092862233486241</v>
       </c>
       <c r="L207">
         <v>0.01304898826228055</v>
@@ -16274,13 +16274,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U207">
-        <v>1.000137931034483</v>
+        <v>0.0001379310344826745</v>
       </c>
       <c r="V207">
-        <v>1.000244962949354</v>
+        <v>0.000244962949353944</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16315,7 +16315,7 @@
         <v>2.105327996681208</v>
       </c>
       <c r="K208">
-        <v>67.79728257147904</v>
+        <v>0.1779728257147905</v>
       </c>
       <c r="L208">
         <v>0.01453100501751474</v>
@@ -16345,13 +16345,13 @@
         <v>0.2125000000000341</v>
       </c>
       <c r="U208">
-        <v>1.000229853353561</v>
+        <v>0.0002298533535605163</v>
       </c>
       <c r="V208">
-        <v>1.000397967305455</v>
+        <v>0.0003979673054552713</v>
       </c>
       <c r="W208">
-        <v>1.002292526364053</v>
+        <v>0.002292526364053193</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16386,7 +16386,7 @@
         <v>1.888307883859524</v>
       </c>
       <c r="K209">
-        <v>65.37765223755363</v>
+        <v>0.1537765223755363</v>
       </c>
       <c r="L209">
         <v>0.01613718126049859</v>
@@ -16416,13 +16416,13 @@
         <v>0.2125000000000057</v>
       </c>
       <c r="U209">
-        <v>1.000199160462052</v>
+        <v>0.0001991604620523724</v>
       </c>
       <c r="V209">
-        <v>1.000336607607332</v>
+        <v>0.0003366076073318958</v>
       </c>
       <c r="W209">
-        <v>0.9995425434583715</v>
+        <v>-0.0004574565416285425</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16457,7 +16457,7 @@
         <v>1.7034699556</v>
       </c>
       <c r="K210">
-        <v>63.0105007111846</v>
+        <v>0.130105007111846</v>
       </c>
       <c r="L210">
         <v>0.01748959782771447</v>
@@ -16487,13 +16487,13 @@
         <v>0.2124999999999773</v>
       </c>
       <c r="U210">
-        <v>1.000153169850047</v>
+        <v>0.0001531698500465417</v>
       </c>
       <c r="V210">
-        <v>1.000275313551545</v>
+        <v>0.0002753135515447536</v>
       </c>
       <c r="W210">
-        <v>0.9995423340961098</v>
+        <v>-0.0004576659038901809</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16528,7 +16528,7 @@
         <v>1.412408332332496</v>
       </c>
       <c r="K211">
-        <v>58.54764773453068</v>
+        <v>0.08547647734530683</v>
       </c>
       <c r="L211">
         <v>0.01820337867184985</v>
@@ -16558,13 +16558,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U211">
-        <v>1.000137831753373</v>
+        <v>0.0001378317533728968</v>
       </c>
       <c r="V211">
-        <v>1.000122327899936</v>
+        <v>0.0001223278999356037</v>
       </c>
       <c r="W211">
-        <v>0.999084249084249</v>
+        <v>-0.0009157509157510235</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16599,7 +16599,7 @@
         <v>1.502336732614492</v>
       </c>
       <c r="K212">
-        <v>60.0373528084216</v>
+        <v>0.1003735280842161</v>
       </c>
       <c r="L212">
         <v>0.01858573096970257</v>
@@ -16629,13 +16629,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U212">
-        <v>1.00015312528711</v>
+        <v>0.0001531252871100897</v>
       </c>
       <c r="V212">
-        <v>1.000183469406477</v>
+        <v>0.0001834694064766218</v>
       </c>
       <c r="W212">
-        <v>1.000458295142072</v>
+        <v>0.0004582951420715187</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16670,7 +16670,7 @@
         <v>1.596998206595513</v>
       </c>
       <c r="K213">
-        <v>61.49400498389517</v>
+        <v>0.1149400498389518</v>
       </c>
       <c r="L213">
         <v>0.01884239989065954</v>
@@ -16700,13 +16700,13 @@
         <v>0.2437500000000057</v>
       </c>
       <c r="U213">
-        <v>1.000168412027681</v>
+        <v>0.0001684120276808088</v>
       </c>
       <c r="V213">
-        <v>1.000183435751628</v>
+        <v>0.0001834357516279361</v>
       </c>
       <c r="W213">
-        <v>1.000458085203848</v>
+        <v>0.0004580852038478245</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16741,7 +16741,7 @@
         <v>1.696641863417641</v>
       </c>
       <c r="K214">
-        <v>62.91684062441162</v>
+        <v>0.1291684062441162</v>
       </c>
       <c r="L214">
         <v>0.01910500356947795</v>
@@ -16771,13 +16771,13 @@
         <v>0.25</v>
       </c>
       <c r="U214">
-        <v>1.000137768457146</v>
+        <v>0.0001377684571464144</v>
       </c>
       <c r="V214">
-        <v>1.000244536145499</v>
+        <v>0.0002445361454990191</v>
       </c>
       <c r="W214">
-        <v>1.000457875457875</v>
+        <v>0.0004578754578754562</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16812,7 +16812,7 @@
         <v>2.011306042855967</v>
       </c>
       <c r="K215">
-        <v>66.79181771071049</v>
+        <v>0.1679181771071049</v>
       </c>
       <c r="L215">
         <v>0.01978628330288947</v>
@@ -16842,13 +16842,13 @@
         <v>0.2687499999999829</v>
       </c>
       <c r="U215">
-        <v>1.000244887963757</v>
+        <v>0.000244887963756657</v>
       </c>
       <c r="V215">
-        <v>1.000336154998013</v>
+        <v>0.0003361549980134271</v>
       </c>
       <c r="W215">
-        <v>1.001372997711671</v>
+        <v>0.001372997711670543</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16883,7 +16883,7 @@
         <v>1.811320853373064</v>
       </c>
       <c r="K216">
-        <v>64.42953144959654</v>
+        <v>0.1442953144959653</v>
       </c>
       <c r="L216">
         <v>0.02043799181294099</v>
@@ -16913,13 +16913,13 @@
         <v>0.21875</v>
       </c>
       <c r="U216">
-        <v>1.000198922756763</v>
+        <v>0.0001989227567633645</v>
       </c>
       <c r="V216">
-        <v>1.000244394207858</v>
+        <v>0.0002443942078576011</v>
       </c>
       <c r="W216">
-        <v>0.999542961608775</v>
+        <v>-0.0004570383912250175</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16954,7 +16954,7 @@
         <v>1.639703430715825</v>
       </c>
       <c r="K217">
-        <v>62.11695645942985</v>
+        <v>0.1211695645942985</v>
       </c>
       <c r="L217">
         <v>0.02078830816999641</v>
@@ -16984,13 +16984,13 @@
         <v>0.1875</v>
       </c>
       <c r="U217">
-        <v>1.000229480608888</v>
+        <v>0.0002294806088884993</v>
       </c>
       <c r="V217">
-        <v>1.000213792682182</v>
+        <v>0.0002137926821819125</v>
       </c>
       <c r="W217">
-        <v>0.9995427526291724</v>
+        <v>-0.0004572473708276403</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -17025,7 +17025,7 @@
         <v>1.639703430715825</v>
       </c>
       <c r="K218">
-        <v>62.11695645942984</v>
+        <v>0.1211695645942984</v>
       </c>
       <c r="L218">
         <v>0.02085782699064083</v>
@@ -17055,13 +17055,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U218">
-        <v>1.000229427959621</v>
+        <v>0.000229427959620665</v>
       </c>
       <c r="V218">
-        <v>1.000213746984641</v>
+        <v>0.0002137469846406059</v>
       </c>
       <c r="W218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -17096,7 +17096,7 @@
         <v>1.639703430715825</v>
       </c>
       <c r="K219">
-        <v>62.11695645942985</v>
+        <v>0.1211695645942985</v>
       </c>
       <c r="L219">
         <v>0.02067671585388995</v>
@@ -17126,13 +17126,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U219">
-        <v>1.000198791956572</v>
+        <v>0.0001987919565715757</v>
       </c>
       <c r="V219">
-        <v>1.000244230064721</v>
+        <v>0.0002442300647209628</v>
       </c>
       <c r="W219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17167,7 +17167,7 @@
         <v>1.750211800563502</v>
       </c>
       <c r="K220">
-        <v>63.63916408928556</v>
+        <v>0.1363916408928556</v>
       </c>
       <c r="L220">
         <v>0.02044696987217603</v>
@@ -17197,13 +17197,13 @@
         <v>0.1687500000000171</v>
       </c>
       <c r="U220">
-        <v>1.000229329745597</v>
+        <v>0.0002293297455968624</v>
       </c>
       <c r="V220">
-        <v>1.000213649127091</v>
+        <v>0.0002136491270907648</v>
       </c>
       <c r="W220">
-        <v>1.000457456541628</v>
+        <v>0.0004574565416284315</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17238,7 +17238,7 @@
         <v>1.982861000242853</v>
       </c>
       <c r="K221">
-        <v>66.47513913928327</v>
+        <v>0.1647513913928327</v>
       </c>
       <c r="L221">
         <v>0.02046179016548839</v>
@@ -17268,13 +17268,13 @@
         <v>0.1749999999999829</v>
       </c>
       <c r="U221">
-        <v>1.000213992021155</v>
+        <v>0.0002139920211547963</v>
       </c>
       <c r="V221">
-        <v>1.000244118275304</v>
+        <v>0.0002441182753043503</v>
       </c>
       <c r="W221">
-        <v>1.000914494741655</v>
+        <v>0.0009144947416552807</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17309,7 +17309,7 @@
         <v>1.982861000242853</v>
       </c>
       <c r="K222">
-        <v>66.47513913928327</v>
+        <v>0.1647513913928327</v>
       </c>
       <c r="L222">
         <v>0.02054894633383762</v>
@@ -17339,13 +17339,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U222">
-        <v>1.000244509986705</v>
+        <v>0.0002445099867047773</v>
       </c>
       <c r="V222">
-        <v>1.000244058696116</v>
+        <v>0.0002440586961163227</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17380,7 +17380,7 @@
         <v>1.982861000242853</v>
       </c>
       <c r="K223">
-        <v>66.47513913928327</v>
+        <v>0.1647513913928327</v>
       </c>
       <c r="L223">
         <v>0.02059923846138976</v>
@@ -17410,13 +17410,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U223">
-        <v>1.000244450216186</v>
+        <v>0.0002444502161857987</v>
       </c>
       <c r="V223">
-        <v>1.000091499679751</v>
+        <v>9.149967975119466E-05</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17451,7 +17451,7 @@
         <v>1.745975299120146</v>
       </c>
       <c r="K224">
-        <v>63.58306644927156</v>
+        <v>0.1358306644927156</v>
       </c>
       <c r="L224">
         <v>0.02038182683173624</v>
@@ -17481,13 +17481,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U224">
-        <v>1.000213841665521</v>
+        <v>0.000213841665520853</v>
       </c>
       <c r="V224">
-        <v>1.000091491308326</v>
+        <v>9.149130832586394E-05</v>
       </c>
       <c r="W224">
-        <v>0.9995431703974418</v>
+        <v>-0.0004568296025582175</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17522,7 +17522,7 @@
         <v>1.997483972266988</v>
       </c>
       <c r="K225">
-        <v>66.63868733737705</v>
+        <v>0.1663868733737704</v>
       </c>
       <c r="L225">
         <v>0.02027554940887204</v>
@@ -17552,13 +17552,13 @@
         <v>0.15625</v>
       </c>
       <c r="U225">
-        <v>1.000229067086114</v>
+        <v>0.000229067086114032</v>
       </c>
       <c r="V225">
-        <v>1.000182965876864</v>
+        <v>0.0001829658768639497</v>
       </c>
       <c r="W225">
-        <v>1.00091407678245</v>
+        <v>0.000914076782449591</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17593,7 +17593,7 @@
         <v>2.262229944000505</v>
       </c>
       <c r="K226">
-        <v>69.34612160497521</v>
+        <v>0.1934612160497521</v>
       </c>
       <c r="L226">
         <v>0.02050294569712477</v>
@@ -17623,13 +17623,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U226">
-        <v>1.000213746984641</v>
+        <v>0.00021374698464105</v>
       </c>
       <c r="V226">
-        <v>1.000304887344126</v>
+        <v>0.000304887344126259</v>
       </c>
       <c r="W226">
-        <v>1.000913242009132</v>
+        <v>0.0009132420091324533</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17664,7 +17664,7 @@
         <v>1.452605711231009</v>
       </c>
       <c r="K227">
-        <v>59.22703778186666</v>
+        <v>0.09227037781866654</v>
       </c>
       <c r="L227">
         <v>0.02017564607775419</v>
@@ -17694,13 +17694,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U227">
-        <v>1.000167908169495</v>
+        <v>0.0001679081694954121</v>
       </c>
       <c r="V227">
-        <v>1.000152397208083</v>
+        <v>0.0001523972080832436</v>
       </c>
       <c r="W227">
-        <v>0.998175182481752</v>
+        <v>-0.001824817518248034</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17735,7 +17735,7 @@
         <v>1.452605711231009</v>
       </c>
       <c r="K228">
-        <v>59.22703778186666</v>
+        <v>0.09227037781866654</v>
       </c>
       <c r="L228">
         <v>0.01945978141760776</v>
@@ -17765,13 +17765,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U228">
-        <v>1.000152618164614</v>
+        <v>0.0001526181646140934</v>
       </c>
       <c r="V228">
-        <v>1.00012189918937</v>
+        <v>0.0001218991893703336</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17806,7 +17806,7 @@
         <v>1.650881435810774</v>
       </c>
       <c r="K229">
-        <v>62.27669836564571</v>
+        <v>0.1227669836564571</v>
       </c>
       <c r="L229">
         <v>0.0188168488770507</v>
@@ -17836,13 +17836,13 @@
         <v>0.125</v>
       </c>
       <c r="U229">
-        <v>1.000198373338623</v>
+        <v>0.00019837333862327</v>
       </c>
       <c r="V229">
-        <v>1.000152355414711</v>
+        <v>0.0001523554147113693</v>
       </c>
       <c r="W229">
-        <v>1.00091407678245</v>
+        <v>0.000914076782449591</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17877,7 +17877,7 @@
         <v>1.859592724842105</v>
       </c>
       <c r="K230">
-        <v>65.02998516842233</v>
+        <v>0.1502998516842233</v>
       </c>
       <c r="L230">
         <v>0.0185238391699657</v>
@@ -17907,13 +17907,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U230">
-        <v>1.000228846916669</v>
+        <v>0.0002288469166693563</v>
       </c>
       <c r="V230">
-        <v>1.00012186576486</v>
+        <v>0.0001218657648598409</v>
       </c>
       <c r="W230">
-        <v>1.000913242009132</v>
+        <v>0.0009132420091324533</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17948,7 +17948,7 @@
         <v>2.079288818559327</v>
       </c>
       <c r="K231">
-        <v>67.52496894825671</v>
+        <v>0.1752496894825671</v>
       </c>
       <c r="L231">
         <v>0.01872708662067839</v>
@@ -17978,13 +17978,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U231">
-        <v>1.00022879455774</v>
+        <v>0.000228794557740164</v>
       </c>
       <c r="V231">
-        <v>1.000213239101959</v>
+        <v>0.0002132391019589175</v>
       </c>
       <c r="W231">
-        <v>1.000912408759124</v>
+        <v>0.0009124087591241281</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -18019,7 +18019,7 @@
         <v>2.194918341568374</v>
       </c>
       <c r="K232">
-        <v>68.70029549772144</v>
+        <v>0.1870029549772144</v>
       </c>
       <c r="L232">
         <v>0.0193160121803305</v>
@@ -18049,13 +18049,13 @@
         <v>0.1812499999999773</v>
       </c>
       <c r="U232">
-        <v>1.000243991704282</v>
+        <v>0.0002439917042820205</v>
       </c>
       <c r="V232">
-        <v>1.000274106109521</v>
+        <v>0.000274106109520611</v>
       </c>
       <c r="W232">
-        <v>1.000455788514129</v>
+        <v>0.0004557885141294182</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -18090,7 +18090,7 @@
         <v>1.76521181490111</v>
       </c>
       <c r="K233">
-        <v>63.83640505905468</v>
+        <v>0.1383640505905468</v>
       </c>
       <c r="L233">
         <v>0.01969697813476724</v>
@@ -18120,13 +18120,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U233">
-        <v>1.000213440663496</v>
+        <v>0.000213440663495712</v>
       </c>
       <c r="V233">
-        <v>1.000213135219072</v>
+        <v>0.0002131352190724023</v>
       </c>
       <c r="W233">
-        <v>0.9990888382687928</v>
+        <v>-0.0009111617312071996</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18161,7 +18161,7 @@
         <v>1.600317343976499</v>
       </c>
       <c r="K234">
-        <v>61.5431554030723</v>
+        <v>0.115431554030723</v>
       </c>
       <c r="L234">
         <v>0.01968916040985353</v>
@@ -18191,13 +18191,13 @@
         <v>0.1374999999999602</v>
       </c>
       <c r="U234">
-        <v>1.0002133951163</v>
+        <v>0.0002133951163003633</v>
       </c>
       <c r="V234">
-        <v>1.000182648401827</v>
+        <v>0.0001826484018265795</v>
       </c>
       <c r="W234">
-        <v>0.9995440036479707</v>
+        <v>-0.0004559963520293087</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18232,7 +18232,7 @@
         <v>1.457046122912099</v>
       </c>
       <c r="K235">
-        <v>59.30072330857197</v>
+        <v>0.09300723308571979</v>
       </c>
       <c r="L235">
         <v>0.01920801319074545</v>
@@ -18262,13 +18262,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U235">
-        <v>1.000167631819567</v>
+        <v>0.0001676318195671378</v>
       </c>
       <c r="V235">
-        <v>1.000121743364986</v>
+        <v>0.000121743364986493</v>
       </c>
       <c r="W235">
-        <v>0.9995437956204379</v>
+        <v>-0.0004562043795620641</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18303,7 +18303,7 @@
         <v>1.225977157859372</v>
       </c>
       <c r="K236">
-        <v>55.07590918131174</v>
+        <v>0.05075909181311744</v>
       </c>
       <c r="L236">
         <v>0.01806788297500037</v>
@@ -18333,13 +18333,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U236">
-        <v>1.000121893617346</v>
+        <v>0.0001218936173457141</v>
       </c>
       <c r="V236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W236">
-        <v>0.9990871748060247</v>
+        <v>-0.0009128251939752863</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18374,7 +18374,7 @@
         <v>1.225977157859372</v>
       </c>
       <c r="K237">
-        <v>55.07590918131174</v>
+        <v>0.05075909181311744</v>
       </c>
       <c r="L237">
         <v>0.01653568253224967</v>
@@ -18404,13 +18404,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U237">
-        <v>1.000121878761102</v>
+        <v>0.0001218787611023675</v>
       </c>
       <c r="V237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18445,7 +18445,7 @@
         <v>1.225977157859372</v>
       </c>
       <c r="K238">
-        <v>55.07590918131174</v>
+        <v>0.05075909181311744</v>
       </c>
       <c r="L238">
         <v>0.01480360690453176</v>
@@ -18475,13 +18475,13 @@
         <v>0.09375</v>
       </c>
       <c r="U238">
-        <v>1.00004569896568</v>
+        <v>4.569896568007437E-05</v>
       </c>
       <c r="V238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18516,7 +18516,7 @@
         <v>1.31846135015238</v>
       </c>
       <c r="K239">
-        <v>56.867946065425</v>
+        <v>0.06867946065425001</v>
       </c>
       <c r="L239">
         <v>0.01317350661716748</v>
@@ -18546,13 +18546,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U239">
-        <v>1.0000761614623</v>
+        <v>7.616146229993959E-05</v>
       </c>
       <c r="V239">
-        <v>1.000060864272672</v>
+        <v>6.086427267182337E-05</v>
       </c>
       <c r="W239">
-        <v>1.000456829602558</v>
+        <v>0.0004568296025582175</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18587,7 +18587,7 @@
         <v>1.020437209744995</v>
       </c>
       <c r="K240">
-        <v>50.50576206096439</v>
+        <v>0.005057620609643987</v>
       </c>
       <c r="L240">
         <v>0.01116187993764173</v>
@@ -18617,13 +18617,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U240">
-        <v>1.000045693397304</v>
+        <v>4.569339730409183E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999087091473435</v>
+        <v>-9.129085265646708E-05</v>
       </c>
       <c r="W240">
-        <v>0.9986301369863013</v>
+        <v>-0.00136986301369868</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18658,7 +18658,7 @@
         <v>1.020437209744995</v>
       </c>
       <c r="K241">
-        <v>50.50576206096439</v>
+        <v>0.005057620609643987</v>
       </c>
       <c r="L241">
         <v>0.009006871072135662</v>
@@ -18688,13 +18688,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U241">
-        <v>1.000076152182521</v>
+        <v>7.615218252143841E-05</v>
       </c>
       <c r="V241">
-        <v>0.9998478346876046</v>
+        <v>-0.0001521653123953692</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18729,7 +18729,7 @@
         <v>1.020437209744995</v>
       </c>
       <c r="K242">
-        <v>50.50576206096439</v>
+        <v>0.005057620609643987</v>
       </c>
       <c r="L242">
         <v>0.006869639936300962</v>
@@ -18759,13 +18759,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U242">
-        <v>1.000060917107046</v>
+        <v>6.091710704647646E-05</v>
       </c>
       <c r="V242">
-        <v>0.9999695623059596</v>
+        <v>-3.043769404043051E-05</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18800,7 +18800,7 @@
         <v>1.196197987554653</v>
       </c>
       <c r="K243">
-        <v>54.46676457829535</v>
+        <v>0.04466764578295346</v>
       </c>
       <c r="L243">
         <v>0.00518713991686996</v>
@@ -18830,13 +18830,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U243">
-        <v>1.000076141745474</v>
+        <v>7.61417454735458E-05</v>
       </c>
       <c r="V243">
-        <v>1.000030438620522</v>
+        <v>3.043862052187762E-05</v>
       </c>
       <c r="W243">
-        <v>1.000914494741655</v>
+        <v>0.0009144947416552807</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18871,7 +18871,7 @@
         <v>1.094912381354513</v>
       </c>
       <c r="K244">
-        <v>52.26530670684053</v>
+        <v>0.02265306706840531</v>
       </c>
       <c r="L244">
         <v>0.003702040034588998</v>
@@ -18901,13 +18901,13 @@
         <v>-0.1874999999999716</v>
       </c>
       <c r="U244">
-        <v>1.00004568156901</v>
+        <v>4.56815690095258E-05</v>
       </c>
       <c r="V244">
-        <v>0.9999391246119194</v>
+        <v>-6.087538808063897E-05</v>
       </c>
       <c r="W244">
-        <v>0.9995431703974418</v>
+        <v>-0.0004568296025582175</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18942,7 +18942,7 @@
         <v>1.005309714039703</v>
       </c>
       <c r="K245">
-        <v>50.13239137083234</v>
+        <v>0.00132391370832341</v>
       </c>
       <c r="L245">
         <v>0.00225131733115327</v>
@@ -18972,13 +18972,13 @@
         <v>-0.1937499999999659</v>
       </c>
       <c r="U245">
-        <v>0.9999847735059004</v>
+        <v>-1.522649409957388E-05</v>
       </c>
       <c r="V245">
-        <v>0.9998478022647023</v>
+        <v>-0.0001521977352977322</v>
       </c>
       <c r="W245">
-        <v>0.999542961608775</v>
+        <v>-0.0004570383912250175</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -19013,7 +19013,7 @@
         <v>1.005309714039703</v>
       </c>
       <c r="K246">
-        <v>50.13239137083234</v>
+        <v>0.00132391370832341</v>
       </c>
       <c r="L246">
         <v>0.0009056628635562501</v>
@@ -19043,13 +19043,13 @@
         <v>-0.1875000000000284</v>
       </c>
       <c r="U246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V246">
-        <v>0.9997868907358359</v>
+        <v>-0.0002131092641640686</v>
       </c>
       <c r="W246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -19084,7 +19084,7 @@
         <v>1.186662552052164</v>
       </c>
       <c r="K247">
-        <v>54.26820663016757</v>
+        <v>0.0426820663016757</v>
       </c>
       <c r="L247">
         <v>3.879006355852982E-05</v>
@@ -19114,13 +19114,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U247">
-        <v>1.000045680177848</v>
+        <v>4.568017784789546E-05</v>
       </c>
       <c r="V247">
-        <v>0.9998172959805115</v>
+        <v>-0.0001827040194884999</v>
       </c>
       <c r="W247">
-        <v>1.000914494741655</v>
+        <v>0.0009144947416552807</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19155,7 +19155,7 @@
         <v>1.282111414163972</v>
       </c>
       <c r="K248">
-        <v>56.18092991457476</v>
+        <v>0.06180929914574762</v>
       </c>
       <c r="L248">
         <v>-0.0003166014457581653</v>
@@ -19185,13 +19185,13 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="U248">
-        <v>1.000060904121686</v>
+        <v>6.090412168635595E-05</v>
       </c>
       <c r="V248">
-        <v>0.9999086312968265</v>
+        <v>-9.136870317349999E-05</v>
       </c>
       <c r="W248">
-        <v>1.000456829602558</v>
+        <v>0.0004568296025582175</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19226,7 +19226,7 @@
         <v>1.382583900597454</v>
       </c>
       <c r="K249">
-        <v>58.02876029888218</v>
+        <v>0.08028760298882187</v>
       </c>
       <c r="L249">
         <v>-0.0001719809776350797</v>
@@ -19256,13 +19256,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U249">
-        <v>1.000076125515751</v>
+        <v>7.612551575064685E-05</v>
       </c>
       <c r="V249">
-        <v>0.9999695409826079</v>
+        <v>-3.045901739207046E-05</v>
       </c>
       <c r="W249">
-        <v>1.000456621004566</v>
+        <v>0.0004566210045662267</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19297,7 +19297,7 @@
         <v>1.25034660358118</v>
       </c>
       <c r="K250">
-        <v>55.56240099153572</v>
+        <v>0.05562400991535721</v>
       </c>
       <c r="L250">
         <v>0.000100622839327735</v>
@@ -19327,13 +19327,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U250">
-        <v>1.000045671832658</v>
+        <v>4.567183265846708E-05</v>
       </c>
       <c r="V250">
-        <v>0.999969540054828</v>
+        <v>-3.045994517203443E-05</v>
       </c>
       <c r="W250">
-        <v>0.9995435874030123</v>
+        <v>-0.0004564125969876986</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19368,7 +19368,7 @@
         <v>1.351025596511606</v>
       </c>
       <c r="K251">
-        <v>57.46537164530342</v>
+        <v>0.0746537164530342</v>
       </c>
       <c r="L251">
         <v>0.0005993740032404911</v>
@@ -19398,13 +19398,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U251">
-        <v>1.000030446497892</v>
+        <v>3.044649789152309E-05</v>
       </c>
       <c r="V251">
-        <v>1.000060921746017</v>
+        <v>6.092174601723954E-05</v>
       </c>
       <c r="W251">
-        <v>1.000456621004566</v>
+        <v>0.0004566210045662267</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19439,7 +19439,7 @@
         <v>1.457003483806792</v>
       </c>
       <c r="K252">
-        <v>59.30001700890402</v>
+        <v>0.09300017008904016</v>
       </c>
       <c r="L252">
         <v>0.001367508549969747</v>
@@ -19469,13 +19469,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U252">
-        <v>1.000045668356396</v>
+        <v>4.566835639607802E-05</v>
       </c>
       <c r="V252">
-        <v>1.000091377052176</v>
+        <v>9.137705217621139E-05</v>
       </c>
       <c r="W252">
-        <v>1.000456412596988</v>
+        <v>0.0004564125969876986</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19510,7 +19510,7 @@
         <v>1.6801148254809</v>
       </c>
       <c r="K253">
-        <v>62.6881658019795</v>
+        <v>0.126881658019795</v>
       </c>
       <c r="L253">
         <v>0.002577585114655658</v>
@@ -19540,13 +19540,13 @@
         <v>0.1250000000000284</v>
       </c>
       <c r="U253">
-        <v>1.000076110451487</v>
+        <v>7.611045148703255E-05</v>
       </c>
       <c r="V253">
-        <v>1.000152281171956</v>
+        <v>0.0001522811719560924</v>
       </c>
       <c r="W253">
-        <v>1.000912408759124</v>
+        <v>0.0009124087591241281</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19581,7 +19581,7 @@
         <v>1.6801148254809</v>
       </c>
       <c r="K254">
-        <v>62.6881658019795</v>
+        <v>0.126881658019795</v>
       </c>
       <c r="L254">
         <v>0.003968836567555954</v>
@@ -19611,13 +19611,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U254">
-        <v>1.000091325590953</v>
+        <v>9.132559095292869E-05</v>
       </c>
       <c r="V254">
-        <v>1.000121806388745</v>
+        <v>0.0001218063887451493</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19652,7 +19652,7 @@
         <v>1.495286376876036</v>
       </c>
       <c r="K255">
-        <v>59.92443956465043</v>
+        <v>0.09924439564650434</v>
       </c>
       <c r="L255">
         <v>0.005200302740535069</v>
@@ -19682,13 +19682,13 @@
         <v>0.2125000000000057</v>
       </c>
       <c r="U255">
-        <v>1.000045658625675</v>
+        <v>4.565862567540435E-05</v>
       </c>
       <c r="V255">
-        <v>1.000182687330633</v>
+        <v>0.0001826873306334242</v>
       </c>
       <c r="W255">
-        <v>0.9995442114858706</v>
+        <v>-0.0004557885141294182</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19723,7 +19723,7 @@
         <v>1.214101877936994</v>
       </c>
       <c r="K256">
-        <v>54.83495994629851</v>
+        <v>0.04834959946298512</v>
       </c>
       <c r="L256">
         <v>0.005904815052985446</v>
@@ -19753,13 +19753,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U256">
-        <v>0.9999847811529798</v>
+        <v>-1.521884702015974E-05</v>
       </c>
       <c r="V256">
-        <v>1.000121769308046</v>
+        <v>0.0001217693080459714</v>
       </c>
       <c r="W256">
-        <v>0.9990880072959416</v>
+        <v>-0.0009119927040583953</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19794,7 +19794,7 @@
         <v>1.013487602338134</v>
       </c>
       <c r="K257">
-        <v>50.33493134803689</v>
+        <v>0.003349313480368932</v>
       </c>
       <c r="L257">
         <v>0.00589104784220378</v>
@@ -19824,13 +19824,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U257">
-        <v>1.000015219078637</v>
+        <v>1.521907863688554E-05</v>
       </c>
       <c r="V257">
-        <v>1.000060877241043</v>
+        <v>6.087724104331116E-05</v>
       </c>
       <c r="W257">
-        <v>0.9990871748060247</v>
+        <v>-0.0009128251939752863</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19865,7 +19865,7 @@
         <v>1.100454324620878</v>
       </c>
       <c r="K258">
-        <v>52.39125229821433</v>
+        <v>0.0239125229821433</v>
       </c>
       <c r="L258">
         <v>0.005587941426174374</v>
@@ -19895,13 +19895,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U258">
-        <v>1.00003043769404</v>
+        <v>3.043769404031949E-05</v>
       </c>
       <c r="V258">
-        <v>1.000030436767615</v>
+        <v>3.043676761516068E-05</v>
       </c>
       <c r="W258">
-        <v>1.000456829602558</v>
+        <v>0.0004568296025582175</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19936,7 +19936,7 @@
         <v>1.008163122234487</v>
       </c>
       <c r="K259">
-        <v>50.20324848474969</v>
+        <v>0.002032484847496852</v>
       </c>
       <c r="L259">
         <v>0.004942252828904591</v>
@@ -19966,13 +19966,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U259">
-        <v>0.9999847816161925</v>
+        <v>-1.521838380746932E-05</v>
       </c>
       <c r="V259">
-        <v>1.000030435841247</v>
+        <v>3.043584124662324E-05</v>
       </c>
       <c r="W259">
-        <v>0.9995433789954338</v>
+        <v>-0.0004566210045662267</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -20007,7 +20007,7 @@
         <v>1.008163122234487</v>
       </c>
       <c r="K260">
-        <v>50.20324848474969</v>
+        <v>0.002032484847496852</v>
       </c>
       <c r="L260">
         <v>0.004112225783031886</v>
@@ -20037,13 +20037,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U260">
-        <v>0.9999543441537688</v>
+        <v>-4.565584623117402E-05</v>
       </c>
       <c r="V260">
-        <v>1.000060869829869</v>
+        <v>6.086982986897027E-05</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -20078,7 +20078,7 @@
         <v>1.194016760695956</v>
       </c>
       <c r="K261">
-        <v>54.42149677640595</v>
+        <v>0.04421496776405942</v>
       </c>
       <c r="L261">
         <v>0.00354104249142329</v>
@@ -20108,13 +20108,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U261">
-        <v>0.9999543420692175</v>
+        <v>-4.565793078248337E-05</v>
       </c>
       <c r="V261">
-        <v>1.000121732249916</v>
+        <v>0.0001217322499162954</v>
       </c>
       <c r="W261">
-        <v>1.000913659205116</v>
+        <v>0.0009136592051164349</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20149,7 +20149,7 @@
         <v>1.194016760695956</v>
       </c>
       <c r="K262">
-        <v>54.42149677640595</v>
+        <v>0.04421496776405942</v>
       </c>
       <c r="L262">
         <v>0.003150157642858263</v>
@@ -20179,13 +20179,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U262">
-        <v>0.9999391199793006</v>
+        <v>-6.088002069937204E-05</v>
       </c>
       <c r="V262">
-        <v>1.00006085871649</v>
+        <v>6.085871648964236E-05</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20220,7 +20220,7 @@
         <v>1.29698276538375</v>
       </c>
       <c r="K263">
-        <v>56.46462763803397</v>
+        <v>0.06464627638033971</v>
       </c>
       <c r="L263">
         <v>0.003048200005724144</v>
@@ -20250,13 +20250,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U263">
-        <v>0.9999847790681746</v>
+        <v>-1.522093182537709E-05</v>
       </c>
       <c r="V263">
-        <v>1.000060855012932</v>
+        <v>6.085501293173756E-05</v>
       </c>
       <c r="W263">
-        <v>1.000456412596988</v>
+        <v>0.0004564125969876986</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20291,7 +20291,7 @@
         <v>1.29698276538375</v>
       </c>
       <c r="K264">
-        <v>56.46462763803397</v>
+        <v>0.06464627638033971</v>
       </c>
       <c r="L264">
         <v>0.003116654200359816</v>
@@ -20321,13 +20321,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U264">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V264">
-        <v>1.000030425654912</v>
+        <v>3.042565491195859E-05</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20362,7 +20362,7 @@
         <v>1.411072521270535</v>
       </c>
       <c r="K265">
-        <v>58.52468180952759</v>
+        <v>0.0852468180952759</v>
       </c>
       <c r="L265">
         <v>0.003438878612304934</v>
@@ -20392,13 +20392,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U265">
-        <v>1.000030442327011</v>
+        <v>3.044232701143734E-05</v>
       </c>
       <c r="V265">
-        <v>1.00009127418766</v>
+        <v>9.127418765975115E-05</v>
       </c>
       <c r="W265">
-        <v>1.000456204379562</v>
+        <v>0.0004562043795621751</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20433,7 +20433,7 @@
         <v>1.411072521270535</v>
       </c>
       <c r="K266">
-        <v>58.52468180952759</v>
+        <v>0.0852468180952759</v>
       </c>
       <c r="L266">
         <v>0.003881749678451307</v>
@@ -20463,13 +20463,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U266">
-        <v>1.000060882800609</v>
+        <v>6.088280060878581E-05</v>
       </c>
       <c r="V266">
-        <v>1.000060843904962</v>
+        <v>6.084390496186032E-05</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20504,7 +20504,7 @@
         <v>1.537487763250316</v>
       </c>
       <c r="K267">
-        <v>60.59094296009211</v>
+        <v>0.1059094296009211</v>
       </c>
       <c r="L267">
         <v>0.004521566600710565</v>
@@ -20534,13 +20534,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U267">
-        <v>1.000076098867649</v>
+        <v>7.609886764914364E-05</v>
       </c>
       <c r="V267">
-        <v>1.000060840203206</v>
+        <v>6.084020320629158E-05</v>
       </c>
       <c r="W267">
-        <v>1.000455996352029</v>
+        <v>0.0004559963520291976</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20575,7 +20575,7 @@
         <v>1.670556439018507</v>
       </c>
       <c r="K268">
-        <v>62.55462025106933</v>
+        <v>0.1255462025106933</v>
       </c>
       <c r="L268">
         <v>0.005389639878991745</v>
@@ -20605,13 +20605,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U268">
-        <v>1.000091311692462</v>
+        <v>9.1311692462126E-05</v>
       </c>
       <c r="V268">
-        <v>1.000030418250951</v>
+        <v>3.041825095051465E-05</v>
       </c>
       <c r="W268">
-        <v>1.000455788514129</v>
+        <v>0.0004557885141294182</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20646,7 +20646,7 @@
         <v>1.17626854976188</v>
       </c>
       <c r="K269">
-        <v>54.04978856541318</v>
+        <v>0.04049788565413182</v>
       </c>
       <c r="L269">
         <v>0.005822256046514254</v>
@@ -20676,13 +20676,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U269">
-        <v>1.000030434451799</v>
+        <v>3.04344517993993E-05</v>
       </c>
       <c r="V269">
-        <v>0.9999391653485826</v>
+        <v>-6.08346514173741E-05</v>
       </c>
       <c r="W269">
-        <v>0.998633257403189</v>
+        <v>-0.001366742596811021</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20717,7 +20717,7 @@
         <v>0.9740252401188302</v>
       </c>
       <c r="K270">
-        <v>49.34208642946211</v>
+        <v>-0.00657913570537888</v>
       </c>
       <c r="L270">
         <v>0.005609851798286073</v>
@@ -20747,13 +20747,13 @@
         <v>0.1124999999999829</v>
       </c>
       <c r="U270">
-        <v>1.000045650288358</v>
+        <v>4.565028835767926E-05</v>
       </c>
       <c r="V270">
-        <v>0.9999087424712539</v>
+        <v>-9.125752874605819E-05</v>
       </c>
       <c r="W270">
-        <v>0.999087591240876</v>
+        <v>-0.0009124087591240171</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20788,7 +20788,7 @@
         <v>0.9740252401188303</v>
       </c>
       <c r="K271">
-        <v>49.34208642946211</v>
+        <v>-0.00657913570537888</v>
       </c>
       <c r="L271">
         <v>0.004999866637879593</v>
@@ -20818,13 +20818,13 @@
         <v>0.1062499999999602</v>
       </c>
       <c r="U271">
-        <v>1.000045648204504</v>
+        <v>4.564820450414508E-05</v>
       </c>
       <c r="V271">
-        <v>0.999969578047519</v>
+        <v>-3.042195248104118E-05</v>
       </c>
       <c r="W271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20859,7 +20859,7 @@
         <v>0.8181571548211378</v>
       </c>
       <c r="K272">
-        <v>44.999253923219</v>
+        <v>-0.05000746076780999</v>
       </c>
       <c r="L272">
         <v>0.003837333052093597</v>
@@ -20889,13 +20889,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U272">
-        <v>1.000015215373613</v>
+        <v>1.521537361348635E-05</v>
       </c>
       <c r="V272">
-        <v>0.9999695771219957</v>
+        <v>-3.042287800425481E-05</v>
       </c>
       <c r="W272">
-        <v>0.9990867579908677</v>
+        <v>-0.0009132420091323423</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20930,7 +20930,7 @@
         <v>0.8181571548211378</v>
       </c>
       <c r="K273">
-        <v>44.999253923219</v>
+        <v>-0.05000746076780999</v>
       </c>
       <c r="L273">
         <v>0.002400242899180998</v>
@@ -20960,13 +20960,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U273">
-        <v>0.9999847848578904</v>
+        <v>-1.521514210955921E-05</v>
       </c>
       <c r="V273">
-        <v>0.9999391523928322</v>
+        <v>-6.084760716784654E-05</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -21001,7 +21001,7 @@
         <v>0.8181571548211378</v>
       </c>
       <c r="K274">
-        <v>44.999253923219</v>
+        <v>-0.05000746076780999</v>
       </c>
       <c r="L274">
         <v>0.0008796826916439015</v>
@@ -21031,13 +21031,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U274">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V274">
-        <v>0.9999695743450878</v>
+        <v>-3.042565491218063E-05</v>
       </c>
       <c r="W274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -21072,7 +21072,7 @@
         <v>0.748321913080589</v>
       </c>
       <c r="K275">
-        <v>42.80229558880414</v>
+        <v>-0.0719770441119586</v>
       </c>
       <c r="L275">
         <v>-0.0007639641094237824</v>
@@ -21102,13 +21102,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U275">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V275">
-        <v>0.9999391468386782</v>
+        <v>-6.085316132176111E-05</v>
       </c>
       <c r="W275">
-        <v>0.999542961608775</v>
+        <v>-0.0004570383912250175</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21143,7 +21143,7 @@
         <v>0.7483219130805892</v>
       </c>
       <c r="K276">
-        <v>42.80229558880414</v>
+        <v>-0.0719770441119586</v>
       </c>
       <c r="L276">
         <v>-0.002374708822794289</v>
@@ -21173,13 +21173,13 @@
         <v>-0.1937499999999943</v>
       </c>
       <c r="U276">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V276">
-        <v>0.9998782862706913</v>
+        <v>-0.0001217137293086923</v>
       </c>
       <c r="W276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21214,7 +21214,7 @@
         <v>0.7483219130805892</v>
       </c>
       <c r="K277">
-        <v>42.80229558880414</v>
+        <v>-0.0719770441119586</v>
       </c>
       <c r="L277">
         <v>-0.003854311202017331</v>
@@ -21244,13 +21244,13 @@
         <v>-0.2312500000000171</v>
       </c>
       <c r="U277">
-        <v>0.999969569252773</v>
+        <v>-3.04307472269727E-05</v>
       </c>
       <c r="V277">
-        <v>0.9998782714546562</v>
+        <v>-0.0001217285453437578</v>
       </c>
       <c r="W277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21285,7 +21285,7 @@
         <v>0.847877833597083</v>
       </c>
       <c r="K278">
-        <v>45.88386841280531</v>
+        <v>-0.04116131587194694</v>
       </c>
       <c r="L278">
         <v>-0.004980030263425674</v>
@@ -21315,13 +21315,13 @@
         <v>-0.2374999999999829</v>
       </c>
       <c r="U278">
-        <v>0.9999695683267145</v>
+        <v>-3.043167328553587E-05</v>
       </c>
       <c r="V278">
-        <v>0.9998782566350133</v>
+        <v>-0.000121743364986715</v>
       </c>
       <c r="W278">
-        <v>1.000457247370828</v>
+        <v>0.0004572473708277514</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21356,7 +21356,7 @@
         <v>0.5974408791595929</v>
       </c>
       <c r="K279">
-        <v>37.39987419590164</v>
+        <v>-0.1260012580409836</v>
       </c>
       <c r="L279">
         <v>-0.006466404548479537</v>
@@ -21386,13 +21386,13 @@
         <v>-0.2624999999999886</v>
       </c>
       <c r="U279">
-        <v>0.9998934859020981</v>
+        <v>-0.0001065140979018553</v>
       </c>
       <c r="V279">
-        <v>0.9997564836235238</v>
+        <v>-0.0002435163764762382</v>
       </c>
       <c r="W279">
-        <v>0.9981718464351005</v>
+        <v>-0.001828153564899515</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21427,7 +21427,7 @@
         <v>0.7528983261705026</v>
       </c>
       <c r="K280">
-        <v>42.95162559800796</v>
+        <v>-0.07048374401992041</v>
       </c>
       <c r="L280">
         <v>-0.007720755114558191</v>
@@ -21457,13 +21457,13 @@
         <v>-0.25</v>
       </c>
       <c r="U280">
-        <v>0.9999391283175068</v>
+        <v>-6.087168249324648E-05</v>
       </c>
       <c r="V280">
-        <v>0.9997868712702471</v>
+        <v>-0.0002131287297528761</v>
       </c>
       <c r="W280">
-        <v>1.000915750915751</v>
+        <v>0.0009157509157509125</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21498,7 +21498,7 @@
         <v>0.9165377440767466</v>
       </c>
       <c r="K281">
-        <v>47.82257729645028</v>
+        <v>-0.02177422703549714</v>
       </c>
       <c r="L281">
         <v>-0.008394140315791433</v>
@@ -21528,13 +21528,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U281">
-        <v>0.9999543434589396</v>
+        <v>-4.565654106036821E-05</v>
       </c>
       <c r="V281">
-        <v>0.9998477327405063</v>
+        <v>-0.000152267259493688</v>
       </c>
       <c r="W281">
-        <v>1.000914913083257</v>
+        <v>0.0009149130832570851</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21569,7 +21569,7 @@
         <v>1.0887897629254</v>
       </c>
       <c r="K282">
-        <v>52.12538773651035</v>
+        <v>0.02125387736510354</v>
       </c>
       <c r="L282">
         <v>-0.008309583125228833</v>
@@ -21599,13 +21599,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U282">
-        <v>0.9999695609162161</v>
+        <v>-3.043908378386195E-05</v>
       </c>
       <c r="V282">
-        <v>0.9998781676413255</v>
+        <v>-0.0001218323586744674</v>
       </c>
       <c r="W282">
-        <v>1.00091407678245</v>
+        <v>0.000914076782449591</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21640,7 +21640,7 @@
         <v>1.27010767750293</v>
       </c>
       <c r="K283">
-        <v>55.9492261133631</v>
+        <v>0.05949226113363104</v>
       </c>
       <c r="L283">
         <v>-0.007408327768272945</v>
@@ -21670,13 +21670,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U283">
-        <v>0.9999695599896506</v>
+        <v>-3.044001034935295E-05</v>
       </c>
       <c r="V283">
-        <v>0.999908614597295</v>
+        <v>-9.138540270503537E-05</v>
       </c>
       <c r="W283">
-        <v>1.000913242009132</v>
+        <v>0.0009132420091324533</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21711,7 +21711,7 @@
         <v>1.365538158859552</v>
       </c>
       <c r="K284">
-        <v>57.7263213339112</v>
+        <v>0.07726321333911201</v>
       </c>
       <c r="L284">
         <v>-0.005876286387673712</v>
@@ -21741,13 +21741,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U284">
-        <v>0.9999847795315139</v>
+        <v>-1.522046848612124E-05</v>
       </c>
       <c r="V284">
-        <v>1.00003046458492</v>
+        <v>3.046458492006465E-05</v>
       </c>
       <c r="W284">
-        <v>1.000456204379562</v>
+        <v>0.0004562043795621751</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21782,7 +21782,7 @@
         <v>1.365538158859552</v>
       </c>
       <c r="K285">
-        <v>57.7263213339112</v>
+        <v>0.07726321333911201</v>
       </c>
       <c r="L285">
         <v>-0.004038177242199375</v>
@@ -21812,13 +21812,13 @@
         <v>0.05625000000003411</v>
       </c>
       <c r="U285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V285">
-        <v>1.000091390970572</v>
+        <v>9.139097057198065E-05</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21853,7 +21853,7 @@
         <v>1.577018449954498</v>
       </c>
       <c r="K286">
-        <v>61.19546602323873</v>
+        <v>0.1119546602323873</v>
       </c>
       <c r="L286">
         <v>-0.001784421962130391</v>
@@ -21883,13 +21883,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U286">
-        <v>1.000060882800609</v>
+        <v>6.088280060878581E-05</v>
       </c>
       <c r="V286">
-        <v>1.000152304365043</v>
+        <v>0.0001523043650430989</v>
       </c>
       <c r="W286">
-        <v>1.000911992704058</v>
+        <v>0.0009119927040583953</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21924,7 +21924,7 @@
         <v>1.577018449954498</v>
       </c>
       <c r="K287">
-        <v>61.19546602323873</v>
+        <v>0.1119546602323873</v>
       </c>
       <c r="L287">
         <v>0.0005840313554534864</v>
@@ -21954,13 +21954,13 @@
         <v>0.2187500000000284</v>
       </c>
       <c r="U287">
-        <v>1.000091318641179</v>
+        <v>9.13186411786171E-05</v>
       </c>
       <c r="V287">
-        <v>1.000213193640738</v>
+        <v>0.0002131936407383517</v>
       </c>
       <c r="W287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21995,7 +21995,7 @@
         <v>1.411627138007985</v>
       </c>
       <c r="K288">
-        <v>58.53422014374891</v>
+        <v>0.08534220143748916</v>
       </c>
       <c r="L288">
         <v>0.002702532566181377</v>
@@ -22025,13 +22025,13 @@
         <v>0.28125</v>
       </c>
       <c r="U288">
-        <v>1.000060873535231</v>
+        <v>6.08735352305434E-05</v>
       </c>
       <c r="V288">
-        <v>1.000182698456198</v>
+        <v>0.0001826984561978939</v>
       </c>
       <c r="W288">
-        <v>0.9995444191343964</v>
+        <v>-0.0004555808656035998</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -22066,7 +22066,7 @@
         <v>1.522022877413227</v>
       </c>
       <c r="K289">
-        <v>60.34928909821493</v>
+        <v>0.1034928909821493</v>
       </c>
       <c r="L289">
         <v>0.004690931371283179</v>
@@ -22096,13 +22096,13 @@
         <v>0.3250000000000171</v>
       </c>
       <c r="U289">
-        <v>1.000091304744803</v>
+        <v>9.130474480323336E-05</v>
       </c>
       <c r="V289">
-        <v>1.000213109264164</v>
+        <v>0.0002131092641641796</v>
       </c>
       <c r="W289">
-        <v>1.000455788514129</v>
+        <v>0.0004557885141294182</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22137,7 +22137,7 @@
         <v>1.12857958070814</v>
       </c>
       <c r="K290">
-        <v>53.02031415394307</v>
+        <v>0.03020314153943071</v>
       </c>
       <c r="L290">
         <v>0.005957713076151668</v>
@@ -22167,13 +22167,13 @@
         <v>0.3249999999999886</v>
       </c>
       <c r="U290">
-        <v>1.000045648204504</v>
+        <v>4.564820450414508E-05</v>
       </c>
       <c r="V290">
-        <v>1.000152188470202</v>
+        <v>0.0001521884702015974</v>
       </c>
       <c r="W290">
-        <v>0.998633257403189</v>
+        <v>-0.001366742596811021</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22208,7 +22208,7 @@
         <v>1.12857958070814</v>
       </c>
       <c r="K291">
-        <v>53.02031415394307</v>
+        <v>0.03020314153943071</v>
       </c>
       <c r="L291">
         <v>0.006684856153640128</v>
@@ -22238,13 +22238,13 @@
         <v>0.2937499999999886</v>
       </c>
       <c r="U291">
-        <v>1.000015215373613</v>
+        <v>1.52153736132643E-05</v>
       </c>
       <c r="V291">
-        <v>1.000152165312395</v>
+        <v>0.0001521653123954803</v>
       </c>
       <c r="W291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22279,7 +22279,7 @@
         <v>1.030218798245518</v>
       </c>
       <c r="K292">
-        <v>50.74422516114105</v>
+        <v>0.007442251611410544</v>
       </c>
       <c r="L292">
         <v>0.006848122379432662</v>
@@ -22309,13 +22309,13 @@
         <v>0.2437499999999773</v>
       </c>
       <c r="U292">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V292">
-        <v>1.000121713729309</v>
+        <v>0.0001217137293085813</v>
       </c>
       <c r="W292">
-        <v>0.9995437956204379</v>
+        <v>-0.0004562043795620641</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22350,7 +22350,7 @@
         <v>1.121960371033112</v>
       </c>
       <c r="K293">
-        <v>52.87376646373782</v>
+        <v>0.02873766463737815</v>
       </c>
       <c r="L293">
         <v>0.006800737780407985</v>
@@ -22380,13 +22380,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V293">
-        <v>1.00012169891688</v>
+        <v>0.0001216989168797422</v>
       </c>
       <c r="W293">
-        <v>1.000456412596988</v>
+        <v>0.0004564125969876986</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22421,7 +22421,7 @@
         <v>1.218530447651661</v>
       </c>
       <c r="K294">
-        <v>54.92511716219575</v>
+        <v>0.04925117162195758</v>
       </c>
       <c r="L294">
         <v>0.006770241435418311</v>
@@ -22451,13 +22451,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U294">
-        <v>1.000015215142109</v>
+        <v>1.521514210933717E-05</v>
       </c>
       <c r="V294">
-        <v>1.000273789243125</v>
+        <v>0.0002737892431248223</v>
       </c>
       <c r="W294">
-        <v>1.000456204379562</v>
+        <v>0.0004562043795621751</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22492,7 +22492,7 @@
         <v>1.320183159881682</v>
       </c>
       <c r="K295">
-        <v>56.89995439622987</v>
+        <v>0.06899954396229868</v>
       </c>
       <c r="L295">
         <v>0.006893467671170929</v>
@@ -22522,13 +22522,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U295">
-        <v>1.000015214910612</v>
+        <v>1.521491061229341E-05</v>
       </c>
       <c r="V295">
-        <v>1.000243301602749</v>
+        <v>0.000243301602749435</v>
       </c>
       <c r="W295">
-        <v>1.000455996352029</v>
+        <v>0.0004559963520291976</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22563,7 +22563,7 @@
         <v>1.427186014860653</v>
       </c>
       <c r="K296">
-        <v>58.80002629063389</v>
+        <v>0.088000262906339</v>
       </c>
       <c r="L296">
         <v>0.007243024278631199</v>
@@ -22593,13 +22593,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U296">
-        <v>1.000030429358245</v>
+        <v>3.042935824471016E-05</v>
       </c>
       <c r="V296">
-        <v>1.000212837118793</v>
+        <v>0.0002128371187934963</v>
       </c>
       <c r="W296">
-        <v>1.000455788514129</v>
+        <v>0.0004557885141294182</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22634,7 +22634,7 @@
         <v>1.427186014860653</v>
       </c>
       <c r="K297">
-        <v>58.80002629063389</v>
+        <v>0.088000262906339</v>
       </c>
       <c r="L297">
         <v>0.007680952535603412</v>
@@ -22664,13 +22664,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U297">
-        <v>1.000015214216164</v>
+        <v>1.521421616357266E-05</v>
       </c>
       <c r="V297">
-        <v>1.000151994163424</v>
+        <v>0.0001519941634240407</v>
       </c>
       <c r="W297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22705,7 +22705,7 @@
         <v>1.153630802712384</v>
       </c>
       <c r="K298">
-        <v>53.56678597183172</v>
+        <v>0.03566785971831721</v>
       </c>
       <c r="L298">
         <v>0.007784071321925453</v>
@@ -22735,13 +22735,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U298">
-        <v>0.9999695720306105</v>
+        <v>-3.042796938945713E-05</v>
       </c>
       <c r="V298">
-        <v>1.000030394212942</v>
+        <v>3.039421294204203E-05</v>
       </c>
       <c r="W298">
-        <v>0.9990888382687928</v>
+        <v>-0.0009111617312071996</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22776,7 +22776,7 @@
         <v>1.35539346847185</v>
       </c>
       <c r="K299">
-        <v>57.54424840751606</v>
+        <v>0.07544248407516063</v>
       </c>
       <c r="L299">
         <v>0.007981814619542052</v>
@@ -22806,13 +22806,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U299">
-        <v>1.000045643342918</v>
+        <v>4.564334291834449E-05</v>
       </c>
       <c r="V299">
-        <v>1.000060786578324</v>
+        <v>6.078657832353507E-05</v>
       </c>
       <c r="W299">
-        <v>1.000911992704058</v>
+        <v>0.0009119927040583953</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22847,7 +22847,7 @@
         <v>1.35539346847185</v>
       </c>
       <c r="K300">
-        <v>57.54424840751608</v>
+        <v>0.07544248407516074</v>
       </c>
       <c r="L300">
         <v>0.008195146348778314</v>
@@ -22877,13 +22877,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U300">
-        <v>1.000076068766165</v>
+        <v>7.606876616472746E-05</v>
       </c>
       <c r="V300">
-        <v>1.00006078288354</v>
+        <v>6.078288354016692E-05</v>
       </c>
       <c r="W300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22918,7 +22918,7 @@
         <v>1.355393468471851</v>
       </c>
       <c r="K301">
-        <v>57.54424840751609</v>
+        <v>0.07544248407516085</v>
       </c>
       <c r="L301">
         <v>0.00837442516691145</v>
@@ -22948,13 +22948,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U301">
-        <v>1.000076062980148</v>
+        <v>7.606298014750656E-05</v>
       </c>
       <c r="V301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22989,7 +22989,7 @@
         <v>1.355393468471851</v>
       </c>
       <c r="K302">
-        <v>57.54424840751609</v>
+        <v>0.07544248407516085</v>
       </c>
       <c r="L302">
         <v>0.008491104775204553</v>
@@ -23019,13 +23019,13 @@
         <v>0.08124999999995453</v>
       </c>
       <c r="U302">
-        <v>1.000106480073015</v>
+        <v>0.0001064800730148363</v>
       </c>
       <c r="V302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -23060,7 +23060,7 @@
         <v>1.603105092243266</v>
       </c>
       <c r="K303">
-        <v>61.5843400644945</v>
+        <v>0.115843400644945</v>
       </c>
       <c r="L303">
         <v>0.00886371489190081</v>
@@ -23090,13 +23090,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U303">
-        <v>1.000136888375135</v>
+        <v>0.0001368883751349248</v>
       </c>
       <c r="V303">
-        <v>1.000091168783808</v>
+        <v>9.116878380832638E-05</v>
       </c>
       <c r="W303">
-        <v>1.000911161731207</v>
+        <v>0.0009111617312071996</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23131,7 +23131,7 @@
         <v>1.603105092243266</v>
       </c>
       <c r="K304">
-        <v>61.5843400644945</v>
+        <v>0.115843400644945</v>
       </c>
       <c r="L304">
         <v>0.00933522026155942</v>
@@ -23161,13 +23161,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U304">
-        <v>1.000136869639273</v>
+        <v>0.0001368696392725077</v>
       </c>
       <c r="V304">
-        <v>1.000060773648546</v>
+        <v>6.077364854584211E-05</v>
       </c>
       <c r="W304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23202,7 +23202,7 @@
         <v>1.603105092243266</v>
       </c>
       <c r="K305">
-        <v>61.58434006449449</v>
+        <v>0.1158434006449449</v>
       </c>
       <c r="L305">
         <v>0.009802480149891263</v>
@@ -23232,13 +23232,13 @@
         <v>0.125</v>
       </c>
       <c r="U305">
-        <v>1.000152056565042</v>
+        <v>0.0001520565650421357</v>
       </c>
       <c r="V305">
-        <v>1.000151924888335</v>
+        <v>0.0001519248883352642</v>
       </c>
       <c r="W305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23273,7 +23273,7 @@
         <v>1.747564415043374</v>
       </c>
       <c r="K306">
-        <v>63.60412900513514</v>
+        <v>0.1360412900513513</v>
       </c>
       <c r="L306">
         <v>0.0103676714509596</v>
@@ -23303,13 +23303,13 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="U306">
-        <v>1.000167236792094</v>
+        <v>0.0001672367920941831</v>
       </c>
       <c r="V306">
-        <v>1.000182282172803</v>
+        <v>0.0001822821728034718</v>
       </c>
       <c r="W306">
-        <v>1.00045516613564</v>
+        <v>0.000455166135639562</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23344,7 +23344,7 @@
         <v>1.747564415043375</v>
       </c>
       <c r="K307">
-        <v>63.60412900513514</v>
+        <v>0.1360412900513513</v>
       </c>
       <c r="L307">
         <v>0.01091827378626916</v>
@@ -23374,13 +23374,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U307">
-        <v>1.000167208828626</v>
+        <v>0.0001672088286261975</v>
       </c>
       <c r="V307">
-        <v>1.000212623777413</v>
+        <v>0.0002126237774133788</v>
       </c>
       <c r="W307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23415,7 +23415,7 @@
         <v>1.323780595847688</v>
       </c>
       <c r="K308">
-        <v>56.96667741408643</v>
+        <v>0.06966677414086431</v>
       </c>
       <c r="L308">
         <v>0.01105297651067296</v>
@@ -23445,13 +23445,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U308">
-        <v>1.000121586090551</v>
+        <v>0.00012158609055124</v>
       </c>
       <c r="V308">
-        <v>1.00012147347323</v>
+        <v>0.0001214734732302158</v>
       </c>
       <c r="W308">
-        <v>0.9990900818926296</v>
+        <v>-0.0009099181073703999</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23486,7 +23486,7 @@
         <v>1.323780595847688</v>
       </c>
       <c r="K309">
-        <v>56.96667741408643</v>
+        <v>0.06966677414086431</v>
       </c>
       <c r="L309">
         <v>0.01088690531687638</v>
@@ -23516,13 +23516,13 @@
         <v>0.1187500000000341</v>
       </c>
       <c r="U309">
-        <v>1.000182356963756</v>
+        <v>0.0001823569637564582</v>
       </c>
       <c r="V309">
-        <v>1.000091094039413</v>
+        <v>9.109403941343075E-05</v>
       </c>
       <c r="W309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23557,7 +23557,7 @@
         <v>1.592478307144313</v>
       </c>
       <c r="K310">
-        <v>61.42687106602918</v>
+        <v>0.1142687106602918</v>
       </c>
       <c r="L310">
         <v>0.01084159681045453</v>
@@ -23587,13 +23587,13 @@
         <v>0.125</v>
       </c>
       <c r="U310">
-        <v>1.000182323715757</v>
+        <v>0.0001823237157572155</v>
       </c>
       <c r="V310">
-        <v>1.00012144765606</v>
+        <v>0.0001214476560602584</v>
       </c>
       <c r="W310">
-        <v>1.000910746812386</v>
+        <v>0.0009107468123863427</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23628,7 +23628,7 @@
         <v>1.592478307144314</v>
       </c>
       <c r="K311">
-        <v>61.42687106602918</v>
+        <v>0.1142687106602918</v>
       </c>
       <c r="L311">
         <v>0.0108327610914352</v>
@@ -23658,13 +23658,13 @@
         <v>0.1124999999999829</v>
       </c>
       <c r="U311">
-        <v>1.000151908733233</v>
+        <v>0.0001519087332331193</v>
       </c>
       <c r="V311">
-        <v>1.000091074681239</v>
+        <v>9.107468123858986E-05</v>
       </c>
       <c r="W311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23699,7 +23699,7 @@
         <v>1.741341305092562</v>
       </c>
       <c r="K312">
-        <v>63.52150685716112</v>
+        <v>0.1352150685716113</v>
       </c>
       <c r="L312">
         <v>0.01097303029028908</v>
@@ -23729,13 +23729,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U312">
-        <v>1.000136697094427</v>
+        <v>0.0001366970944274293</v>
       </c>
       <c r="V312">
-        <v>1.000121421849862</v>
+        <v>0.000121421849861747</v>
       </c>
       <c r="W312">
-        <v>1.000454959053685</v>
+        <v>0.0004549590536850889</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23770,7 +23770,7 @@
         <v>1.741341305092562</v>
       </c>
       <c r="K313">
-        <v>63.52150685716112</v>
+        <v>0.1352150685716113</v>
       </c>
       <c r="L313">
         <v>0.01115460924749187</v>
@@ -23800,13 +23800,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U313">
-        <v>1.000106305430689</v>
+        <v>0.0001063054306889022</v>
       </c>
       <c r="V313">
-        <v>1.000182110662579</v>
+        <v>0.0001821106625792268</v>
       </c>
       <c r="W313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23841,7 +23841,7 @@
         <v>1.494783943236507</v>
       </c>
       <c r="K314">
-        <v>59.91636860133504</v>
+        <v>0.09916368601335046</v>
       </c>
       <c r="L314">
         <v>0.01114298619557268</v>
@@ -23871,13 +23871,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U314">
-        <v>1.000075924379318</v>
+        <v>7.592437931802642E-05</v>
       </c>
       <c r="V314">
-        <v>1.000091038752162</v>
+        <v>9.103875216220914E-05</v>
       </c>
       <c r="W314">
-        <v>0.9995452478399273</v>
+        <v>-0.0004547521600727356</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23912,7 +23912,7 @@
         <v>1.494783943236507</v>
       </c>
       <c r="K315">
-        <v>59.91636860133504</v>
+        <v>0.09916368601335046</v>
       </c>
       <c r="L315">
         <v>0.0109744603387496</v>
@@ -23942,13 +23942,13 @@
         <v>0.0625</v>
       </c>
       <c r="U315">
-        <v>1.000075918615245</v>
+        <v>7.591861524458565E-05</v>
       </c>
       <c r="V315">
-        <v>1.000091030464862</v>
+        <v>9.103046486225175E-05</v>
       </c>
       <c r="W315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23983,7 +23983,7 @@
         <v>1.65167090844553</v>
       </c>
       <c r="K316">
-        <v>62.28792959129974</v>
+        <v>0.1228792959129974</v>
       </c>
       <c r="L316">
         <v>0.0108475410701217</v>
@@ -24013,13 +24013,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U316">
-        <v>1.000060730281637</v>
+        <v>6.073028163666727E-05</v>
       </c>
       <c r="V316">
-        <v>1.000121362905428</v>
+        <v>0.0001213629054277465</v>
       </c>
       <c r="W316">
-        <v>1.000454959053685</v>
+        <v>0.0004549590536850889</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -24054,7 +24054,7 @@
         <v>2.312247604062517</v>
       </c>
       <c r="K317">
-        <v>69.80902035302293</v>
+        <v>0.1980902035302293</v>
       </c>
       <c r="L317">
         <v>0.0113778645043704</v>
@@ -24084,13 +24084,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U317">
-        <v>1.000121453187387</v>
+        <v>0.0001214531873872104</v>
       </c>
       <c r="V317">
-        <v>1.000242696356521</v>
+        <v>0.0002426963565211882</v>
       </c>
       <c r="W317">
-        <v>1.001819008640291</v>
+        <v>0.001819008640291164</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24125,7 +24125,7 @@
         <v>2.312247604062518</v>
       </c>
       <c r="K318">
-        <v>69.80902035302294</v>
+        <v>0.1980902035302294</v>
       </c>
       <c r="L318">
         <v>0.01223082319871676</v>
@@ -24155,13 +24155,13 @@
         <v>0.125</v>
       </c>
       <c r="U318">
-        <v>1.000136618243089</v>
+        <v>0.0001366182430890817</v>
       </c>
       <c r="V318">
-        <v>1.000181978101969</v>
+        <v>0.0001819781019685163</v>
       </c>
       <c r="W318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24196,7 +24196,7 @@
         <v>1.692750800553928</v>
       </c>
       <c r="K319">
-        <v>62.8632549363911</v>
+        <v>0.128632549363911</v>
       </c>
       <c r="L319">
         <v>0.01284838097278384</v>
@@ -24226,13 +24226,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U319">
-        <v>1.000091066387397</v>
+        <v>9.106638739653228E-05</v>
       </c>
       <c r="V319">
-        <v>1.000121296661309</v>
+        <v>0.0001212966613093336</v>
       </c>
       <c r="W319">
-        <v>0.9990921470721742</v>
+        <v>-0.000907852927825803</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24267,7 +24267,7 @@
         <v>1.48355423156843</v>
       </c>
       <c r="K320">
-        <v>59.73512527775672</v>
+        <v>0.09735125277756718</v>
       </c>
       <c r="L320">
         <v>0.01307125501918206</v>
@@ -24297,13 +24297,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U320">
-        <v>1.00012141079342</v>
+        <v>0.0001214107934195408</v>
       </c>
       <c r="V320">
-        <v>1.00009096146266</v>
+        <v>9.096146266029947E-05</v>
       </c>
       <c r="W320">
-        <v>0.9995456610631531</v>
+        <v>-0.0004543389368468764</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24338,7 +24338,7 @@
         <v>1.743730643417732</v>
       </c>
       <c r="K321">
-        <v>63.55327362767839</v>
+        <v>0.1355327362767839</v>
       </c>
       <c r="L321">
         <v>0.01332480338214007</v>
@@ -24368,13 +24368,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U321">
-        <v>1.000151745068285</v>
+        <v>0.0001517450682853028</v>
       </c>
       <c r="V321">
-        <v>1.000121270919234</v>
+        <v>0.0001212709192335293</v>
       </c>
       <c r="W321">
-        <v>1.000909090909091</v>
+        <v>0.0009090909090907484</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24409,7 +24409,7 @@
         <v>2.017600550627562</v>
       </c>
       <c r="K322">
-        <v>66.86108770121902</v>
+        <v>0.1686108770121902</v>
       </c>
       <c r="L322">
         <v>0.01386365708068088</v>
@@ -24439,13 +24439,13 @@
         <v>0.1749999999999829</v>
       </c>
       <c r="U322">
-        <v>1.000197238658777</v>
+        <v>0.0001972386587769659</v>
       </c>
       <c r="V322">
-        <v>1.000181884321572</v>
+        <v>0.0001818843215715127</v>
       </c>
       <c r="W322">
-        <v>1.000908265213442</v>
+        <v>0.0009082652134424496</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24480,7 +24480,7 @@
         <v>2.305884663479974</v>
       </c>
       <c r="K323">
-        <v>69.75091082133096</v>
+        <v>0.1975091082133096</v>
       </c>
       <c r="L323">
         <v>0.01482175482089507</v>
@@ -24510,13 +24510,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U323">
-        <v>1.000212368975927</v>
+        <v>0.0002123689759265801</v>
       </c>
       <c r="V323">
-        <v>1.000303085409468</v>
+        <v>0.0003030854094683288</v>
       </c>
       <c r="W323">
-        <v>1.000907441016334</v>
+        <v>0.0009074410163338875</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24551,7 +24551,7 @@
         <v>2.305884663479974</v>
       </c>
       <c r="K324">
-        <v>69.75091082133096</v>
+        <v>0.1975091082133096</v>
       </c>
       <c r="L324">
         <v>0.01591839159634624</v>
@@ -24581,13 +24581,13 @@
         <v>0.25</v>
       </c>
       <c r="U324">
-        <v>1.000197157893141</v>
+        <v>0.0001971578931405649</v>
       </c>
       <c r="V324">
-        <v>1.000302993576536</v>
+        <v>0.0003029935765361813</v>
       </c>
       <c r="W324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24622,7 +24622,7 @@
         <v>1.988321504962765</v>
       </c>
       <c r="K325">
-        <v>66.53639849864615</v>
+        <v>0.1653639849864615</v>
       </c>
       <c r="L325">
         <v>0.01680502031694779</v>
@@ -24652,13 +24652,13 @@
         <v>0.21875</v>
       </c>
       <c r="U325">
-        <v>1.000166793025019</v>
+        <v>0.0001667930250188743</v>
       </c>
       <c r="V325">
-        <v>1.000212031259466</v>
+        <v>0.0002120312594655616</v>
       </c>
       <c r="W325">
-        <v>0.9995466908431551</v>
+        <v>-0.0004533091568449388</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24693,7 +24693,7 @@
         <v>1.988321504962765</v>
       </c>
       <c r="K326">
-        <v>66.53639849864615</v>
+        <v>0.1653639849864615</v>
       </c>
       <c r="L326">
         <v>0.01744647954228118</v>
@@ -24723,13 +24723,13 @@
         <v>0.2000000000000171</v>
       </c>
       <c r="U326">
-        <v>1.000151604736132</v>
+        <v>0.0001516047361318495</v>
       </c>
       <c r="V326">
-        <v>1.000211986311741</v>
+        <v>0.0002119863117409082</v>
       </c>
       <c r="W326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24764,7 +24764,7 @@
         <v>1.988321504962765</v>
       </c>
       <c r="K327">
-        <v>66.53639849864615</v>
+        <v>0.1653639849864615</v>
       </c>
       <c r="L327">
         <v>0.01783480281175849</v>
@@ -24794,13 +24794,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U327">
-        <v>1.00015158175562</v>
+        <v>0.0001515817556199117</v>
       </c>
       <c r="V327">
-        <v>1.00018166404263</v>
+        <v>0.000181664042630425</v>
       </c>
       <c r="W327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24835,7 +24835,7 @@
         <v>1.504871870556566</v>
       </c>
       <c r="K328">
-        <v>60.07779831956808</v>
+        <v>0.1007779831956808</v>
       </c>
       <c r="L328">
         <v>0.01764869647999054</v>
@@ -24865,13 +24865,13 @@
         <v>0.21875</v>
       </c>
       <c r="U328">
-        <v>1.000151558782074</v>
+        <v>0.0001515587820735131</v>
       </c>
       <c r="V328">
-        <v>1.000121087364534</v>
+        <v>0.0001210873645338673</v>
       </c>
       <c r="W328">
-        <v>0.999092970521542</v>
+        <v>-0.0009070294784579991</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24906,7 +24906,7 @@
         <v>1.504871870556566</v>
       </c>
       <c r="K329">
-        <v>60.07779831956808</v>
+        <v>0.1007779831956808</v>
       </c>
       <c r="L329">
         <v>0.01706227184761664</v>
@@ -24936,13 +24936,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U329">
-        <v>1.000121228652392</v>
+        <v>0.000121228652391947</v>
       </c>
       <c r="V329">
-        <v>1.000151340880199</v>
+        <v>0.000151340880198525</v>
       </c>
       <c r="W329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24977,7 +24977,7 @@
         <v>2.447814912597586</v>
       </c>
       <c r="K330">
-        <v>70.99612289667256</v>
+        <v>0.2099612289667256</v>
       </c>
       <c r="L330">
         <v>0.01736755481665952</v>
@@ -25007,13 +25007,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U330">
-        <v>1.000227276170851</v>
+        <v>0.000227276170851054</v>
       </c>
       <c r="V330">
-        <v>1.000363163151045</v>
+        <v>0.0003631631510454536</v>
       </c>
       <c r="W330">
-        <v>1.00317748524739</v>
+        <v>0.003177485247389811</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -25048,7 +25048,7 @@
         <v>2.14382869443973</v>
       </c>
       <c r="K331">
-        <v>68.19165109827294</v>
+        <v>0.1819165109827294</v>
       </c>
       <c r="L331">
         <v>0.01796422741386623</v>
@@ -25078,13 +25078,13 @@
         <v>0.1750000000000398</v>
       </c>
       <c r="U331">
-        <v>1.000212076226255</v>
+        <v>0.0002120762262551867</v>
       </c>
       <c r="V331">
-        <v>1.000302526092876</v>
+        <v>0.0003025260928755102</v>
       </c>
       <c r="W331">
-        <v>0.9995475113122172</v>
+        <v>-0.0004524886877828038</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25119,7 +25119,7 @@
         <v>2.797443253185508</v>
       </c>
       <c r="K332">
-        <v>73.66649260232805</v>
+        <v>0.2366649260232805</v>
       </c>
       <c r="L332">
         <v>0.01946106201568847</v>
@@ -25149,13 +25149,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U332">
-        <v>1.000287756709275</v>
+        <v>0.0002877567092749445</v>
       </c>
       <c r="V332">
-        <v>1.00033267805837</v>
+        <v>0.0003326780583698952</v>
       </c>
       <c r="W332">
-        <v>1.002263467632413</v>
+        <v>0.002263467632412919</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25190,7 +25190,7 @@
         <v>1.980057365913984</v>
       </c>
       <c r="K333">
-        <v>66.44359899114559</v>
+        <v>0.1644359899114559</v>
       </c>
       <c r="L333">
         <v>0.02083965294619174</v>
@@ -25220,13 +25220,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U333">
-        <v>1.0002119702636</v>
+        <v>0.000211970263600314</v>
       </c>
       <c r="V333">
-        <v>1.000241867214899</v>
+        <v>0.0002418672148989387</v>
       </c>
       <c r="W333">
-        <v>0.9986449864498644</v>
+        <v>-0.001355013550135564</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25261,7 +25261,7 @@
         <v>1.795933055409883</v>
       </c>
       <c r="K334">
-        <v>64.2337645364903</v>
+        <v>0.142337645364903</v>
       </c>
       <c r="L334">
         <v>0.02181692470386573</v>
@@ -25291,13 +25291,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U334">
-        <v>1.00019678781732</v>
+        <v>0.0001967878173203541</v>
       </c>
       <c r="V334">
-        <v>1.000272034820457</v>
+        <v>0.0002720348204570122</v>
       </c>
       <c r="W334">
-        <v>0.9995477159656264</v>
+        <v>-0.0004522840343735846</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25332,7 +25332,7 @@
         <v>1.501908712669637</v>
       </c>
       <c r="K335">
-        <v>60.03051610412436</v>
+        <v>0.1003051610412435</v>
       </c>
       <c r="L335">
         <v>0.02207824460726622</v>
@@ -25362,13 +25362,13 @@
         <v>0.21875</v>
       </c>
       <c r="U335">
-        <v>1.000166480007264</v>
+        <v>0.0001664800072644912</v>
       </c>
       <c r="V335">
-        <v>1.000241742966791</v>
+        <v>0.0002417429667906923</v>
       </c>
       <c r="W335">
-        <v>0.9990950226244344</v>
+        <v>-0.0009049773755656076</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25403,7 +25403,7 @@
         <v>1.193411628908657</v>
       </c>
       <c r="K336">
-        <v>54.40892230075597</v>
+        <v>0.04408922300755969</v>
       </c>
       <c r="L336">
         <v>0.02131272006778362</v>
@@ -25433,13 +25433,13 @@
         <v>0.2125000000000057</v>
       </c>
       <c r="U336">
-        <v>1.000105924188545</v>
+        <v>0.0001059241885450479</v>
       </c>
       <c r="V336">
-        <v>1.00009063170297</v>
+        <v>9.063170296963463E-05</v>
       </c>
       <c r="W336">
-        <v>0.9986413043478261</v>
+        <v>-0.001358695652173947</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25474,7 +25474,7 @@
         <v>1.409625683491752</v>
       </c>
       <c r="K337">
-        <v>58.4997783327527</v>
+        <v>0.08499778332752694</v>
       </c>
       <c r="L337">
         <v>0.02039268158705854</v>
@@ -25504,13 +25504,13 @@
         <v>0.2374999999999829</v>
       </c>
       <c r="U337">
-        <v>1.000151304242571</v>
+        <v>0.0001513042425709266</v>
       </c>
       <c r="V337">
-        <v>1.000120831319478</v>
+        <v>0.000120831319478043</v>
       </c>
       <c r="W337">
-        <v>1.001360544217687</v>
+        <v>0.001360544217687165</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25545,7 +25545,7 @@
         <v>1.021969315998009</v>
       </c>
       <c r="K338">
-        <v>50.54326531624852</v>
+        <v>0.005432653162485201</v>
       </c>
       <c r="L338">
         <v>0.01853695703496211</v>
@@ -25575,13 +25575,13 @@
         <v>0.1562500000000284</v>
       </c>
       <c r="U338">
-        <v>1.000105896947142</v>
+        <v>0.0001058969471421367</v>
       </c>
       <c r="V338">
-        <v>0.9999093874592243</v>
+        <v>-9.061254077569192E-05</v>
       </c>
       <c r="W338">
-        <v>0.9977355072463768</v>
+        <v>-0.002264492753623171</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25616,7 +25616,7 @@
         <v>1.137761568929474</v>
       </c>
       <c r="K339">
-        <v>53.22209854765191</v>
+        <v>0.03222098547651908</v>
       </c>
       <c r="L339">
         <v>0.01649619363252387</v>
@@ -25646,13 +25646,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U339">
-        <v>1.000136138801071</v>
+        <v>0.0001361388010709952</v>
       </c>
       <c r="V339">
-        <v>0.9999697930826159</v>
+        <v>-3.02069173840902E-05</v>
       </c>
       <c r="W339">
-        <v>1.000907852927826</v>
+        <v>0.0009078529278256919</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25687,7 +25687,7 @@
         <v>1.259648150962596</v>
       </c>
       <c r="K340">
-        <v>55.74532258157067</v>
+        <v>0.05745322581570667</v>
       </c>
       <c r="L340">
         <v>0.01474396371977617</v>
@@ -25717,13 +25717,13 @@
         <v>0.01874999999995453</v>
       </c>
       <c r="U340">
-        <v>1.00013612026982</v>
+        <v>0.0001361202698204611</v>
       </c>
       <c r="V340">
-        <v>1.000060415659739</v>
+        <v>6.041565973902152E-05</v>
       </c>
       <c r="W340">
-        <v>1.000907029478458</v>
+        <v>0.0009070294784578881</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25758,7 +25758,7 @@
         <v>1.259648150962596</v>
       </c>
       <c r="K341">
-        <v>55.74532258157065</v>
+        <v>0.05745322581570655</v>
       </c>
       <c r="L341">
         <v>0.01322446612578104</v>
@@ -25788,13 +25788,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U341">
-        <v>1.000136101743615</v>
+        <v>0.0001361017436147804</v>
       </c>
       <c r="V341">
-        <v>1.000060412009907</v>
+        <v>6.041200990747342E-05</v>
       </c>
       <c r="W341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25829,7 +25829,7 @@
         <v>1.179968210733227</v>
       </c>
       <c r="K342">
-        <v>54.12777144747205</v>
+        <v>0.04127771447472051</v>
       </c>
       <c r="L342">
         <v>0.01172942432240782</v>
@@ -25859,13 +25859,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U342">
-        <v>1.00010584250635</v>
+        <v>0.0001058425063504842</v>
       </c>
       <c r="V342">
-        <v>1.000030204180258</v>
+        <v>3.020418025845295E-05</v>
       </c>
       <c r="W342">
-        <v>0.9995468962392388</v>
+        <v>-0.000453103760761242</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25900,7 +25900,7 @@
         <v>1.246553170374519</v>
       </c>
       <c r="K343">
-        <v>55.48736557019517</v>
+        <v>0.05487365570195168</v>
       </c>
       <c r="L343">
         <v>0.01046697370639465</v>
@@ -25930,13 +25930,13 @@
         <v>-0.1250000000000284</v>
       </c>
       <c r="U343">
-        <v>1.000120950062743</v>
+        <v>0.0001209500627428195</v>
       </c>
       <c r="V343">
-        <v>1.000120813071975</v>
+        <v>0.0001208130719745348</v>
       </c>
       <c r="W343">
-        <v>1.000453309156845</v>
+        <v>0.0004533091568450498</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25971,7 +25971,7 @@
         <v>1.316642601575899</v>
       </c>
       <c r="K344">
-        <v>56.83408397481128</v>
+        <v>0.06834083974811278</v>
       </c>
       <c r="L344">
         <v>0.00955288976325957</v>
@@ -26001,13 +26001,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U344">
-        <v>1.000151169294493</v>
+        <v>0.0001511692944931031</v>
       </c>
       <c r="V344">
-        <v>1.000150998097424</v>
+        <v>0.0001509980974239156</v>
       </c>
       <c r="W344">
-        <v>1.000453103760761</v>
+        <v>0.0004531037607613531</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -26042,7 +26042,7 @@
         <v>1.39042095020891</v>
       </c>
       <c r="K345">
-        <v>58.16636396561846</v>
+        <v>0.08166363965618462</v>
       </c>
       <c r="L345">
         <v>0.009038380975690416</v>
@@ -26072,13 +26072,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U345">
-        <v>1.000166261090371</v>
+        <v>0.0001662610903705453</v>
       </c>
       <c r="V345">
-        <v>0.9999698049399118</v>
+        <v>-3.01950600881673E-05</v>
       </c>
       <c r="W345">
-        <v>1.000452898550725</v>
+        <v>0.0004528985507246119</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26113,7 +26113,7 @@
         <v>1.060867153545387</v>
       </c>
       <c r="K346">
-        <v>51.47673646602292</v>
+        <v>0.01476736466022921</v>
       </c>
       <c r="L346">
         <v>0.008105241704457993</v>
@@ -26143,13 +26143,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U346">
-        <v>1.000090672792117</v>
+        <v>9.067279211749657E-05</v>
       </c>
       <c r="V346">
-        <v>0.9998792161125707</v>
+        <v>-0.0001207838874293099</v>
       </c>
       <c r="W346">
-        <v>0.9981892258940697</v>
+        <v>-0.001810774105930335</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26184,7 +26184,7 @@
         <v>0.9985825921182923</v>
       </c>
       <c r="K347">
-        <v>49.96453967208317</v>
+        <v>-0.0003546032791683085</v>
       </c>
       <c r="L347">
         <v>0.006783443794823183</v>
@@ -26214,13 +26214,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U347">
-        <v>1.000015110761885</v>
+        <v>1.511076188465132E-05</v>
       </c>
       <c r="V347">
-        <v>0.9996980038051519</v>
+        <v>-0.0003019961948480532</v>
       </c>
       <c r="W347">
-        <v>0.9995464852607711</v>
+        <v>-0.000453514739228944</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -26255,7 +26255,7 @@
         <v>1.122184677487677</v>
       </c>
       <c r="K348">
-        <v>52.87874751862605</v>
+        <v>0.02878747518626046</v>
       </c>
       <c r="L348">
         <v>0.005616017675180234</v>
@@ -26285,13 +26285,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U348">
-        <v>1.000045331600659</v>
+        <v>4.533160065900432E-05</v>
       </c>
       <c r="V348">
-        <v>0.9998489562879498</v>
+        <v>-0.0001510437120502139</v>
       </c>
       <c r="W348">
-        <v>1.000907441016334</v>
+        <v>0.0009074410163338875</v>
       </c>
     </row>
     <row r="349" spans="1:23">
@@ -26326,7 +26326,7 @@
         <v>0.992989356244123</v>
       </c>
       <c r="K349">
-        <v>49.82411738091043</v>
+        <v>-0.001758826190895679</v>
       </c>
       <c r="L349">
         <v>0.004265885138946991</v>
@@ -26356,13 +26356,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U349">
-        <v>1.000045329545798</v>
+        <v>4.532954579783421E-05</v>
       </c>
       <c r="V349">
-        <v>0.9998187201643605</v>
+        <v>-0.0001812798356395362</v>
       </c>
       <c r="W349">
-        <v>0.9990933816863101</v>
+        <v>-0.0009066183136898776</v>
       </c>
     </row>
     <row r="350" spans="1:23">
@@ -26397,7 +26397,7 @@
         <v>0.8856583793279672</v>
       </c>
       <c r="K350">
-        <v>46.96812471639791</v>
+        <v>-0.03031875283602092</v>
       </c>
       <c r="L350">
         <v>0.002545454450744216</v>
@@ -26427,13 +26427,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U350">
-        <v>1.000030218327415</v>
+        <v>3.021832741545438E-05</v>
       </c>
       <c r="V350">
-        <v>0.9998186872960231</v>
+        <v>-0.0001813127039769213</v>
       </c>
       <c r="W350">
-        <v>0.999092558983666</v>
+        <v>-0.0009074410163339985</v>
       </c>
     </row>
     <row r="351" spans="1:23">
@@ -26468,7 +26468,7 @@
         <v>0.837986329973651</v>
       </c>
       <c r="K351">
-        <v>45.59263125671148</v>
+        <v>-0.0440736874328852</v>
       </c>
       <c r="L351">
         <v>0.0005360129018574533</v>
@@ -26498,13 +26498,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U351">
-        <v>0.9999848912928521</v>
+        <v>-1.510870714793722E-05</v>
       </c>
       <c r="V351">
-        <v>0.9998791029438433</v>
+        <v>-0.0001208970561566991</v>
       </c>
       <c r="W351">
-        <v>0.9995458673932789</v>
+        <v>-0.0004541326067211138</v>
       </c>
     </row>
     <row r="352" spans="1:23">
@@ -26539,7 +26539,7 @@
         <v>0.71624049628654</v>
       </c>
       <c r="K352">
-        <v>41.73310779207705</v>
+        <v>-0.08266892207922949</v>
       </c>
       <c r="L352">
         <v>-0.002017670656040107</v>
@@ -26569,13 +26569,13 @@
         <v>-0.1375000000000171</v>
       </c>
       <c r="U352">
-        <v>0.9999093463874537</v>
+        <v>-9.065361254634308E-05</v>
       </c>
       <c r="V352">
-        <v>0.9996977208149447</v>
+        <v>-0.0003022791850553208</v>
       </c>
       <c r="W352">
-        <v>0.9986369831894594</v>
+        <v>-0.001363016810540629</v>
       </c>
     </row>
     <row r="353" spans="1:23">
@@ -26610,7 +26610,7 @@
         <v>0.8181940362274257</v>
       </c>
       <c r="K353">
-        <v>45.00036959339599</v>
+        <v>-0.04999630406604011</v>
       </c>
       <c r="L353">
         <v>-0.004400978111354229</v>
@@ -26640,13 +26640,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U353">
-        <v>0.9999093381686309</v>
+        <v>-9.066183136907657E-05</v>
       </c>
       <c r="V353">
-        <v>0.9999092888243832</v>
+        <v>-9.071117561676445E-05</v>
       </c>
       <c r="W353">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073701779</v>
       </c>
     </row>
     <row r="354" spans="1:23">
@@ -26681,7 +26681,7 @@
         <v>0.7765258472871516</v>
       </c>
       <c r="K354">
-        <v>43.71036022205629</v>
+        <v>-0.06289639777943712</v>
       </c>
       <c r="L354">
         <v>-0.006678447853645952</v>
@@ -26711,13 +26711,13 @@
         <v>-0.25</v>
       </c>
       <c r="U354">
-        <v>0.9998942182730377</v>
+        <v>-0.0001057817269622952</v>
       </c>
       <c r="V354">
-        <v>0.9998185611902386</v>
+        <v>-0.0001814388097614028</v>
       </c>
       <c r="W354">
-        <v>0.9995454545454546</v>
+        <v>-0.0004545454545453742</v>
       </c>
     </row>
     <row r="355" spans="1:23">
@@ -26752,7 +26752,7 @@
         <v>0.9373480345948806</v>
       </c>
       <c r="K355">
-        <v>48.38304826271908</v>
+        <v>-0.01616951737280919</v>
       </c>
       <c r="L355">
         <v>-0.008227312862751364</v>
@@ -26782,13 +26782,13 @@
         <v>-0.2562500000000227</v>
       </c>
       <c r="U355">
-        <v>0.9999546601780342</v>
+        <v>-4.533982196575082E-05</v>
       </c>
       <c r="V355">
-        <v>0.9998487735535189</v>
+        <v>-0.0001512264464811341</v>
       </c>
       <c r="W355">
-        <v>1.001364256480218</v>
+        <v>0.001364256480218096</v>
       </c>
     </row>
     <row r="356" spans="1:23">
@@ -26823,7 +26823,7 @@
         <v>0.8872798632403489</v>
       </c>
       <c r="K356">
-        <v>47.0136878224802</v>
+        <v>-0.02986312177519801</v>
       </c>
       <c r="L356">
         <v>-0.009371316106321467</v>
@@ -26853,13 +26853,13 @@
         <v>-0.2812499999999716</v>
       </c>
       <c r="U356">
-        <v>0.999939544162989</v>
+        <v>-6.045583701097534E-05</v>
       </c>
       <c r="V356">
-        <v>0.9998185008167464</v>
+        <v>-0.0001814991832536084</v>
       </c>
       <c r="W356">
-        <v>0.9995458673932789</v>
+        <v>-0.0004541326067211138</v>
       </c>
     </row>
     <row r="357" spans="1:23">
@@ -26894,7 +26894,7 @@
         <v>0.7975893343527469</v>
       </c>
       <c r="K357">
-        <v>44.36994140488338</v>
+        <v>-0.05630058595116622</v>
       </c>
       <c r="L357">
         <v>-0.01049336899267491</v>
@@ -26924,13 +26924,13 @@
         <v>-0.2937500000000171</v>
       </c>
       <c r="U357">
-        <v>0.9999093107617896</v>
+        <v>-9.068923821042851E-05</v>
       </c>
       <c r="V357">
-        <v>0.9997882125136149</v>
+        <v>-0.0002117874863850622</v>
       </c>
       <c r="W357">
-        <v>0.9990913221263062</v>
+        <v>-0.0009086778736937529</v>
       </c>
     </row>
     <row r="358" spans="1:23">
@@ -26965,7 +26965,7 @@
         <v>0.8507918733435402</v>
       </c>
       <c r="K358">
-        <v>45.96907332462757</v>
+        <v>-0.04030926675372426</v>
       </c>
       <c r="L358">
         <v>-0.01132746870555868</v>
@@ -26995,13 +26995,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U358">
-        <v>0.999954651268253</v>
+        <v>-4.534873174699694E-05</v>
       </c>
       <c r="V358">
-        <v>0.9997881676501739</v>
+        <v>-0.0002118323498261354</v>
       </c>
       <c r="W358">
-        <v>1.000454752160073</v>
+        <v>0.0004547521600726245</v>
       </c>
     </row>
     <row r="359" spans="1:23">
@@ -27036,7 +27036,7 @@
         <v>0.8056720834154317</v>
       </c>
       <c r="K359">
-        <v>44.61895882509862</v>
+        <v>-0.05381041174901385</v>
       </c>
       <c r="L359">
         <v>-0.01205798987375313</v>
@@ -27066,13 +27066,13 @@
         <v>-0.2562499999999943</v>
       </c>
       <c r="U359">
-        <v>0.9999395322822029</v>
+        <v>-6.046771779710802E-05</v>
       </c>
       <c r="V359">
-        <v>0.9997275864156427</v>
+        <v>-0.0002724135843572562</v>
       </c>
       <c r="W359">
-        <v>0.9995454545454546</v>
+        <v>-0.0004545454545453742</v>
       </c>
     </row>
     <row r="360" spans="1:23">
@@ -27107,7 +27107,7 @@
         <v>0.8056720834154317</v>
       </c>
       <c r="K360">
-        <v>44.61895882509862</v>
+        <v>-0.05381041174901385</v>
       </c>
       <c r="L360">
         <v>-0.01263545679560082</v>
@@ -27137,13 +27137,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U360">
-        <v>0.9998337037205012</v>
+        <v>-0.0001662962794988232</v>
       </c>
       <c r="V360">
-        <v>0.9996972357625118</v>
+        <v>-0.0003027642374882067</v>
       </c>
       <c r="W360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:23">
@@ -27178,7 +27178,7 @@
         <v>0.9231960716751769</v>
       </c>
       <c r="K361">
-        <v>48.00322157849657</v>
+        <v>-0.01996778421503431</v>
       </c>
       <c r="L361">
         <v>-0.01270711936819362</v>
@@ -27208,13 +27208,13 @@
         <v>-0.125</v>
       </c>
       <c r="U361">
-        <v>0.9998790371355993</v>
+        <v>-0.0001209628644006644</v>
       </c>
       <c r="V361">
-        <v>0.9998788576274266</v>
+        <v>-0.0001211423725734351</v>
       </c>
       <c r="W361">
-        <v>1.000909504320145</v>
+        <v>0.0009095043201454711</v>
       </c>
     </row>
     <row r="362" spans="1:23">
@@ -27249,7 +27249,7 @@
         <v>0.869418428920811</v>
       </c>
       <c r="K362">
-        <v>46.50742795034464</v>
+        <v>-0.03492572049655357</v>
       </c>
       <c r="L362">
         <v>-0.01258668960317518</v>
@@ -27279,13 +27279,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U362">
-        <v>0.9997882893781758</v>
+        <v>-0.0002117106218242348</v>
       </c>
       <c r="V362">
-        <v>0.9998788429501742</v>
+        <v>-0.0001211570498258485</v>
       </c>
       <c r="W362">
-        <v>0.9995456610631531</v>
+        <v>-0.0004543389368468764</v>
       </c>
     </row>
     <row r="363" spans="1:23">
@@ -27320,7 +27320,7 @@
         <v>0.8694184289208111</v>
       </c>
       <c r="K363">
-        <v>46.50742795034465</v>
+        <v>-0.03492572049655351</v>
       </c>
       <c r="L363">
         <v>-0.01231174841548759</v>
@@ -27350,13 +27350,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U363">
-        <v>0.9998336207157333</v>
+        <v>-0.00016637928426666</v>
       </c>
       <c r="V363">
-        <v>0.9998182424040472</v>
+        <v>-0.0001817575959528472</v>
       </c>
       <c r="W363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:23">
@@ -27391,7 +27391,7 @@
         <v>0.8167044811552308</v>
       </c>
       <c r="K364">
-        <v>44.95527421366263</v>
+        <v>-0.05044725786337373</v>
       </c>
       <c r="L364">
         <v>-0.01208116329751209</v>
@@ -27421,13 +27421,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U364">
-        <v>0.9998335930290607</v>
+        <v>-0.0001664069709392813</v>
       </c>
       <c r="V364">
-        <v>0.9998485078018482</v>
+        <v>-0.0001514921981518036</v>
       </c>
       <c r="W364">
-        <v>0.9995454545454546</v>
+        <v>-0.0004545454545453742</v>
       </c>
     </row>
     <row r="365" spans="1:23">
@@ -27462,7 +27462,7 @@
         <v>0.5645071116138523</v>
       </c>
       <c r="K365">
-        <v>36.08210582255138</v>
+        <v>-0.1391789417744861</v>
       </c>
       <c r="L365">
         <v>-0.01300520566062721</v>
@@ -27492,13 +27492,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U365">
-        <v>0.9997579132118863</v>
+        <v>-0.0002420867881136601</v>
       </c>
       <c r="V365">
-        <v>0.9996969696969698</v>
+        <v>-0.0003030303030302495</v>
       </c>
       <c r="W365">
-        <v>0.9968167348794906</v>
+        <v>-0.003183265120509371</v>
       </c>
     </row>
     <row r="366" spans="1:23">
@@ -27533,7 +27533,7 @@
         <v>0.5645071116138524</v>
       </c>
       <c r="K366">
-        <v>36.08210582255138</v>
+        <v>-0.1391789417744861</v>
       </c>
       <c r="L366">
         <v>-0.01452308541916992</v>
@@ -27563,13 +27563,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U366">
-        <v>0.9998032568557419</v>
+        <v>-0.0001967431442581047</v>
       </c>
       <c r="V366">
-        <v>0.9997271900575934</v>
+        <v>-0.0002728099424066377</v>
       </c>
       <c r="W366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:23">
@@ -27604,7 +27604,7 @@
         <v>0.5645071116138523</v>
       </c>
       <c r="K367">
-        <v>36.08210582255138</v>
+        <v>-0.1391789417744861</v>
       </c>
       <c r="L367">
         <v>-0.01625168311220547</v>
@@ -27634,13 +27634,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U367">
-        <v>0.9997578069418588</v>
+        <v>-0.0002421930581412157</v>
       </c>
       <c r="V367">
-        <v>0.9998180770746793</v>
+        <v>-0.00018192292532071</v>
       </c>
       <c r="W367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:23">
@@ -27675,7 +27675,7 @@
         <v>0.6674121771949583</v>
       </c>
       <c r="K368">
-        <v>40.02682637940953</v>
+        <v>-0.0997317362059047</v>
       </c>
       <c r="L368">
         <v>-0.01760845311849571</v>
@@ -27705,13 +27705,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U368">
-        <v>0.9998637334019712</v>
+        <v>-0.0001362665980287892</v>
       </c>
       <c r="V368">
-        <v>0.9998180439727067</v>
+        <v>-0.0001819560272933174</v>
       </c>
       <c r="W368">
-        <v>1.000912408759124</v>
+        <v>0.0009124087591241281</v>
       </c>
     </row>
     <row r="369" spans="1:23">
@@ -27746,7 +27746,7 @@
         <v>0.7215727380271116</v>
       </c>
       <c r="K369">
-        <v>41.91357832803624</v>
+        <v>-0.08086421671963762</v>
       </c>
       <c r="L369">
         <v>-0.01842430769950203</v>
@@ -27776,13 +27776,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U369">
-        <v>0.9998485720342833</v>
+        <v>-0.0001514279657166551</v>
       </c>
       <c r="V369">
-        <v>0.9998786739057902</v>
+        <v>-0.0001213260942097838</v>
       </c>
       <c r="W369">
-        <v>1.000455788514129</v>
+        <v>0.0004557885141294182</v>
       </c>
     </row>
     <row r="370" spans="1:23">
@@ -27817,7 +27817,7 @@
         <v>0.6826538781384556</v>
       </c>
       <c r="K370">
-        <v>40.57007130270222</v>
+        <v>-0.09429928697297785</v>
       </c>
       <c r="L370">
         <v>-0.01895893461515304</v>
@@ -27847,13 +27847,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U370">
-        <v>0.9998031138304962</v>
+        <v>-0.0001968861695037516</v>
       </c>
       <c r="V370">
-        <v>0.999757318367966</v>
+        <v>-0.0002426816320340031</v>
       </c>
       <c r="W370">
-        <v>0.9995444191343964</v>
+        <v>-0.0004555808656035998</v>
       </c>
     </row>
     <row r="371" spans="1:23">
@@ -27888,7 +27888,7 @@
         <v>0.6826538781384556</v>
       </c>
       <c r="K371">
-        <v>40.57007130270222</v>
+        <v>-0.09429928697297785</v>
       </c>
       <c r="L371">
         <v>-0.0192202788277712</v>
@@ -27918,13 +27918,13 @@
         <v>-0.2937499999999886</v>
       </c>
       <c r="U371">
-        <v>0.9998030750586987</v>
+        <v>-0.0001969249413013019</v>
       </c>
       <c r="V371">
-        <v>0.9997876020268834</v>
+        <v>-0.0002123979731165626</v>
       </c>
       <c r="W371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:23">
@@ -27959,7 +27959,7 @@
         <v>0.6097703960127419</v>
       </c>
       <c r="K372">
-        <v>37.87933965757408</v>
+        <v>-0.1212066034242592</v>
       </c>
       <c r="L372">
         <v>-0.01956052377634439</v>
@@ -27989,13 +27989,13 @@
         <v>-0.3250000000000171</v>
       </c>
       <c r="U372">
-        <v>0.9997878852155996</v>
+        <v>-0.000212114784400419</v>
       </c>
       <c r="V372">
-        <v>0.9997875569044007</v>
+        <v>-0.0002124430955993128</v>
       </c>
       <c r="W372">
-        <v>0.9990884229717411</v>
+        <v>-0.0009115770282589475</v>
       </c>
     </row>
     <row r="373" spans="1:23">
@@ -28030,7 +28030,7 @@
         <v>0.6659624556538525</v>
       </c>
       <c r="K373">
-        <v>39.97463768728673</v>
+        <v>-0.1002536231271327</v>
       </c>
       <c r="L373">
         <v>-0.01969048477251206</v>
@@ -28060,13 +28060,13 @@
         <v>-0.2749999999999773</v>
       </c>
       <c r="U373">
-        <v>0.9997878402133722</v>
+        <v>-0.000212159786627808</v>
       </c>
       <c r="V373">
-        <v>0.9997875117627416</v>
+        <v>-0.0002124882372583903</v>
       </c>
       <c r="W373">
-        <v>1.000456204379562</v>
+        <v>0.0004562043795621751</v>
       </c>
     </row>
     <row r="374" spans="1:23">
@@ -28101,7 +28101,7 @@
         <v>0.7251119921181628</v>
       </c>
       <c r="K374">
-        <v>42.03274891317871</v>
+        <v>-0.07967251086821286</v>
       </c>
       <c r="L374">
         <v>-0.01944768538705241</v>
@@ -28131,13 +28131,13 @@
         <v>-0.2124999999999773</v>
       </c>
       <c r="U374">
-        <v>0.9997877951920453</v>
+        <v>-0.0002122048079546968</v>
       </c>
       <c r="V374">
-        <v>0.9998481904299247</v>
+        <v>-0.000151809570075323</v>
       </c>
       <c r="W374">
-        <v>1.000455996352029</v>
+        <v>0.0004559963520291976</v>
       </c>
     </row>
     <row r="375" spans="1:23">
@@ -28172,7 +28172,7 @@
         <v>0.7873746620805946</v>
       </c>
       <c r="K375">
-        <v>44.05202103313083</v>
+        <v>-0.05947978966869172</v>
       </c>
       <c r="L375">
         <v>-0.01875814297276678</v>
@@ -28202,13 +28202,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U375">
-        <v>0.9997877501516069</v>
+        <v>-0.0002122498483930757</v>
       </c>
       <c r="V375">
-        <v>0.999878533904224</v>
+        <v>-0.0001214660957760128</v>
       </c>
       <c r="W375">
-        <v>1.000455788514129</v>
+        <v>0.0004557885141294182</v>
       </c>
     </row>
     <row r="376" spans="1:23">
@@ -28243,7 +28243,7 @@
         <v>0.7389444964954855</v>
       </c>
       <c r="K376">
-        <v>42.49385175804569</v>
+        <v>-0.07506148241954314</v>
       </c>
       <c r="L376">
         <v>-0.01793907222357121</v>
@@ -28273,13 +28273,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U376">
-        <v>0.9998331968580354</v>
+        <v>-0.0001668031419645999</v>
       </c>
       <c r="V376">
-        <v>0.9997874085097337</v>
+        <v>-0.0002125914902663117</v>
       </c>
       <c r="W376">
-        <v>0.9995444191343964</v>
+        <v>-0.0004555808656035998</v>
       </c>
     </row>
     <row r="377" spans="1:23">
@@ -28314,7 +28314,7 @@
         <v>0.6940103146222024</v>
       </c>
       <c r="K377">
-        <v>40.96848222420537</v>
+        <v>-0.09031517775794629</v>
       </c>
       <c r="L377">
         <v>-0.01719403556678369</v>
@@ -28344,13 +28344,13 @@
         <v>-0.09375000000002842</v>
       </c>
       <c r="U377">
-        <v>0.9998331690301053</v>
+        <v>-0.0001668309698946713</v>
       </c>
       <c r="V377">
-        <v>0.9997873633049819</v>
+        <v>-0.0002126366950181424</v>
       </c>
       <c r="W377">
-        <v>0.9995442114858706</v>
+        <v>-0.0004557885141294182</v>
       </c>
     </row>
     <row r="378" spans="1:23">
@@ -28385,7 +28385,7 @@
         <v>0.6522597824264929</v>
       </c>
       <c r="K378">
-        <v>39.47682981598635</v>
+        <v>-0.1052317018401365</v>
       </c>
       <c r="L378">
         <v>-0.0166444733974877</v>
@@ -28415,13 +28415,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U378">
-        <v>0.9997876342454949</v>
+        <v>-0.0002123657545051172</v>
       </c>
       <c r="V378">
-        <v>0.9997569349497158</v>
+        <v>-0.0002430650502841525</v>
       </c>
       <c r="W378">
-        <v>0.9995440036479707</v>
+        <v>-0.0004559963520293087</v>
       </c>
     </row>
     <row r="379" spans="1:23">
@@ -28456,7 +28456,7 @@
         <v>0.5789377716906325</v>
       </c>
       <c r="K379">
-        <v>36.66628172880686</v>
+        <v>-0.1333371827119314</v>
       </c>
       <c r="L379">
         <v>-0.01651929299489354</v>
@@ -28486,13 +28486,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U379">
-        <v>0.9997875891367016</v>
+        <v>-0.0002124108632983734</v>
       </c>
       <c r="V379">
-        <v>0.9997264853365749</v>
+        <v>-0.0002735146634250674</v>
       </c>
       <c r="W379">
-        <v>0.999087591240876</v>
+        <v>-0.0009124087591240171</v>
       </c>
     </row>
     <row r="380" spans="1:23">
@@ -28527,7 +28527,7 @@
         <v>0.5176812169023705</v>
       </c>
       <c r="K380">
-        <v>34.11001013499872</v>
+        <v>-0.1588998986500128</v>
       </c>
       <c r="L380">
         <v>-0.01693079365384562</v>
@@ -28557,13 +28557,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U380">
-        <v>0.999787544008741</v>
+        <v>-0.0002124559912589641</v>
       </c>
       <c r="V380">
-        <v>0.9998784046692608</v>
+        <v>-0.0001215953307391882</v>
       </c>
       <c r="W380">
-        <v>0.9990867579908677</v>
+        <v>-0.0009132420091323423</v>
       </c>
     </row>
     <row r="381" spans="1:23">
@@ -28598,7 +28598,7 @@
         <v>0.9075021182018658</v>
       </c>
       <c r="K381">
-        <v>47.57541863478168</v>
+        <v>-0.02424581365218326</v>
       </c>
       <c r="L381">
         <v>-0.01641978461452133</v>
@@ -28628,13 +28628,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U381">
-        <v>0.9999089280835433</v>
+        <v>-9.107191645674195E-05</v>
       </c>
       <c r="V381">
-        <v>1.000091207588471</v>
+        <v>9.120758847136479E-05</v>
       </c>
       <c r="W381">
-        <v>1.003199268738574</v>
+        <v>0.003199268738574013</v>
       </c>
     </row>
   </sheetData>
